--- a/Consolidado_Bridge_2025_OLD.xlsx
+++ b/Consolidado_Bridge_2025_OLD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Documentos/nwb/bridge/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3497852B-478A-48FF-83D0-E37F4852B24F}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE888C6-418B-4C16-8479-D50EA5CEDD67}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2025 Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$708</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8557" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10687" uniqueCount="2112">
   <si>
     <t>Quando</t>
   </si>
@@ -5261,6 +5261,1143 @@
   </si>
   <si>
     <t>21 96681-8141</t>
+  </si>
+  <si>
+    <t>01/06/2025</t>
+  </si>
+  <si>
+    <t>Marcelo Baptista</t>
+  </si>
+  <si>
+    <t>21 99608-0725</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Solicitou GC em Copa</t>
+  </si>
+  <si>
+    <t>Alan Do Nascimento De Souza</t>
+  </si>
+  <si>
+    <t>21 98526-2652</t>
+  </si>
+  <si>
+    <t>Telefone errado.</t>
+  </si>
+  <si>
+    <t>Felipe Dos Santos Diniz</t>
+  </si>
+  <si>
+    <t>21 97510-6116</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp mas não respondeu.</t>
+  </si>
+  <si>
+    <t>Thiago Da Silva Fidelis</t>
+  </si>
+  <si>
+    <t>21 98240-7210</t>
+  </si>
+  <si>
+    <t>Thiago Moeaes</t>
+  </si>
+  <si>
+    <t>21 96672-6359</t>
+  </si>
+  <si>
+    <t>Alex Hammes</t>
+  </si>
+  <si>
+    <t>21 99885-8688</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Solicitou GC no Jardim Botânico</t>
+  </si>
+  <si>
+    <t>Alexsandro Sousa Santos</t>
+  </si>
+  <si>
+    <t>21 99482-5122</t>
+  </si>
+  <si>
+    <t>Luiz Carlos Da Cunha Cordeiro</t>
+  </si>
+  <si>
+    <t>21 99976-1797</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp.</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>Lucas Daniel Dos Santos</t>
+  </si>
+  <si>
+    <t>21 96549-8350</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Encaminhado ao GC Leme</t>
+  </si>
+  <si>
+    <t>Marcio Vinícius</t>
+  </si>
+  <si>
+    <t>21 97134-2021</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Encaminhar Maximus</t>
+  </si>
+  <si>
+    <t>Rafael Silva</t>
+  </si>
+  <si>
+    <t>21 99669-4003</t>
+  </si>
+  <si>
+    <t>Luiz Fernando Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>21 99469-6157</t>
+  </si>
+  <si>
+    <t>Camila Alves Reis</t>
+  </si>
+  <si>
+    <t>21 99885-5917</t>
+  </si>
+  <si>
+    <t>Respondeu e estamos tentando encaminhar para o GC</t>
+  </si>
+  <si>
+    <t>Eliza Rangel Ferreira</t>
+  </si>
+  <si>
+    <t>21 97006-0676</t>
+  </si>
+  <si>
+    <t>Taisa Santos Tavares</t>
+  </si>
+  <si>
+    <t>21 96772-4767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está indo ao Gc Copa </t>
+  </si>
+  <si>
+    <t>Maria José</t>
+  </si>
+  <si>
+    <t>21 97998-4824</t>
+  </si>
+  <si>
+    <t>Aline Soares Pinto</t>
+  </si>
+  <si>
+    <t>21 99624-5377</t>
+  </si>
+  <si>
+    <t>Priscila Prudente</t>
+  </si>
+  <si>
+    <t>21 96501-5222</t>
+  </si>
+  <si>
+    <t>Rafaela Pereira</t>
+  </si>
+  <si>
+    <t>21 96832-7000</t>
+  </si>
+  <si>
+    <t>Júlia Mendes</t>
+  </si>
+  <si>
+    <t>21 98103-5478</t>
+  </si>
+  <si>
+    <t>Vitória Belo De Oliveira</t>
+  </si>
+  <si>
+    <t>51 99530-8830</t>
+  </si>
+  <si>
+    <t>Simone Elias</t>
+  </si>
+  <si>
+    <t>21 99335-9335</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Vidigal</t>
+  </si>
+  <si>
+    <t>Mileide Ramos</t>
+  </si>
+  <si>
+    <t>21 99582-9686</t>
+  </si>
+  <si>
+    <t>Francisca Daline Bezerra Soares</t>
+  </si>
+  <si>
+    <t>21 99919-1008</t>
+  </si>
+  <si>
+    <t>Carol Mendes</t>
+  </si>
+  <si>
+    <t>21 93500-0881</t>
+  </si>
+  <si>
+    <t>TELEFONE INCORRETO</t>
+  </si>
+  <si>
+    <t>Erica De Sousa Peres</t>
+  </si>
+  <si>
+    <t>21 98890-6987</t>
+  </si>
+  <si>
+    <t>Lidyane Sodre</t>
+  </si>
+  <si>
+    <t>21 98863-9995</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC NEXT</t>
+  </si>
+  <si>
+    <t>08/06/2025</t>
+  </si>
+  <si>
+    <t>Júlio César De Amorim Cardoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manins </t>
+  </si>
+  <si>
+    <t>21 99439-9761</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp mas não respondeu</t>
+  </si>
+  <si>
+    <t>Lucas Weester Silva De Souza</t>
+  </si>
+  <si>
+    <t>92 98445-4740</t>
+  </si>
+  <si>
+    <t>Vinicius Santos Canone</t>
+  </si>
+  <si>
+    <t>21 99134-2681</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Já é membro de outra igreja e veio apenas visitar</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>Kauã Costa De Souza</t>
+  </si>
+  <si>
+    <t>21 99353-8312</t>
+  </si>
+  <si>
+    <t>Thiago Gabriel Braga Nunes</t>
+  </si>
+  <si>
+    <t>68 99226-7063</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Demonstrou interesse pelo GC. Solicitou GC no Leblon.</t>
+  </si>
+  <si>
+    <t>Kauan Gabriel</t>
+  </si>
+  <si>
+    <t>21 99071-9797</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei as boas vindas e convidei para GC. Já faz parte do GC Nexteen</t>
+  </si>
+  <si>
+    <t>Bernardo Miranda Lima</t>
+  </si>
+  <si>
+    <t>11 98225-8866</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>Kauã Carvalho</t>
+  </si>
+  <si>
+    <t>21 97493-1687</t>
+  </si>
+  <si>
+    <t>14/06/2025</t>
+  </si>
+  <si>
+    <t>Felipe Perruci Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>21 97881-2966</t>
+  </si>
+  <si>
+    <t>Rafael Chaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flamengo </t>
+  </si>
+  <si>
+    <t>21 97873-7247</t>
+  </si>
+  <si>
+    <t>Ana Paula Guimarães</t>
+  </si>
+  <si>
+    <t>21 99886-7445</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC Ipanema</t>
+  </si>
+  <si>
+    <t>Herica Teixeira</t>
+  </si>
+  <si>
+    <t>21 98625-0793</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC Copacabana e filha ao nexteen</t>
+  </si>
+  <si>
+    <t>Julia Valdevino Machado</t>
+  </si>
+  <si>
+    <t>21 99771-9911</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando encaminhar ao GC</t>
+  </si>
+  <si>
+    <t>Thais Dos Santos Mota De Aguiar</t>
+  </si>
+  <si>
+    <t>21 97042-5367</t>
+  </si>
+  <si>
+    <t>Aguardando responder</t>
+  </si>
+  <si>
+    <t>Heloa De Araújo</t>
+  </si>
+  <si>
+    <t>21 96749-3058</t>
+  </si>
+  <si>
+    <t>Larissa Castro</t>
+  </si>
+  <si>
+    <t>21 96402-4723</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC 27+ Tijuca</t>
+  </si>
+  <si>
+    <t>Lauren Daniela Angulo Tellez</t>
+  </si>
+  <si>
+    <t>21 92978-1460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número errado </t>
+  </si>
+  <si>
+    <t>Quelle Batista Ferreira</t>
+  </si>
+  <si>
+    <t>21 97492-3262</t>
+  </si>
+  <si>
+    <t>Fernanda Santos Menegazi</t>
+  </si>
+  <si>
+    <t>Bartolomeu Mitre 621</t>
+  </si>
+  <si>
+    <t>61 99262-8392</t>
+  </si>
+  <si>
+    <t>Esta indo ao GC Leblon 3</t>
+  </si>
+  <si>
+    <t>Antonia De Marcos Lima</t>
+  </si>
+  <si>
+    <t>21 97627-0057</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Oliveira Silva</t>
+  </si>
+  <si>
+    <t>45 99106-7618</t>
+  </si>
+  <si>
+    <t>Eduarda Oliveira</t>
+  </si>
+  <si>
+    <t>51 99328-0896</t>
+  </si>
+  <si>
+    <t>Milena Rocha</t>
+  </si>
+  <si>
+    <t>21 99267-9908</t>
+  </si>
+  <si>
+    <t>Suenia Almeida</t>
+  </si>
+  <si>
+    <t>21 97100-4733</t>
+  </si>
+  <si>
+    <t>Fernanda Araújo</t>
+  </si>
+  <si>
+    <t>21 99845-1033</t>
+  </si>
+  <si>
+    <t>Lyvia Julia</t>
+  </si>
+  <si>
+    <t>21 98054-0185</t>
+  </si>
+  <si>
+    <t>Não tem whats e cai caixa postal</t>
+  </si>
+  <si>
+    <t>Tayane Regis Da Silva</t>
+  </si>
+  <si>
+    <t>21 96540-3545</t>
+  </si>
+  <si>
+    <t>Célia Santos</t>
+  </si>
+  <si>
+    <t>21 96994-3400</t>
+  </si>
+  <si>
+    <t>Passou o numero da Filha para ligarmos pois ela que aceitou jesus</t>
+  </si>
+  <si>
+    <t>Lislaine Gomes</t>
+  </si>
+  <si>
+    <t>21 97895-0763</t>
+  </si>
+  <si>
+    <t>Está frequentando o GC Del castilho</t>
+  </si>
+  <si>
+    <t>Julia França</t>
+  </si>
+  <si>
+    <t>21 99101-7878</t>
+  </si>
+  <si>
+    <t>Laís Carvalho</t>
+  </si>
+  <si>
+    <t>21 97251-2139</t>
+  </si>
+  <si>
+    <t>Miriam Dias</t>
+  </si>
+  <si>
+    <t>Suzana Santos</t>
+  </si>
+  <si>
+    <t>21 99670-2563</t>
+  </si>
+  <si>
+    <t>Rachel Souza Maria</t>
+  </si>
+  <si>
+    <t>21 99079-8070</t>
+  </si>
+  <si>
+    <t>15/06/2025</t>
+  </si>
+  <si>
+    <t>Thiago Guedes</t>
+  </si>
+  <si>
+    <t>21 97608-3774</t>
+  </si>
+  <si>
+    <t>Otavio Balle</t>
+  </si>
+  <si>
+    <t>67 98158-8419</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Encaminhei para NEXTEEN</t>
+  </si>
+  <si>
+    <t>Alexandre Massa</t>
+  </si>
+  <si>
+    <t>21 99983-3251</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Se interessou por um GC</t>
+  </si>
+  <si>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
+    <t>Bonfim</t>
+  </si>
+  <si>
+    <t>Juiz De Fora / MG</t>
+  </si>
+  <si>
+    <t>32 8811-6001</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Mora fora do RJ. Perguntei sobre GC.</t>
+  </si>
+  <si>
+    <t>Eliseu Almeida</t>
+  </si>
+  <si>
+    <t>Cascadura</t>
+  </si>
+  <si>
+    <t>21 97684-2768</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei boas vindas, agradeceu o contato e disse que ia continuar frequentando a igreja. Convidei para um GC</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>Yuri Galdino</t>
+  </si>
+  <si>
+    <t>21 98224-6440</t>
+  </si>
+  <si>
+    <t>Victor Manoel Mesquita Ferreira</t>
+  </si>
+  <si>
+    <t>21 99566-3810</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp, dei as boas vindas e convidei para GC. Encaminhado para Tainah do 27+</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Santiago</t>
+  </si>
+  <si>
+    <t>21 99468-6924</t>
+  </si>
+  <si>
+    <t>Estamos tentando encaminhar ao GC</t>
+  </si>
+  <si>
+    <t>Andrea Fernandes</t>
+  </si>
+  <si>
+    <t>21 98726-4059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está indo ao GC de casais </t>
+  </si>
+  <si>
+    <t>Rosane Gonçalves</t>
+  </si>
+  <si>
+    <t>21 97540-5125</t>
+  </si>
+  <si>
+    <t>Bárbara Domingues</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>21 99587-8123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está encaminhada para o GC Tijuca 3 </t>
+  </si>
+  <si>
+    <t>Simone De Souza Freitas Morais</t>
+  </si>
+  <si>
+    <t>21 97519-5836</t>
+  </si>
+  <si>
+    <t>Ludy Gadelha</t>
+  </si>
+  <si>
+    <t>Recife / PE</t>
+  </si>
+  <si>
+    <t>81 98715-0834</t>
+  </si>
+  <si>
+    <t>Tatiana Florentino Fernandes</t>
+  </si>
+  <si>
+    <t>21 97827-4017</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC 27+</t>
+  </si>
+  <si>
+    <t>Rosana Maria De Almeida Viana</t>
+  </si>
+  <si>
+    <t>Río De Janeiro  / RJ</t>
+  </si>
+  <si>
+    <t>21 99943-7062</t>
+  </si>
+  <si>
+    <t>Silvia Vanessa Martins Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> São Cristovao</t>
+  </si>
+  <si>
+    <t>21 99933-5601</t>
+  </si>
+  <si>
+    <t>Fernanda Santos Menegaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada para o Boss </t>
+  </si>
+  <si>
+    <t>Jessica Lara</t>
+  </si>
+  <si>
+    <t>Rio Grande Do Sul / RS</t>
+  </si>
+  <si>
+    <t>51 98301-1491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membro de outra igreja, apenas nos visitou </t>
+  </si>
+  <si>
+    <t>Leila Oviedo</t>
+  </si>
+  <si>
+    <t>21 99033-1319</t>
+  </si>
+  <si>
+    <t>Livia Guimaraes</t>
+  </si>
+  <si>
+    <t>21 96621-5804</t>
+  </si>
+  <si>
+    <t>22/06/2025</t>
+  </si>
+  <si>
+    <t>Vitor Manja Santos</t>
+  </si>
+  <si>
+    <t>21 98542-3179</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei as boas vindas</t>
+  </si>
+  <si>
+    <t>Anderson De Almeida</t>
+  </si>
+  <si>
+    <t>21 97038-5824</t>
+  </si>
+  <si>
+    <t>Paulo Henrique Carvalho Lima</t>
+  </si>
+  <si>
+    <t>88 99620-7090</t>
+  </si>
+  <si>
+    <t>Pedro Salles</t>
+  </si>
+  <si>
+    <t>Muzema</t>
+  </si>
+  <si>
+    <t>88 99622-6328</t>
+  </si>
+  <si>
+    <t>Wellington Souza</t>
+  </si>
+  <si>
+    <t>21 99219-3625</t>
+  </si>
+  <si>
+    <t>Thiago Alves Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barra Olímpica </t>
+  </si>
+  <si>
+    <t>21 99104-1144</t>
+  </si>
+  <si>
+    <t>Encaminhado para a NC Barra</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>Luís Carlos Alves Cardoso</t>
+  </si>
+  <si>
+    <t>Condomínio Quinta Da Baroneza Ii</t>
+  </si>
+  <si>
+    <t>Bragança Paulista / SP</t>
+  </si>
+  <si>
+    <t>11 99733-2200</t>
+  </si>
+  <si>
+    <t>Mora fora do RJ. Convidei para o GC Online</t>
+  </si>
+  <si>
+    <t>Eryk De Oliveira Mattos</t>
+  </si>
+  <si>
+    <t>21 99443-5811</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei as boas vindas. Frequenta o GC Vidigal com a esposa Michelle</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>Lucas Lamas Valentim</t>
+  </si>
+  <si>
+    <t>32 99920-6633</t>
+  </si>
+  <si>
+    <t>Jhonathan Marques Pessanha</t>
+  </si>
+  <si>
+    <t>21 96718-9111</t>
+  </si>
+  <si>
+    <t>28/06/2025</t>
+  </si>
+  <si>
+    <t>Lucas Firmino</t>
+  </si>
+  <si>
+    <t>21 98083-6869</t>
+  </si>
+  <si>
+    <t>Maria Aparecida Manja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bento Ribeiro </t>
+  </si>
+  <si>
+    <t>Rj  / RJ</t>
+  </si>
+  <si>
+    <t>21 98010-9352</t>
+  </si>
+  <si>
+    <t>Só cai na cx postal</t>
+  </si>
+  <si>
+    <t>Mariana Caldeira</t>
+  </si>
+  <si>
+    <t>21 99928-5302</t>
+  </si>
+  <si>
+    <t>Indo a GC Ilha</t>
+  </si>
+  <si>
+    <t>Patricia Rocha De Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilha Do Governador </t>
+  </si>
+  <si>
+    <t>21 97406-3197</t>
+  </si>
+  <si>
+    <t>Maria Gabriela Guedes Silva</t>
+  </si>
+  <si>
+    <t>21 97468-2607</t>
+  </si>
+  <si>
+    <t>Enviei mensagem. Aguardando responder</t>
+  </si>
+  <si>
+    <t>Marcilene Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>21 99926-0994</t>
+  </si>
+  <si>
+    <t>Tamires Aparecida Barroso</t>
+  </si>
+  <si>
+    <t>Itanhangá</t>
+  </si>
+  <si>
+    <t>21 98021-4164</t>
+  </si>
+  <si>
+    <t>Andreza Daniele Monteiro</t>
+  </si>
+  <si>
+    <t>21 99914-0623</t>
+  </si>
+  <si>
+    <t>Já está indo ao GC</t>
+  </si>
+  <si>
+    <t>Nayra Da Conceição Pinto Pinheiro</t>
+  </si>
+  <si>
+    <t>21 97739-3919</t>
+  </si>
+  <si>
+    <t>Tatiane Assis</t>
+  </si>
+  <si>
+    <t>Itaiga</t>
+  </si>
+  <si>
+    <t>21 96819-6128</t>
+  </si>
+  <si>
+    <t>Vanessa Melino Andrade Da Silva</t>
+  </si>
+  <si>
+    <t>21 97611-6706</t>
+  </si>
+  <si>
+    <t>Jennifer E Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boa Sorte </t>
+  </si>
+  <si>
+    <t>Cachoeira De Macacu  / RJ</t>
+  </si>
+  <si>
+    <t>21 96745-9875</t>
+  </si>
+  <si>
+    <t>Angelica Lima</t>
+  </si>
+  <si>
+    <t>21 97946-4582</t>
+  </si>
+  <si>
+    <t>Cristiana Braga</t>
+  </si>
+  <si>
+    <t>21 96496-4978</t>
+  </si>
+  <si>
+    <t>Membro da Sara</t>
+  </si>
+  <si>
+    <t>Rafaela Ferreira</t>
+  </si>
+  <si>
+    <t>21 98861-5581</t>
+  </si>
+  <si>
+    <t>Aline Cristina Da Silva Pinheiro</t>
+  </si>
+  <si>
+    <t>21 97676-3352</t>
+  </si>
+  <si>
+    <t>Bruna Camila</t>
+  </si>
+  <si>
+    <t>21 99867-4080</t>
+  </si>
+  <si>
+    <t>Júlia Luzia Marques Do Nascimento</t>
+  </si>
+  <si>
+    <t>21 97027-5062</t>
+  </si>
+  <si>
+    <t>Lorraine Kasesky</t>
+  </si>
+  <si>
+    <t>24 99395-7113</t>
+  </si>
+  <si>
+    <t>Amanda Lima</t>
+  </si>
+  <si>
+    <t>21 99631-0602</t>
+  </si>
+  <si>
+    <t>Giulia Jacob</t>
+  </si>
+  <si>
+    <t>Jardim América</t>
+  </si>
+  <si>
+    <t>21 99508-1993</t>
+  </si>
+  <si>
+    <t>Loraine Souza</t>
+  </si>
+  <si>
+    <t>21 97493-5634</t>
+  </si>
+  <si>
+    <t>Monique Abreu De Souza</t>
+  </si>
+  <si>
+    <t>21 99056-9367</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Misto Copcabana</t>
+  </si>
+  <si>
+    <t>Larissa Soares Da Silva</t>
+  </si>
+  <si>
+    <t>21 97229-8650</t>
+  </si>
+  <si>
+    <t>Sônia Regina Martins</t>
+  </si>
+  <si>
+    <t>21 98668-5050</t>
+  </si>
+  <si>
+    <t>Graciane Torres Da Costa Gomes</t>
+  </si>
+  <si>
+    <t>21 96894-6618</t>
+  </si>
+  <si>
+    <t>Adriana Santana</t>
+  </si>
+  <si>
+    <t>21 96717-0506</t>
+  </si>
+  <si>
+    <t>Encaminhada para o gc barrinha</t>
+  </si>
+  <si>
+    <t>Carolina Magljari</t>
+  </si>
+  <si>
+    <t>21 99959-1896</t>
+  </si>
+  <si>
+    <t>Gisele Lima</t>
+  </si>
+  <si>
+    <t>21 98202-1697</t>
+  </si>
+  <si>
+    <t>Carolina Canpos</t>
+  </si>
+  <si>
+    <t>21 96759-5231</t>
+  </si>
+  <si>
+    <t>Natália Rosa Freitas</t>
+  </si>
+  <si>
+    <t>21 99789-1623</t>
+  </si>
+  <si>
+    <t>Sthefany Melo</t>
+  </si>
+  <si>
+    <t>21 99483-3584</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC NEXT</t>
+  </si>
+  <si>
+    <t>Vanilda Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benfica </t>
+  </si>
+  <si>
+    <t>21 98703-7109</t>
+  </si>
+  <si>
+    <t>Barbara Yaisa Da Silva</t>
+  </si>
+  <si>
+    <t>21 97478-6128</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Barrinha</t>
+  </si>
+  <si>
+    <t>Priscilla Abreu</t>
+  </si>
+  <si>
+    <t>22 99845-4714</t>
+  </si>
+  <si>
+    <t>Está Indo ao GC Leblon</t>
+  </si>
+  <si>
+    <t>Nathalia Alves Da Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramos </t>
+  </si>
+  <si>
+    <t>21 96617-1500</t>
+  </si>
+  <si>
+    <t>Simone Thomaz Marques</t>
+  </si>
+  <si>
+    <t>21 96607-5444</t>
+  </si>
+  <si>
+    <t>29/06/2025</t>
+  </si>
+  <si>
+    <t>Carlos André Da Silva Lima</t>
+  </si>
+  <si>
+    <t>21 96963-9554</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp e dei as boas vindas. Encaminhado para GC de casais</t>
+  </si>
+  <si>
+    <t>André Joaquim</t>
+  </si>
+  <si>
+    <t>21 99499-6760</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp e dei as boas vindas.</t>
+  </si>
+  <si>
+    <t>Gilvan Andrade</t>
+  </si>
+  <si>
+    <t>31 99659-7795</t>
+  </si>
+  <si>
+    <t>Cristofer Cauã Bispo Amaral</t>
+  </si>
+  <si>
+    <t>21 99892-2151</t>
+  </si>
+  <si>
+    <t>Adriana Brandão</t>
+  </si>
+  <si>
+    <t>21 98585-5662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviei mensagem mas ainda não repondeu </t>
+  </si>
+  <si>
+    <t>Gabrielle Lemos</t>
+  </si>
+  <si>
+    <t>21 99370-7210</t>
+  </si>
+  <si>
+    <t>Vanessa Bordallo</t>
+  </si>
+  <si>
+    <t>21 97024-9701</t>
+  </si>
+  <si>
+    <t>Encaminhada para o gc Tijuca 2</t>
+  </si>
+  <si>
+    <t>Monique Pereira De Souza</t>
+  </si>
+  <si>
+    <t>21 96496-8640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada para o gc de casais leblon </t>
+  </si>
+  <si>
+    <t>Karina Nunes De Oliveira</t>
+  </si>
+  <si>
+    <t>21 96444-6783</t>
+  </si>
+  <si>
+    <t>Encaminhada para gc next</t>
+  </si>
+  <si>
+    <t>Isabella Couto</t>
+  </si>
+  <si>
+    <t>61 99368-3958</t>
+  </si>
+  <si>
+    <t>Bruna De Azevedo Bordallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vila Isabel </t>
+  </si>
+  <si>
+    <t>Encaminhada para Nexteen</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Jennifer Alves Casaes</t>
+  </si>
+  <si>
+    <t>21 99651-5312</t>
+  </si>
+  <si>
+    <t>Emilly Bezerra De Lima Dos Santos</t>
+  </si>
+  <si>
+    <t>Ricinha</t>
+  </si>
+  <si>
+    <t>21 98667-9866</t>
   </si>
 </sst>
 </file>
@@ -5342,10 +6479,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5665,32 +6798,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:P566"/>
+  <dimension ref="A1:P708"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A665" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A550" sqref="A550"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="56.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6044,7 +7177,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -6244,7 +7377,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -6294,7 +7427,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -6444,7 +7577,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -6894,7 +8027,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -7144,7 +8277,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7544,7 +8677,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -7594,7 +8727,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -7794,7 +8927,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -8241,7 +9374,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -8291,7 +9424,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -8341,7 +9474,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -8391,7 +9524,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -8541,7 +9674,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -8641,7 +9774,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>208</v>
       </c>
@@ -8741,7 +9874,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>208</v>
       </c>
@@ -8841,7 +9974,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -8891,7 +10024,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -8941,7 +10074,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -8991,7 +10124,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -9091,7 +10224,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -9141,7 +10274,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -9391,7 +10524,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -9591,7 +10724,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>294</v>
       </c>
@@ -9841,7 +10974,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -9941,7 +11074,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>294</v>
       </c>
@@ -9991,7 +11124,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>294</v>
       </c>
@@ -10741,7 +11874,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>347</v>
       </c>
@@ -10841,7 +11974,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>347</v>
       </c>
@@ -10891,7 +12024,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>347</v>
       </c>
@@ -10941,7 +12074,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>347</v>
       </c>
@@ -11441,7 +12574,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>347</v>
       </c>
@@ -11541,7 +12674,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>347</v>
       </c>
@@ -11591,7 +12724,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>347</v>
       </c>
@@ -11791,7 +12924,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>348</v>
       </c>
@@ -11991,7 +13124,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>348</v>
       </c>
@@ -12091,7 +13224,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>348</v>
       </c>
@@ -12191,7 +13324,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>348</v>
       </c>
@@ -12241,7 +13374,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>348</v>
       </c>
@@ -12341,7 +13474,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>348</v>
       </c>
@@ -33889,6 +35022,7106 @@
         <v>1543</v>
       </c>
       <c r="P566" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B567" t="s">
+        <v>209</v>
+      </c>
+      <c r="C567" t="s">
+        <v>27</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E567" t="s">
+        <v>18</v>
+      </c>
+      <c r="F567" t="s">
+        <v>91</v>
+      </c>
+      <c r="G567">
+        <v>52</v>
+      </c>
+      <c r="H567" t="s">
+        <v>44</v>
+      </c>
+      <c r="I567" t="s">
+        <v>157</v>
+      </c>
+      <c r="J567" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K567" t="s">
+        <v>24</v>
+      </c>
+      <c r="L567" t="s">
+        <v>25</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N567" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O567" t="s">
+        <v>24</v>
+      </c>
+      <c r="P567" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B568" t="s">
+        <v>209</v>
+      </c>
+      <c r="C568" t="s">
+        <v>27</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E568" t="s">
+        <v>18</v>
+      </c>
+      <c r="F568" t="s">
+        <v>19</v>
+      </c>
+      <c r="G568">
+        <v>27</v>
+      </c>
+      <c r="H568" t="s">
+        <v>129</v>
+      </c>
+      <c r="I568" t="s">
+        <v>22</v>
+      </c>
+      <c r="J568" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K568" t="s">
+        <v>80</v>
+      </c>
+      <c r="L568" t="s">
+        <v>25</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N568" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O568" t="s">
+        <v>80</v>
+      </c>
+      <c r="P568" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B569" t="s">
+        <v>209</v>
+      </c>
+      <c r="C569" t="s">
+        <v>16</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E569" t="s">
+        <v>18</v>
+      </c>
+      <c r="F569" t="s">
+        <v>19</v>
+      </c>
+      <c r="G569">
+        <v>30</v>
+      </c>
+      <c r="H569" t="s">
+        <v>393</v>
+      </c>
+      <c r="I569" t="s">
+        <v>22</v>
+      </c>
+      <c r="J569" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K569" t="s">
+        <v>24</v>
+      </c>
+      <c r="L569" t="s">
+        <v>25</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N569" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O569" t="s">
+        <v>80</v>
+      </c>
+      <c r="P569" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B570" t="s">
+        <v>58</v>
+      </c>
+      <c r="C570" t="s">
+        <v>41</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E570" t="s">
+        <v>18</v>
+      </c>
+      <c r="F570" t="s">
+        <v>29</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570" t="s">
+        <v>129</v>
+      </c>
+      <c r="I570" t="s">
+        <v>22</v>
+      </c>
+      <c r="J570" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K570" t="s">
+        <v>24</v>
+      </c>
+      <c r="L570" t="s">
+        <v>25</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N570" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O570" t="s">
+        <v>80</v>
+      </c>
+      <c r="P570" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B571" t="s">
+        <v>209</v>
+      </c>
+      <c r="C571" t="s">
+        <v>41</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E571" t="s">
+        <v>18</v>
+      </c>
+      <c r="F571" t="s">
+        <v>29</v>
+      </c>
+      <c r="G571">
+        <v>34</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I571" t="s">
+        <v>55</v>
+      </c>
+      <c r="J571" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K571" t="s">
+        <v>24</v>
+      </c>
+      <c r="L571" t="s">
+        <v>25</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N571" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O571" t="s">
+        <v>80</v>
+      </c>
+      <c r="P571" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B572" t="s">
+        <v>58</v>
+      </c>
+      <c r="C572" t="s">
+        <v>41</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E572" t="s">
+        <v>18</v>
+      </c>
+      <c r="F572" t="s">
+        <v>91</v>
+      </c>
+      <c r="G572">
+        <v>31</v>
+      </c>
+      <c r="H572" t="s">
+        <v>58</v>
+      </c>
+      <c r="I572" t="s">
+        <v>55</v>
+      </c>
+      <c r="J572" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K572" t="s">
+        <v>24</v>
+      </c>
+      <c r="L572" t="s">
+        <v>25</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N572" t="s">
+        <v>1749</v>
+      </c>
+      <c r="O572" t="s">
+        <v>24</v>
+      </c>
+      <c r="P572" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B573" t="s">
+        <v>209</v>
+      </c>
+      <c r="C573" t="s">
+        <v>41</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E573" t="s">
+        <v>18</v>
+      </c>
+      <c r="F573" t="s">
+        <v>29</v>
+      </c>
+      <c r="G573">
+        <v>51</v>
+      </c>
+      <c r="H573" t="s">
+        <v>44</v>
+      </c>
+      <c r="I573" t="s">
+        <v>22</v>
+      </c>
+      <c r="J573" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K573" t="s">
+        <v>24</v>
+      </c>
+      <c r="L573" t="s">
+        <v>457</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N573" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O573" t="s">
+        <v>24</v>
+      </c>
+      <c r="P573" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B574" t="s">
+        <v>58</v>
+      </c>
+      <c r="C574" t="s">
+        <v>27</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E574" t="s">
+        <v>18</v>
+      </c>
+      <c r="F574" t="s">
+        <v>19</v>
+      </c>
+      <c r="G574">
+        <v>30</v>
+      </c>
+      <c r="H574" t="s">
+        <v>44</v>
+      </c>
+      <c r="I574" t="s">
+        <v>22</v>
+      </c>
+      <c r="J574" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K574" t="s">
+        <v>24</v>
+      </c>
+      <c r="L574" t="s">
+        <v>25</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N574" t="s">
+        <v>1754</v>
+      </c>
+      <c r="O574" t="s">
+        <v>24</v>
+      </c>
+      <c r="P574" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B575" t="s">
+        <v>58</v>
+      </c>
+      <c r="C575" t="s">
+        <v>16</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E575" t="s">
+        <v>18</v>
+      </c>
+      <c r="F575" t="s">
+        <v>19</v>
+      </c>
+      <c r="G575">
+        <v>25</v>
+      </c>
+      <c r="H575" t="s">
+        <v>378</v>
+      </c>
+      <c r="I575" t="s">
+        <v>22</v>
+      </c>
+      <c r="J575" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K575" t="s">
+        <v>24</v>
+      </c>
+      <c r="L575" t="s">
+        <v>25</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N575" t="s">
+        <v>1758</v>
+      </c>
+      <c r="O575" t="s">
+        <v>24</v>
+      </c>
+      <c r="P575" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B576" t="s">
+        <v>58</v>
+      </c>
+      <c r="C576" t="s">
+        <v>16</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E576" t="s">
+        <v>18</v>
+      </c>
+      <c r="F576" t="s">
+        <v>19</v>
+      </c>
+      <c r="G576">
+        <v>32</v>
+      </c>
+      <c r="H576" t="s">
+        <v>519</v>
+      </c>
+      <c r="I576" t="s">
+        <v>22</v>
+      </c>
+      <c r="J576" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K576" t="s">
+        <v>24</v>
+      </c>
+      <c r="L576" t="s">
+        <v>25</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N576" t="s">
+        <v>1761</v>
+      </c>
+      <c r="O576" t="s">
+        <v>24</v>
+      </c>
+      <c r="P576" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B577" t="s">
+        <v>58</v>
+      </c>
+      <c r="C577" t="s">
+        <v>27</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E577" t="s">
+        <v>18</v>
+      </c>
+      <c r="F577" t="s">
+        <v>29</v>
+      </c>
+      <c r="G577">
+        <v>30</v>
+      </c>
+      <c r="H577" t="s">
+        <v>618</v>
+      </c>
+      <c r="I577" t="s">
+        <v>22</v>
+      </c>
+      <c r="J577" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K577" t="s">
+        <v>24</v>
+      </c>
+      <c r="L577" t="s">
+        <v>25</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N577" t="s">
+        <v>1761</v>
+      </c>
+      <c r="O577" t="s">
+        <v>24</v>
+      </c>
+      <c r="P577" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B578" t="s">
+        <v>58</v>
+      </c>
+      <c r="C578" t="s">
+        <v>16</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E578" t="s">
+        <v>18</v>
+      </c>
+      <c r="F578" t="s">
+        <v>29</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578" t="s">
+        <v>618</v>
+      </c>
+      <c r="I578" t="s">
+        <v>22</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K578" t="s">
+        <v>24</v>
+      </c>
+      <c r="L578" t="s">
+        <v>201</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N578" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O578" t="s">
+        <v>80</v>
+      </c>
+      <c r="P578" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B579" t="s">
+        <v>58</v>
+      </c>
+      <c r="C579" t="s">
+        <v>27</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E579" t="s">
+        <v>65</v>
+      </c>
+      <c r="F579" t="s">
+        <v>19</v>
+      </c>
+      <c r="G579">
+        <v>34</v>
+      </c>
+      <c r="H579" t="s">
+        <v>546</v>
+      </c>
+      <c r="I579" t="s">
+        <v>22</v>
+      </c>
+      <c r="J579" t="s">
+        <v>1767</v>
+      </c>
+      <c r="K579" t="s">
+        <v>24</v>
+      </c>
+      <c r="L579" t="s">
+        <v>25</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N579" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O579" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P579" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B580" t="s">
+        <v>209</v>
+      </c>
+      <c r="C580" t="s">
+        <v>41</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E580" t="s">
+        <v>65</v>
+      </c>
+      <c r="F580" t="s">
+        <v>19</v>
+      </c>
+      <c r="G580">
+        <v>39</v>
+      </c>
+      <c r="H580" t="s">
+        <v>44</v>
+      </c>
+      <c r="I580" t="s">
+        <v>22</v>
+      </c>
+      <c r="J580" t="s">
+        <v>1770</v>
+      </c>
+      <c r="K580" t="s">
+        <v>24</v>
+      </c>
+      <c r="L580" t="s">
+        <v>25</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N580" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O580" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P580" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B581" t="s">
+        <v>209</v>
+      </c>
+      <c r="C581" t="s">
+        <v>41</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E581" t="s">
+        <v>65</v>
+      </c>
+      <c r="F581" t="s">
+        <v>29</v>
+      </c>
+      <c r="G581">
+        <v>31</v>
+      </c>
+      <c r="H581" t="s">
+        <v>44</v>
+      </c>
+      <c r="I581" t="s">
+        <v>85</v>
+      </c>
+      <c r="J581" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K581" t="s">
+        <v>24</v>
+      </c>
+      <c r="L581" t="s">
+        <v>25</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N581" t="s">
+        <v>1773</v>
+      </c>
+      <c r="O581" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P581" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B582" t="s">
+        <v>209</v>
+      </c>
+      <c r="C582" t="s">
+        <v>27</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E582" t="s">
+        <v>65</v>
+      </c>
+      <c r="F582" t="s">
+        <v>185</v>
+      </c>
+      <c r="G582">
+        <v>59</v>
+      </c>
+      <c r="H582" t="s">
+        <v>618</v>
+      </c>
+      <c r="I582" t="s">
+        <v>22</v>
+      </c>
+      <c r="J582" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K582" t="s">
+        <v>24</v>
+      </c>
+      <c r="L582" t="s">
+        <v>25</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N582" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O582" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P582" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B583" t="s">
+        <v>58</v>
+      </c>
+      <c r="C583" t="s">
+        <v>41</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E583" t="s">
+        <v>65</v>
+      </c>
+      <c r="F583" t="s">
+        <v>29</v>
+      </c>
+      <c r="G583">
+        <v>43</v>
+      </c>
+      <c r="H583" t="s">
+        <v>58</v>
+      </c>
+      <c r="I583" t="s">
+        <v>55</v>
+      </c>
+      <c r="J583" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K583" t="s">
+        <v>24</v>
+      </c>
+      <c r="L583" t="s">
+        <v>25</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N583" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O583" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P583" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B584" t="s">
+        <v>209</v>
+      </c>
+      <c r="C584" t="s">
+        <v>27</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E584" t="s">
+        <v>65</v>
+      </c>
+      <c r="F584" t="s">
+        <v>19</v>
+      </c>
+      <c r="G584">
+        <v>38</v>
+      </c>
+      <c r="H584" t="s">
+        <v>21</v>
+      </c>
+      <c r="I584" t="s">
+        <v>22</v>
+      </c>
+      <c r="J584" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K584" t="s">
+        <v>24</v>
+      </c>
+      <c r="L584" t="s">
+        <v>46</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N584" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O584" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P584" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B585" t="s">
+        <v>209</v>
+      </c>
+      <c r="C585" t="s">
+        <v>41</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E585" t="s">
+        <v>65</v>
+      </c>
+      <c r="F585" t="s">
+        <v>19</v>
+      </c>
+      <c r="G585">
+        <v>32</v>
+      </c>
+      <c r="H585" t="s">
+        <v>44</v>
+      </c>
+      <c r="I585" t="s">
+        <v>22</v>
+      </c>
+      <c r="J585" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K585" t="s">
+        <v>24</v>
+      </c>
+      <c r="L585" t="s">
+        <v>46</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N585" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O585" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P585" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B586" t="s">
+        <v>58</v>
+      </c>
+      <c r="C586" t="s">
+        <v>27</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E586" t="s">
+        <v>65</v>
+      </c>
+      <c r="F586" t="s">
+        <v>29</v>
+      </c>
+      <c r="G586">
+        <v>30</v>
+      </c>
+      <c r="H586" t="s">
+        <v>178</v>
+      </c>
+      <c r="I586" t="s">
+        <v>22</v>
+      </c>
+      <c r="J586" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K586" t="s">
+        <v>24</v>
+      </c>
+      <c r="L586" t="s">
+        <v>25</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N586" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O586" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P586" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B587" t="s">
+        <v>209</v>
+      </c>
+      <c r="C587" t="s">
+        <v>16</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E587" t="s">
+        <v>65</v>
+      </c>
+      <c r="F587" t="s">
+        <v>29</v>
+      </c>
+      <c r="G587">
+        <v>22</v>
+      </c>
+      <c r="H587" t="s">
+        <v>58</v>
+      </c>
+      <c r="I587" t="s">
+        <v>55</v>
+      </c>
+      <c r="J587" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K587" t="s">
+        <v>24</v>
+      </c>
+      <c r="L587" t="s">
+        <v>25</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N587" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O587" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P587" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B588" t="s">
+        <v>58</v>
+      </c>
+      <c r="C588" t="s">
+        <v>41</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E588" t="s">
+        <v>65</v>
+      </c>
+      <c r="F588" t="s">
+        <v>29</v>
+      </c>
+      <c r="G588">
+        <v>35</v>
+      </c>
+      <c r="H588" t="s">
+        <v>507</v>
+      </c>
+      <c r="I588" t="s">
+        <v>157</v>
+      </c>
+      <c r="J588" t="s">
+        <v>1787</v>
+      </c>
+      <c r="K588" t="s">
+        <v>24</v>
+      </c>
+      <c r="L588" t="s">
+        <v>25</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N588" t="s">
+        <v>1788</v>
+      </c>
+      <c r="O588" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P588" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B589" t="s">
+        <v>58</v>
+      </c>
+      <c r="C589" t="s">
+        <v>41</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E589" t="s">
+        <v>65</v>
+      </c>
+      <c r="F589" t="s">
+        <v>29</v>
+      </c>
+      <c r="G589">
+        <v>32</v>
+      </c>
+      <c r="H589" t="s">
+        <v>44</v>
+      </c>
+      <c r="I589" t="s">
+        <v>55</v>
+      </c>
+      <c r="J589" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K589" t="s">
+        <v>24</v>
+      </c>
+      <c r="L589" t="s">
+        <v>25</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N589" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O589" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P589" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B590" t="s">
+        <v>58</v>
+      </c>
+      <c r="C590" t="s">
+        <v>27</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E590" t="s">
+        <v>65</v>
+      </c>
+      <c r="F590" t="s">
+        <v>29</v>
+      </c>
+      <c r="G590">
+        <v>28</v>
+      </c>
+      <c r="H590" t="s">
+        <v>618</v>
+      </c>
+      <c r="I590" t="s">
+        <v>22</v>
+      </c>
+      <c r="J590" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K590" t="s">
+        <v>24</v>
+      </c>
+      <c r="L590" t="s">
+        <v>25</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N590" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O590" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P590" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B591" t="s">
+        <v>58</v>
+      </c>
+      <c r="C591" t="s">
+        <v>41</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E591" t="s">
+        <v>65</v>
+      </c>
+      <c r="F591" t="s">
+        <v>29</v>
+      </c>
+      <c r="G591">
+        <v>32</v>
+      </c>
+      <c r="H591" t="s">
+        <v>58</v>
+      </c>
+      <c r="I591" t="s">
+        <v>55</v>
+      </c>
+      <c r="J591" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K591" t="s">
+        <v>24</v>
+      </c>
+      <c r="L591" t="s">
+        <v>25</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N591" t="s">
+        <v>1795</v>
+      </c>
+      <c r="O591" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P591" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B592" t="s">
+        <v>58</v>
+      </c>
+      <c r="C592" t="s">
+        <v>16</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E592" t="s">
+        <v>65</v>
+      </c>
+      <c r="F592" t="s">
+        <v>19</v>
+      </c>
+      <c r="G592">
+        <v>22</v>
+      </c>
+      <c r="H592" t="s">
+        <v>618</v>
+      </c>
+      <c r="I592" t="s">
+        <v>22</v>
+      </c>
+      <c r="J592" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K592" t="s">
+        <v>24</v>
+      </c>
+      <c r="L592" t="s">
+        <v>25</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N592" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O592" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P592" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B593" t="s">
+        <v>58</v>
+      </c>
+      <c r="C593" t="s">
+        <v>41</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E593" t="s">
+        <v>65</v>
+      </c>
+      <c r="F593" t="s">
+        <v>19</v>
+      </c>
+      <c r="G593">
+        <v>45</v>
+      </c>
+      <c r="H593" t="s">
+        <v>519</v>
+      </c>
+      <c r="I593" t="s">
+        <v>22</v>
+      </c>
+      <c r="J593" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K593" t="s">
+        <v>24</v>
+      </c>
+      <c r="L593" t="s">
+        <v>148</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N593" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O593" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P593" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B594" t="s">
+        <v>58</v>
+      </c>
+      <c r="C594" t="s">
+        <v>27</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E594" t="s">
+        <v>65</v>
+      </c>
+      <c r="F594" t="s">
+        <v>29</v>
+      </c>
+      <c r="G594">
+        <v>22</v>
+      </c>
+      <c r="H594" t="s">
+        <v>58</v>
+      </c>
+      <c r="I594" t="s">
+        <v>55</v>
+      </c>
+      <c r="J594" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K594" t="s">
+        <v>24</v>
+      </c>
+      <c r="L594" t="s">
+        <v>25</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N594" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O594" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P594" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B595" t="s">
+        <v>58</v>
+      </c>
+      <c r="C595" t="s">
+        <v>27</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E595" t="s">
+        <v>18</v>
+      </c>
+      <c r="F595" t="s">
+        <v>19</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I595" t="s">
+        <v>85</v>
+      </c>
+      <c r="J595" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K595" t="s">
+        <v>24</v>
+      </c>
+      <c r="L595" t="s">
+        <v>25</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N595" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O595" t="s">
+        <v>80</v>
+      </c>
+      <c r="P595" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B596" t="s">
+        <v>58</v>
+      </c>
+      <c r="C596" t="s">
+        <v>41</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E596" t="s">
+        <v>18</v>
+      </c>
+      <c r="F596" t="s">
+        <v>19</v>
+      </c>
+      <c r="G596">
+        <v>27</v>
+      </c>
+      <c r="H596" t="s">
+        <v>44</v>
+      </c>
+      <c r="I596" t="s">
+        <v>157</v>
+      </c>
+      <c r="J596" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K596" t="s">
+        <v>24</v>
+      </c>
+      <c r="L596" t="s">
+        <v>25</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N596" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O596" t="s">
+        <v>80</v>
+      </c>
+      <c r="P596" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B597" t="s">
+        <v>58</v>
+      </c>
+      <c r="C597" t="s">
+        <v>16</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E597" t="s">
+        <v>18</v>
+      </c>
+      <c r="F597" t="s">
+        <v>58</v>
+      </c>
+      <c r="G597">
+        <v>28</v>
+      </c>
+      <c r="H597" t="s">
+        <v>58</v>
+      </c>
+      <c r="I597" t="s">
+        <v>55</v>
+      </c>
+      <c r="J597" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K597" t="s">
+        <v>24</v>
+      </c>
+      <c r="L597" t="s">
+        <v>201</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N597" t="s">
+        <v>1811</v>
+      </c>
+      <c r="O597" t="s">
+        <v>24</v>
+      </c>
+      <c r="P597" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B598" t="s">
+        <v>58</v>
+      </c>
+      <c r="C598" t="s">
+        <v>27</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E598" t="s">
+        <v>18</v>
+      </c>
+      <c r="F598" t="s">
+        <v>29</v>
+      </c>
+      <c r="G598">
+        <v>16</v>
+      </c>
+      <c r="H598" t="s">
+        <v>54</v>
+      </c>
+      <c r="I598" t="s">
+        <v>22</v>
+      </c>
+      <c r="J598" t="s">
+        <v>1814</v>
+      </c>
+      <c r="K598" t="s">
+        <v>24</v>
+      </c>
+      <c r="L598" t="s">
+        <v>25</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N598" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O598" t="s">
+        <v>80</v>
+      </c>
+      <c r="P598" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B599" t="s">
+        <v>58</v>
+      </c>
+      <c r="C599" t="s">
+        <v>41</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E599" t="s">
+        <v>18</v>
+      </c>
+      <c r="F599" t="s">
+        <v>29</v>
+      </c>
+      <c r="G599">
+        <v>18</v>
+      </c>
+      <c r="H599" t="s">
+        <v>166</v>
+      </c>
+      <c r="I599" t="s">
+        <v>22</v>
+      </c>
+      <c r="J599" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K599" t="s">
+        <v>24</v>
+      </c>
+      <c r="L599" t="s">
+        <v>25</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N599" t="s">
+        <v>1817</v>
+      </c>
+      <c r="O599" t="s">
+        <v>24</v>
+      </c>
+      <c r="P599" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B600" t="s">
+        <v>58</v>
+      </c>
+      <c r="C600" t="s">
+        <v>16</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E600" t="s">
+        <v>18</v>
+      </c>
+      <c r="F600" t="s">
+        <v>29</v>
+      </c>
+      <c r="G600">
+        <v>17</v>
+      </c>
+      <c r="H600" t="s">
+        <v>152</v>
+      </c>
+      <c r="I600" t="s">
+        <v>22</v>
+      </c>
+      <c r="J600" t="s">
+        <v>1819</v>
+      </c>
+      <c r="K600" t="s">
+        <v>24</v>
+      </c>
+      <c r="L600" t="s">
+        <v>25</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N600" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O600" t="s">
+        <v>24</v>
+      </c>
+      <c r="P600" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B601" t="s">
+        <v>58</v>
+      </c>
+      <c r="C601" t="s">
+        <v>41</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E601" t="s">
+        <v>18</v>
+      </c>
+      <c r="F601" t="s">
+        <v>29</v>
+      </c>
+      <c r="G601">
+        <v>35</v>
+      </c>
+      <c r="H601" t="s">
+        <v>44</v>
+      </c>
+      <c r="I601" t="s">
+        <v>22</v>
+      </c>
+      <c r="J601" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K601" t="s">
+        <v>24</v>
+      </c>
+      <c r="L601" t="s">
+        <v>25</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N601" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O601" t="s">
+        <v>80</v>
+      </c>
+      <c r="P601" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B602" t="s">
+        <v>58</v>
+      </c>
+      <c r="C602" t="s">
+        <v>27</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E602" t="s">
+        <v>18</v>
+      </c>
+      <c r="F602" t="s">
+        <v>58</v>
+      </c>
+      <c r="G602">
+        <v>21</v>
+      </c>
+      <c r="H602" t="s">
+        <v>231</v>
+      </c>
+      <c r="I602" t="s">
+        <v>157</v>
+      </c>
+      <c r="J602" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K602" t="s">
+        <v>24</v>
+      </c>
+      <c r="L602" t="s">
+        <v>25</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N602" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O602" t="s">
+        <v>80</v>
+      </c>
+      <c r="P602" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B603" t="s">
+        <v>58</v>
+      </c>
+      <c r="C603" t="s">
+        <v>41</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E603" t="s">
+        <v>18</v>
+      </c>
+      <c r="F603" t="s">
+        <v>29</v>
+      </c>
+      <c r="G603">
+        <v>15</v>
+      </c>
+      <c r="H603" t="s">
+        <v>58</v>
+      </c>
+      <c r="I603" t="s">
+        <v>55</v>
+      </c>
+      <c r="J603" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K603" t="s">
+        <v>24</v>
+      </c>
+      <c r="L603" t="s">
+        <v>25</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N603" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O603" t="s">
+        <v>80</v>
+      </c>
+      <c r="P603" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B604" t="s">
+        <v>58</v>
+      </c>
+      <c r="C604" t="s">
+        <v>41</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E604" t="s">
+        <v>18</v>
+      </c>
+      <c r="F604" t="s">
+        <v>58</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I604" t="s">
+        <v>55</v>
+      </c>
+      <c r="J604" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K604" t="s">
+        <v>24</v>
+      </c>
+      <c r="L604" t="s">
+        <v>25</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N604" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O604" t="s">
+        <v>80</v>
+      </c>
+      <c r="P604" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B605" t="s">
+        <v>58</v>
+      </c>
+      <c r="C605" t="s">
+        <v>27</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E605" t="s">
+        <v>65</v>
+      </c>
+      <c r="F605" t="s">
+        <v>58</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605" t="s">
+        <v>58</v>
+      </c>
+      <c r="I605" t="s">
+        <v>55</v>
+      </c>
+      <c r="J605" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K605" t="s">
+        <v>24</v>
+      </c>
+      <c r="L605" t="s">
+        <v>25</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N605" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O605" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P605" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B606" t="s">
+        <v>58</v>
+      </c>
+      <c r="C606" t="s">
+        <v>27</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E606" t="s">
+        <v>65</v>
+      </c>
+      <c r="F606" t="s">
+        <v>19</v>
+      </c>
+      <c r="G606">
+        <v>42</v>
+      </c>
+      <c r="H606" t="s">
+        <v>44</v>
+      </c>
+      <c r="I606" t="s">
+        <v>22</v>
+      </c>
+      <c r="J606" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K606" t="s">
+        <v>24</v>
+      </c>
+      <c r="L606" t="s">
+        <v>25</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N606" t="s">
+        <v>1837</v>
+      </c>
+      <c r="O606" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P606" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B607" t="s">
+        <v>58</v>
+      </c>
+      <c r="C607" t="s">
+        <v>41</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E607" t="s">
+        <v>65</v>
+      </c>
+      <c r="F607" t="s">
+        <v>29</v>
+      </c>
+      <c r="G607">
+        <v>22</v>
+      </c>
+      <c r="H607" t="s">
+        <v>816</v>
+      </c>
+      <c r="I607" t="s">
+        <v>22</v>
+      </c>
+      <c r="J607" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K607" t="s">
+        <v>24</v>
+      </c>
+      <c r="L607" t="s">
+        <v>25</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N607" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O607" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P607" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B608" t="s">
+        <v>58</v>
+      </c>
+      <c r="C608" t="s">
+        <v>41</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E608" t="s">
+        <v>65</v>
+      </c>
+      <c r="F608" t="s">
+        <v>19</v>
+      </c>
+      <c r="G608">
+        <v>29</v>
+      </c>
+      <c r="H608" t="s">
+        <v>58</v>
+      </c>
+      <c r="I608" t="s">
+        <v>55</v>
+      </c>
+      <c r="J608" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K608" t="s">
+        <v>24</v>
+      </c>
+      <c r="L608" t="s">
+        <v>25</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N608" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O608" t="s">
+        <v>80</v>
+      </c>
+      <c r="P608" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B609" t="s">
+        <v>58</v>
+      </c>
+      <c r="C609" t="s">
+        <v>27</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E609" t="s">
+        <v>65</v>
+      </c>
+      <c r="F609" t="s">
+        <v>58</v>
+      </c>
+      <c r="G609">
+        <v>12</v>
+      </c>
+      <c r="H609" t="s">
+        <v>44</v>
+      </c>
+      <c r="I609" t="s">
+        <v>22</v>
+      </c>
+      <c r="J609" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K609" t="s">
+        <v>24</v>
+      </c>
+      <c r="L609" t="s">
+        <v>25</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N609" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O609" t="s">
+        <v>80</v>
+      </c>
+      <c r="P609" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B610" t="s">
+        <v>58</v>
+      </c>
+      <c r="C610" t="s">
+        <v>27</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E610" t="s">
+        <v>65</v>
+      </c>
+      <c r="F610" t="s">
+        <v>29</v>
+      </c>
+      <c r="G610">
+        <v>32</v>
+      </c>
+      <c r="H610" t="s">
+        <v>58</v>
+      </c>
+      <c r="I610" t="s">
+        <v>55</v>
+      </c>
+      <c r="J610" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K610" t="s">
+        <v>24</v>
+      </c>
+      <c r="L610" t="s">
+        <v>46</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N610" t="s">
+        <v>1848</v>
+      </c>
+      <c r="O610" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P610" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B611" t="s">
+        <v>58</v>
+      </c>
+      <c r="C611" t="s">
+        <v>27</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E611" t="s">
+        <v>65</v>
+      </c>
+      <c r="F611" t="s">
+        <v>185</v>
+      </c>
+      <c r="G611">
+        <v>25</v>
+      </c>
+      <c r="H611" t="s">
+        <v>58</v>
+      </c>
+      <c r="I611" t="s">
+        <v>55</v>
+      </c>
+      <c r="J611" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K611" t="s">
+        <v>80</v>
+      </c>
+      <c r="L611" t="s">
+        <v>25</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N611" t="s">
+        <v>1851</v>
+      </c>
+      <c r="O611" t="s">
+        <v>80</v>
+      </c>
+      <c r="P611" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B612" t="s">
+        <v>58</v>
+      </c>
+      <c r="C612" t="s">
+        <v>41</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E612" t="s">
+        <v>65</v>
+      </c>
+      <c r="F612" t="s">
+        <v>58</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612" t="s">
+        <v>231</v>
+      </c>
+      <c r="I612" t="s">
+        <v>55</v>
+      </c>
+      <c r="J612" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K612" t="s">
+        <v>24</v>
+      </c>
+      <c r="L612" t="s">
+        <v>46</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N612" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O612" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P612" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B613" t="s">
+        <v>58</v>
+      </c>
+      <c r="C613" t="s">
+        <v>16</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E613" t="s">
+        <v>65</v>
+      </c>
+      <c r="F613" t="s">
+        <v>29</v>
+      </c>
+      <c r="G613">
+        <v>39</v>
+      </c>
+      <c r="H613" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I613" t="s">
+        <v>55</v>
+      </c>
+      <c r="J613" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K613" t="s">
+        <v>24</v>
+      </c>
+      <c r="L613" t="s">
+        <v>25</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N613" t="s">
+        <v>1857</v>
+      </c>
+      <c r="O613" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P613" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B614" t="s">
+        <v>58</v>
+      </c>
+      <c r="C614" t="s">
+        <v>27</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E614" t="s">
+        <v>65</v>
+      </c>
+      <c r="F614" t="s">
+        <v>58</v>
+      </c>
+      <c r="G614">
+        <v>54</v>
+      </c>
+      <c r="H614" t="s">
+        <v>58</v>
+      </c>
+      <c r="I614" t="s">
+        <v>55</v>
+      </c>
+      <c r="J614" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K614" t="s">
+        <v>24</v>
+      </c>
+      <c r="L614" t="s">
+        <v>25</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N614" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O614" t="s">
+        <v>80</v>
+      </c>
+      <c r="P614" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B615" t="s">
+        <v>58</v>
+      </c>
+      <c r="C615" t="s">
+        <v>27</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E615" t="s">
+        <v>65</v>
+      </c>
+      <c r="F615" t="s">
+        <v>29</v>
+      </c>
+      <c r="G615">
+        <v>28</v>
+      </c>
+      <c r="H615" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I615" t="s">
+        <v>157</v>
+      </c>
+      <c r="J615" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K615" t="s">
+        <v>24</v>
+      </c>
+      <c r="L615" t="s">
+        <v>46</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N615" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O615" t="s">
+        <v>80</v>
+      </c>
+      <c r="P615" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B616" t="s">
+        <v>58</v>
+      </c>
+      <c r="C616" t="s">
+        <v>16</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E616" t="s">
+        <v>65</v>
+      </c>
+      <c r="F616" t="s">
+        <v>29</v>
+      </c>
+      <c r="G616">
+        <v>25</v>
+      </c>
+      <c r="H616" t="s">
+        <v>166</v>
+      </c>
+      <c r="I616" t="s">
+        <v>55</v>
+      </c>
+      <c r="J616" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K616" t="s">
+        <v>24</v>
+      </c>
+      <c r="L616" t="s">
+        <v>25</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N616" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O616" t="s">
+        <v>80</v>
+      </c>
+      <c r="P616" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B617" t="s">
+        <v>58</v>
+      </c>
+      <c r="C617" t="s">
+        <v>41</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E617" t="s">
+        <v>65</v>
+      </c>
+      <c r="F617" t="s">
+        <v>58</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617" t="s">
+        <v>58</v>
+      </c>
+      <c r="I617" t="s">
+        <v>55</v>
+      </c>
+      <c r="J617" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K617" t="s">
+        <v>24</v>
+      </c>
+      <c r="L617" t="s">
+        <v>25</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N617" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O617" t="s">
+        <v>80</v>
+      </c>
+      <c r="P617" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B618" t="s">
+        <v>58</v>
+      </c>
+      <c r="C618" t="s">
+        <v>41</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E618" t="s">
+        <v>65</v>
+      </c>
+      <c r="F618" t="s">
+        <v>58</v>
+      </c>
+      <c r="G618">
+        <v>54</v>
+      </c>
+      <c r="H618" t="s">
+        <v>58</v>
+      </c>
+      <c r="I618" t="s">
+        <v>55</v>
+      </c>
+      <c r="J618" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K618" t="s">
+        <v>24</v>
+      </c>
+      <c r="L618" t="s">
+        <v>201</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N618" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O618" t="s">
+        <v>80</v>
+      </c>
+      <c r="P618" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B619" t="s">
+        <v>58</v>
+      </c>
+      <c r="C619" t="s">
+        <v>41</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E619" t="s">
+        <v>65</v>
+      </c>
+      <c r="F619" t="s">
+        <v>19</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I619" t="s">
+        <v>55</v>
+      </c>
+      <c r="J619" t="s">
+        <v>1869</v>
+      </c>
+      <c r="K619" t="s">
+        <v>24</v>
+      </c>
+      <c r="L619" t="s">
+        <v>201</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N619" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O619" t="s">
+        <v>80</v>
+      </c>
+      <c r="P619" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B620" t="s">
+        <v>58</v>
+      </c>
+      <c r="C620" t="s">
+        <v>27</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E620" t="s">
+        <v>65</v>
+      </c>
+      <c r="F620" t="s">
+        <v>29</v>
+      </c>
+      <c r="G620">
+        <v>17</v>
+      </c>
+      <c r="H620" t="s">
+        <v>58</v>
+      </c>
+      <c r="I620" t="s">
+        <v>55</v>
+      </c>
+      <c r="J620" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K620" t="s">
+        <v>24</v>
+      </c>
+      <c r="L620" t="s">
+        <v>25</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N620" t="s">
+        <v>1872</v>
+      </c>
+      <c r="O620" t="s">
+        <v>80</v>
+      </c>
+      <c r="P620" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B621" t="s">
+        <v>58</v>
+      </c>
+      <c r="C621" t="s">
+        <v>41</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E621" t="s">
+        <v>65</v>
+      </c>
+      <c r="F621" t="s">
+        <v>29</v>
+      </c>
+      <c r="G621">
+        <v>29</v>
+      </c>
+      <c r="H621" t="s">
+        <v>281</v>
+      </c>
+      <c r="I621" t="s">
+        <v>22</v>
+      </c>
+      <c r="J621" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K621" t="s">
+        <v>24</v>
+      </c>
+      <c r="L621" t="s">
+        <v>25</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N621" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O621" t="s">
+        <v>80</v>
+      </c>
+      <c r="P621" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B622" t="s">
+        <v>58</v>
+      </c>
+      <c r="C622" t="s">
+        <v>27</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E622" t="s">
+        <v>65</v>
+      </c>
+      <c r="F622" t="s">
+        <v>91</v>
+      </c>
+      <c r="G622">
+        <v>56</v>
+      </c>
+      <c r="H622" t="s">
+        <v>58</v>
+      </c>
+      <c r="I622" t="s">
+        <v>55</v>
+      </c>
+      <c r="J622" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K622" t="s">
+        <v>24</v>
+      </c>
+      <c r="L622" t="s">
+        <v>25</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N622" t="s">
+        <v>1877</v>
+      </c>
+      <c r="O622" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P622" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B623" t="s">
+        <v>58</v>
+      </c>
+      <c r="C623" t="s">
+        <v>16</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E623" t="s">
+        <v>65</v>
+      </c>
+      <c r="F623" t="s">
+        <v>58</v>
+      </c>
+      <c r="G623">
+        <v>21</v>
+      </c>
+      <c r="H623" t="s">
+        <v>58</v>
+      </c>
+      <c r="I623" t="s">
+        <v>55</v>
+      </c>
+      <c r="J623" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K623" t="s">
+        <v>24</v>
+      </c>
+      <c r="L623" t="s">
+        <v>457</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N623" t="s">
+        <v>1880</v>
+      </c>
+      <c r="O623" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P623" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B624" t="s">
+        <v>58</v>
+      </c>
+      <c r="C624" t="s">
+        <v>27</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E624" t="s">
+        <v>65</v>
+      </c>
+      <c r="F624" t="s">
+        <v>29</v>
+      </c>
+      <c r="G624">
+        <v>17</v>
+      </c>
+      <c r="H624" t="s">
+        <v>58</v>
+      </c>
+      <c r="I624" t="s">
+        <v>55</v>
+      </c>
+      <c r="J624" t="s">
+        <v>1882</v>
+      </c>
+      <c r="K624" t="s">
+        <v>24</v>
+      </c>
+      <c r="L624" t="s">
+        <v>25</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N624" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O624" t="s">
+        <v>80</v>
+      </c>
+      <c r="P624" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B625" t="s">
+        <v>58</v>
+      </c>
+      <c r="C625" t="s">
+        <v>41</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E625" t="s">
+        <v>65</v>
+      </c>
+      <c r="F625" t="s">
+        <v>29</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625" t="s">
+        <v>231</v>
+      </c>
+      <c r="I625" t="s">
+        <v>55</v>
+      </c>
+      <c r="J625" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K625" t="s">
+        <v>24</v>
+      </c>
+      <c r="L625" t="s">
+        <v>25</v>
+      </c>
+      <c r="M625" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N625" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O625" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P625" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B626" t="s">
+        <v>58</v>
+      </c>
+      <c r="C626" t="s">
+        <v>27</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E626" t="s">
+        <v>65</v>
+      </c>
+      <c r="F626" t="s">
+        <v>29</v>
+      </c>
+      <c r="G626">
+        <v>47</v>
+      </c>
+      <c r="H626" t="s">
+        <v>231</v>
+      </c>
+      <c r="I626" t="s">
+        <v>157</v>
+      </c>
+      <c r="J626" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K626" t="s">
+        <v>24</v>
+      </c>
+      <c r="L626" t="s">
+        <v>25</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N626" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O626" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P626" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B627" t="s">
+        <v>58</v>
+      </c>
+      <c r="C627" t="s">
+        <v>16</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E627" t="s">
+        <v>65</v>
+      </c>
+      <c r="F627" t="s">
+        <v>91</v>
+      </c>
+      <c r="G627">
+        <v>53</v>
+      </c>
+      <c r="H627" t="s">
+        <v>231</v>
+      </c>
+      <c r="I627" t="s">
+        <v>157</v>
+      </c>
+      <c r="J627" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K627" t="s">
+        <v>24</v>
+      </c>
+      <c r="L627" t="s">
+        <v>25</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N627" t="s">
+        <v>943</v>
+      </c>
+      <c r="O627" t="s">
+        <v>80</v>
+      </c>
+      <c r="P627" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B628" t="s">
+        <v>58</v>
+      </c>
+      <c r="C628" t="s">
+        <v>41</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E628" t="s">
+        <v>65</v>
+      </c>
+      <c r="F628" t="s">
+        <v>29</v>
+      </c>
+      <c r="G628">
+        <v>20</v>
+      </c>
+      <c r="H628" t="s">
+        <v>44</v>
+      </c>
+      <c r="I628" t="s">
+        <v>22</v>
+      </c>
+      <c r="J628" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K628" t="s">
+        <v>24</v>
+      </c>
+      <c r="L628" t="s">
+        <v>25</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N628" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O628" t="s">
+        <v>80</v>
+      </c>
+      <c r="P628" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B629" t="s">
+        <v>58</v>
+      </c>
+      <c r="C629" t="s">
+        <v>41</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E629" t="s">
+        <v>18</v>
+      </c>
+      <c r="F629" t="s">
+        <v>29</v>
+      </c>
+      <c r="G629">
+        <v>21</v>
+      </c>
+      <c r="H629" t="s">
+        <v>152</v>
+      </c>
+      <c r="I629" t="s">
+        <v>22</v>
+      </c>
+      <c r="J629" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K629" t="s">
+        <v>24</v>
+      </c>
+      <c r="L629" t="s">
+        <v>25</v>
+      </c>
+      <c r="M629" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N629" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O629" t="s">
+        <v>80</v>
+      </c>
+      <c r="P629" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B630" t="s">
+        <v>58</v>
+      </c>
+      <c r="C630" t="s">
+        <v>41</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E630" t="s">
+        <v>18</v>
+      </c>
+      <c r="F630" t="s">
+        <v>29</v>
+      </c>
+      <c r="G630">
+        <v>15</v>
+      </c>
+      <c r="H630" t="s">
+        <v>166</v>
+      </c>
+      <c r="I630" t="s">
+        <v>22</v>
+      </c>
+      <c r="J630" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K630" t="s">
+        <v>24</v>
+      </c>
+      <c r="L630" t="s">
+        <v>25</v>
+      </c>
+      <c r="M630" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N630" t="s">
+        <v>1895</v>
+      </c>
+      <c r="O630" t="s">
+        <v>24</v>
+      </c>
+      <c r="P630" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B631" t="s">
+        <v>58</v>
+      </c>
+      <c r="C631" t="s">
+        <v>27</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E631" t="s">
+        <v>18</v>
+      </c>
+      <c r="F631" t="s">
+        <v>91</v>
+      </c>
+      <c r="G631">
+        <v>54</v>
+      </c>
+      <c r="H631" t="s">
+        <v>166</v>
+      </c>
+      <c r="I631" t="s">
+        <v>22</v>
+      </c>
+      <c r="J631" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K631" t="s">
+        <v>24</v>
+      </c>
+      <c r="L631" t="s">
+        <v>450</v>
+      </c>
+      <c r="M631" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N631" t="s">
+        <v>1898</v>
+      </c>
+      <c r="O631" t="s">
+        <v>24</v>
+      </c>
+      <c r="P631" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B632" t="s">
+        <v>58</v>
+      </c>
+      <c r="C632" t="s">
+        <v>41</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E632" t="s">
+        <v>18</v>
+      </c>
+      <c r="F632" t="s">
+        <v>29</v>
+      </c>
+      <c r="G632">
+        <v>31</v>
+      </c>
+      <c r="H632" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I632" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J632" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K632" t="s">
+        <v>24</v>
+      </c>
+      <c r="L632" t="s">
+        <v>25</v>
+      </c>
+      <c r="M632" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N632" t="s">
+        <v>1903</v>
+      </c>
+      <c r="O632" t="s">
+        <v>80</v>
+      </c>
+      <c r="P632" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B633" t="s">
+        <v>58</v>
+      </c>
+      <c r="C633" t="s">
+        <v>16</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E633" t="s">
+        <v>18</v>
+      </c>
+      <c r="F633" t="s">
+        <v>91</v>
+      </c>
+      <c r="G633">
+        <v>55</v>
+      </c>
+      <c r="H633" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I633" t="s">
+        <v>22</v>
+      </c>
+      <c r="J633" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K633" t="s">
+        <v>24</v>
+      </c>
+      <c r="L633" t="s">
+        <v>25</v>
+      </c>
+      <c r="M633" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N633" t="s">
+        <v>1907</v>
+      </c>
+      <c r="O633" t="s">
+        <v>24</v>
+      </c>
+      <c r="P633" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B634" t="s">
+        <v>58</v>
+      </c>
+      <c r="C634" t="s">
+        <v>27</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E634" t="s">
+        <v>18</v>
+      </c>
+      <c r="F634" t="s">
+        <v>29</v>
+      </c>
+      <c r="G634">
+        <v>18</v>
+      </c>
+      <c r="H634" t="s">
+        <v>502</v>
+      </c>
+      <c r="I634" t="s">
+        <v>22</v>
+      </c>
+      <c r="J634" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K634" t="s">
+        <v>24</v>
+      </c>
+      <c r="L634" t="s">
+        <v>25</v>
+      </c>
+      <c r="M634" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N634" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O634" t="s">
+        <v>80</v>
+      </c>
+      <c r="P634" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B635" t="s">
+        <v>58</v>
+      </c>
+      <c r="C635" t="s">
+        <v>16</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E635" t="s">
+        <v>18</v>
+      </c>
+      <c r="F635" t="s">
+        <v>19</v>
+      </c>
+      <c r="G635">
+        <v>25</v>
+      </c>
+      <c r="H635" t="s">
+        <v>618</v>
+      </c>
+      <c r="I635" t="s">
+        <v>22</v>
+      </c>
+      <c r="J635" t="s">
+        <v>1912</v>
+      </c>
+      <c r="K635" t="s">
+        <v>24</v>
+      </c>
+      <c r="L635" t="s">
+        <v>25</v>
+      </c>
+      <c r="M635" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N635" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O635" t="s">
+        <v>24</v>
+      </c>
+      <c r="P635" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B636" t="s">
+        <v>58</v>
+      </c>
+      <c r="C636" t="s">
+        <v>41</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E636" t="s">
+        <v>65</v>
+      </c>
+      <c r="F636" t="s">
+        <v>29</v>
+      </c>
+      <c r="G636">
+        <v>20</v>
+      </c>
+      <c r="H636" t="s">
+        <v>152</v>
+      </c>
+      <c r="I636" t="s">
+        <v>22</v>
+      </c>
+      <c r="J636" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K636" t="s">
+        <v>24</v>
+      </c>
+      <c r="L636" t="s">
+        <v>25</v>
+      </c>
+      <c r="M636" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N636" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O636" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P636" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B637" t="s">
+        <v>58</v>
+      </c>
+      <c r="C637" t="s">
+        <v>41</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E637" t="s">
+        <v>65</v>
+      </c>
+      <c r="F637" t="s">
+        <v>19</v>
+      </c>
+      <c r="G637">
+        <v>45</v>
+      </c>
+      <c r="H637" t="s">
+        <v>618</v>
+      </c>
+      <c r="I637" t="s">
+        <v>22</v>
+      </c>
+      <c r="J637" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K637" t="s">
+        <v>24</v>
+      </c>
+      <c r="L637" t="s">
+        <v>25</v>
+      </c>
+      <c r="M637" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N637" t="s">
+        <v>1919</v>
+      </c>
+      <c r="O637" t="s">
+        <v>24</v>
+      </c>
+      <c r="P637" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B638" t="s">
+        <v>58</v>
+      </c>
+      <c r="C638" t="s">
+        <v>41</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E638" t="s">
+        <v>65</v>
+      </c>
+      <c r="F638" t="s">
+        <v>91</v>
+      </c>
+      <c r="G638">
+        <v>61</v>
+      </c>
+      <c r="H638" t="s">
+        <v>44</v>
+      </c>
+      <c r="I638" t="s">
+        <v>22</v>
+      </c>
+      <c r="J638" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K638" t="s">
+        <v>24</v>
+      </c>
+      <c r="L638" t="s">
+        <v>25</v>
+      </c>
+      <c r="M638" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N638" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O638" t="s">
+        <v>80</v>
+      </c>
+      <c r="P638" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B639" t="s">
+        <v>58</v>
+      </c>
+      <c r="C639" t="s">
+        <v>41</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E639" t="s">
+        <v>65</v>
+      </c>
+      <c r="F639" t="s">
+        <v>29</v>
+      </c>
+      <c r="G639">
+        <v>32</v>
+      </c>
+      <c r="H639" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I639" t="s">
+        <v>22</v>
+      </c>
+      <c r="J639" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K639" t="s">
+        <v>24</v>
+      </c>
+      <c r="L639" t="s">
+        <v>25</v>
+      </c>
+      <c r="M639" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N639" t="s">
+        <v>1925</v>
+      </c>
+      <c r="O639" t="s">
+        <v>24</v>
+      </c>
+      <c r="P639" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B640" t="s">
+        <v>58</v>
+      </c>
+      <c r="C640" t="s">
+        <v>41</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E640" t="s">
+        <v>65</v>
+      </c>
+      <c r="F640" t="s">
+        <v>19</v>
+      </c>
+      <c r="G640">
+        <v>0</v>
+      </c>
+      <c r="H640" t="s">
+        <v>166</v>
+      </c>
+      <c r="I640" t="s">
+        <v>22</v>
+      </c>
+      <c r="J640" t="s">
+        <v>1927</v>
+      </c>
+      <c r="K640" t="s">
+        <v>24</v>
+      </c>
+      <c r="L640" t="s">
+        <v>25</v>
+      </c>
+      <c r="M640" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N640" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O640" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P640" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B641" t="s">
+        <v>58</v>
+      </c>
+      <c r="C641" t="s">
+        <v>27</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E641" t="s">
+        <v>65</v>
+      </c>
+      <c r="F641" t="s">
+        <v>91</v>
+      </c>
+      <c r="G641">
+        <v>76</v>
+      </c>
+      <c r="H641" t="s">
+        <v>58</v>
+      </c>
+      <c r="I641" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J641" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K641" t="s">
+        <v>24</v>
+      </c>
+      <c r="L641" t="s">
+        <v>46</v>
+      </c>
+      <c r="M641" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N641" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O641" t="s">
+        <v>80</v>
+      </c>
+      <c r="P641" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B642" t="s">
+        <v>58</v>
+      </c>
+      <c r="C642" t="s">
+        <v>41</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E642" t="s">
+        <v>65</v>
+      </c>
+      <c r="F642" t="s">
+        <v>29</v>
+      </c>
+      <c r="G642">
+        <v>33</v>
+      </c>
+      <c r="H642" t="s">
+        <v>58</v>
+      </c>
+      <c r="I642" t="s">
+        <v>55</v>
+      </c>
+      <c r="J642" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K642" t="s">
+        <v>24</v>
+      </c>
+      <c r="L642" t="s">
+        <v>25</v>
+      </c>
+      <c r="M642" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N642" t="s">
+        <v>1933</v>
+      </c>
+      <c r="O642" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P642" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B643" t="s">
+        <v>58</v>
+      </c>
+      <c r="C643" t="s">
+        <v>41</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E643" t="s">
+        <v>65</v>
+      </c>
+      <c r="F643" t="s">
+        <v>29</v>
+      </c>
+      <c r="G643">
+        <v>66</v>
+      </c>
+      <c r="H643" t="s">
+        <v>231</v>
+      </c>
+      <c r="I643" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J643" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K643" t="s">
+        <v>24</v>
+      </c>
+      <c r="L643" t="s">
+        <v>25</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N643" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O643" t="s">
+        <v>80</v>
+      </c>
+      <c r="P643" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B644" t="s">
+        <v>58</v>
+      </c>
+      <c r="C644" t="s">
+        <v>41</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E644" t="s">
+        <v>65</v>
+      </c>
+      <c r="F644" t="s">
+        <v>29</v>
+      </c>
+      <c r="G644">
+        <v>48</v>
+      </c>
+      <c r="H644" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I644" t="s">
+        <v>22</v>
+      </c>
+      <c r="J644" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K644" t="s">
+        <v>24</v>
+      </c>
+      <c r="L644" t="s">
+        <v>201</v>
+      </c>
+      <c r="M644" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N644" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O644" t="s">
+        <v>24</v>
+      </c>
+      <c r="P644" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B645" t="s">
+        <v>58</v>
+      </c>
+      <c r="C645" t="s">
+        <v>27</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E645" t="s">
+        <v>65</v>
+      </c>
+      <c r="F645" t="s">
+        <v>29</v>
+      </c>
+      <c r="G645">
+        <v>39</v>
+      </c>
+      <c r="H645" t="s">
+        <v>58</v>
+      </c>
+      <c r="I645" t="s">
+        <v>55</v>
+      </c>
+      <c r="J645" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K645" t="s">
+        <v>24</v>
+      </c>
+      <c r="L645" t="s">
+        <v>25</v>
+      </c>
+      <c r="M645" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N645" t="s">
+        <v>1941</v>
+      </c>
+      <c r="O645" t="s">
+        <v>24</v>
+      </c>
+      <c r="P645" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B646" t="s">
+        <v>58</v>
+      </c>
+      <c r="C646" t="s">
+        <v>41</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E646" t="s">
+        <v>65</v>
+      </c>
+      <c r="F646" t="s">
+        <v>19</v>
+      </c>
+      <c r="G646">
+        <v>33</v>
+      </c>
+      <c r="H646" t="s">
+        <v>58</v>
+      </c>
+      <c r="I646" t="s">
+        <v>1943</v>
+      </c>
+      <c r="J646" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K646" t="s">
+        <v>24</v>
+      </c>
+      <c r="L646" t="s">
+        <v>25</v>
+      </c>
+      <c r="M646" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N646" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O646" t="s">
+        <v>24</v>
+      </c>
+      <c r="P646" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B647" t="s">
+        <v>58</v>
+      </c>
+      <c r="C647" t="s">
+        <v>27</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E647" t="s">
+        <v>65</v>
+      </c>
+      <c r="F647" t="s">
+        <v>29</v>
+      </c>
+      <c r="G647">
+        <v>25</v>
+      </c>
+      <c r="H647" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I647" t="s">
+        <v>157</v>
+      </c>
+      <c r="J647" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K647" t="s">
+        <v>24</v>
+      </c>
+      <c r="L647" t="s">
+        <v>25</v>
+      </c>
+      <c r="M647" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N647" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O647" t="s">
+        <v>80</v>
+      </c>
+      <c r="P647" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B648" t="s">
+        <v>58</v>
+      </c>
+      <c r="C648" t="s">
+        <v>27</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E648" t="s">
+        <v>65</v>
+      </c>
+      <c r="F648" t="s">
+        <v>29</v>
+      </c>
+      <c r="G648">
+        <v>18</v>
+      </c>
+      <c r="H648" t="s">
+        <v>366</v>
+      </c>
+      <c r="I648" t="s">
+        <v>22</v>
+      </c>
+      <c r="J648" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K648" t="s">
+        <v>24</v>
+      </c>
+      <c r="L648" t="s">
+        <v>25</v>
+      </c>
+      <c r="M648" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N648" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O648" t="s">
+        <v>80</v>
+      </c>
+      <c r="P648" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B649" t="s">
+        <v>58</v>
+      </c>
+      <c r="C649" t="s">
+        <v>16</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E649" t="s">
+        <v>18</v>
+      </c>
+      <c r="F649" t="s">
+        <v>29</v>
+      </c>
+      <c r="G649">
+        <v>27</v>
+      </c>
+      <c r="H649" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I649" t="s">
+        <v>22</v>
+      </c>
+      <c r="J649" t="s">
+        <v>1952</v>
+      </c>
+      <c r="K649" t="s">
+        <v>24</v>
+      </c>
+      <c r="L649" t="s">
+        <v>25</v>
+      </c>
+      <c r="M649" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N649" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O649" t="s">
+        <v>80</v>
+      </c>
+      <c r="P649" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B650" t="s">
+        <v>58</v>
+      </c>
+      <c r="C650" t="s">
+        <v>27</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E650" t="s">
+        <v>18</v>
+      </c>
+      <c r="F650" t="s">
+        <v>29</v>
+      </c>
+      <c r="G650">
+        <v>50</v>
+      </c>
+      <c r="H650" t="s">
+        <v>516</v>
+      </c>
+      <c r="I650" t="s">
+        <v>22</v>
+      </c>
+      <c r="J650" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K650" t="s">
+        <v>24</v>
+      </c>
+      <c r="L650" t="s">
+        <v>25</v>
+      </c>
+      <c r="M650" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N650" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O650" t="s">
+        <v>80</v>
+      </c>
+      <c r="P650" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B651" t="s">
+        <v>58</v>
+      </c>
+      <c r="C651" t="s">
+        <v>41</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E651" t="s">
+        <v>18</v>
+      </c>
+      <c r="F651" t="s">
+        <v>29</v>
+      </c>
+      <c r="G651">
+        <v>33</v>
+      </c>
+      <c r="H651" t="s">
+        <v>58</v>
+      </c>
+      <c r="I651" t="s">
+        <v>55</v>
+      </c>
+      <c r="J651" t="s">
+        <v>1957</v>
+      </c>
+      <c r="K651" t="s">
+        <v>24</v>
+      </c>
+      <c r="L651" t="s">
+        <v>457</v>
+      </c>
+      <c r="M651" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N651" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O651" t="s">
+        <v>24</v>
+      </c>
+      <c r="P651" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="652" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B652" t="s">
+        <v>58</v>
+      </c>
+      <c r="C652" t="s">
+        <v>27</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E652" t="s">
+        <v>18</v>
+      </c>
+      <c r="F652" t="s">
+        <v>29</v>
+      </c>
+      <c r="G652">
+        <v>23</v>
+      </c>
+      <c r="H652" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I652" t="s">
+        <v>55</v>
+      </c>
+      <c r="J652" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K652" t="s">
+        <v>24</v>
+      </c>
+      <c r="L652" t="s">
+        <v>25</v>
+      </c>
+      <c r="M652" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N652" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O652" t="s">
+        <v>24</v>
+      </c>
+      <c r="P652" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="653" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B653" t="s">
+        <v>58</v>
+      </c>
+      <c r="C653" t="s">
+        <v>27</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E653" t="s">
+        <v>18</v>
+      </c>
+      <c r="F653" t="s">
+        <v>29</v>
+      </c>
+      <c r="G653">
+        <v>25</v>
+      </c>
+      <c r="H653" t="s">
+        <v>58</v>
+      </c>
+      <c r="I653" t="s">
+        <v>324</v>
+      </c>
+      <c r="J653" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K653" t="s">
+        <v>24</v>
+      </c>
+      <c r="L653" t="s">
+        <v>25</v>
+      </c>
+      <c r="M653" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N653" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O653" t="s">
+        <v>24</v>
+      </c>
+      <c r="P653" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="654" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B654" t="s">
+        <v>58</v>
+      </c>
+      <c r="C654" t="s">
+        <v>27</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E654" t="s">
+        <v>18</v>
+      </c>
+      <c r="F654" t="s">
+        <v>19</v>
+      </c>
+      <c r="G654">
+        <v>40</v>
+      </c>
+      <c r="H654" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I654" t="s">
+        <v>157</v>
+      </c>
+      <c r="J654" t="s">
+        <v>1965</v>
+      </c>
+      <c r="K654" t="s">
+        <v>24</v>
+      </c>
+      <c r="L654" t="s">
+        <v>445</v>
+      </c>
+      <c r="M654" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N654" t="s">
+        <v>1966</v>
+      </c>
+      <c r="O654" t="s">
+        <v>24</v>
+      </c>
+      <c r="P654" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="655" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B655" t="s">
+        <v>58</v>
+      </c>
+      <c r="C655" t="s">
+        <v>41</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E655" t="s">
+        <v>18</v>
+      </c>
+      <c r="F655" t="s">
+        <v>19</v>
+      </c>
+      <c r="G655">
+        <v>41</v>
+      </c>
+      <c r="H655" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I655" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J655" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K655" t="s">
+        <v>24</v>
+      </c>
+      <c r="L655" t="s">
+        <v>25</v>
+      </c>
+      <c r="M655" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N655" t="s">
+        <v>1972</v>
+      </c>
+      <c r="O655" t="s">
+        <v>24</v>
+      </c>
+      <c r="P655" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B656" t="s">
+        <v>58</v>
+      </c>
+      <c r="C656" t="s">
+        <v>41</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E656" t="s">
+        <v>18</v>
+      </c>
+      <c r="F656" t="s">
+        <v>19</v>
+      </c>
+      <c r="G656">
+        <v>31</v>
+      </c>
+      <c r="H656" t="s">
+        <v>393</v>
+      </c>
+      <c r="I656" t="s">
+        <v>22</v>
+      </c>
+      <c r="J656" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K656" t="s">
+        <v>24</v>
+      </c>
+      <c r="L656" t="s">
+        <v>25</v>
+      </c>
+      <c r="M656" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N656" t="s">
+        <v>1975</v>
+      </c>
+      <c r="O656" t="s">
+        <v>24</v>
+      </c>
+      <c r="P656" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B657" t="s">
+        <v>58</v>
+      </c>
+      <c r="C657" t="s">
+        <v>27</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E657" t="s">
+        <v>18</v>
+      </c>
+      <c r="F657" t="s">
+        <v>19</v>
+      </c>
+      <c r="G657">
+        <v>39</v>
+      </c>
+      <c r="H657" t="s">
+        <v>231</v>
+      </c>
+      <c r="I657" t="s">
+        <v>157</v>
+      </c>
+      <c r="J657" t="s">
+        <v>1978</v>
+      </c>
+      <c r="K657" t="s">
+        <v>24</v>
+      </c>
+      <c r="L657" t="s">
+        <v>25</v>
+      </c>
+      <c r="M657" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N657" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O657" t="s">
+        <v>24</v>
+      </c>
+      <c r="P657" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B658" t="s">
+        <v>58</v>
+      </c>
+      <c r="C658" t="s">
+        <v>41</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E658" t="s">
+        <v>18</v>
+      </c>
+      <c r="F658" t="s">
+        <v>29</v>
+      </c>
+      <c r="G658">
+        <v>24</v>
+      </c>
+      <c r="H658" t="s">
+        <v>44</v>
+      </c>
+      <c r="I658" t="s">
+        <v>22</v>
+      </c>
+      <c r="J658" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K658" t="s">
+        <v>24</v>
+      </c>
+      <c r="L658" t="s">
+        <v>25</v>
+      </c>
+      <c r="M658" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N658" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O658" t="s">
+        <v>24</v>
+      </c>
+      <c r="P658" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B659" t="s">
+        <v>58</v>
+      </c>
+      <c r="C659" t="s">
+        <v>41</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E659" t="s">
+        <v>18</v>
+      </c>
+      <c r="F659" t="s">
+        <v>29</v>
+      </c>
+      <c r="G659">
+        <v>17</v>
+      </c>
+      <c r="H659" t="s">
+        <v>44</v>
+      </c>
+      <c r="I659" t="s">
+        <v>22</v>
+      </c>
+      <c r="J659" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K659" t="s">
+        <v>24</v>
+      </c>
+      <c r="L659" t="s">
+        <v>25</v>
+      </c>
+      <c r="M659" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N659" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O659" t="s">
+        <v>24</v>
+      </c>
+      <c r="P659" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B660" t="s">
+        <v>58</v>
+      </c>
+      <c r="C660" t="s">
+        <v>16</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E660" t="s">
+        <v>65</v>
+      </c>
+      <c r="F660" t="s">
+        <v>29</v>
+      </c>
+      <c r="G660">
+        <v>46</v>
+      </c>
+      <c r="H660" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I660" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J660" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K660" t="s">
+        <v>24</v>
+      </c>
+      <c r="L660" t="s">
+        <v>25</v>
+      </c>
+      <c r="M660" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N660" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O660" t="s">
+        <v>80</v>
+      </c>
+      <c r="P660" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B661" t="s">
+        <v>58</v>
+      </c>
+      <c r="C661" t="s">
+        <v>27</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E661" t="s">
+        <v>65</v>
+      </c>
+      <c r="F661" t="s">
+        <v>185</v>
+      </c>
+      <c r="G661">
+        <v>38</v>
+      </c>
+      <c r="H661" t="s">
+        <v>608</v>
+      </c>
+      <c r="I661" t="s">
+        <v>22</v>
+      </c>
+      <c r="J661" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K661" t="s">
+        <v>24</v>
+      </c>
+      <c r="L661" t="s">
+        <v>25</v>
+      </c>
+      <c r="M661" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N661" t="s">
+        <v>1991</v>
+      </c>
+      <c r="O661" t="s">
+        <v>24</v>
+      </c>
+      <c r="P661" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B662" t="s">
+        <v>58</v>
+      </c>
+      <c r="C662" t="s">
+        <v>41</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E662" t="s">
+        <v>65</v>
+      </c>
+      <c r="F662" t="s">
+        <v>29</v>
+      </c>
+      <c r="G662">
+        <v>39</v>
+      </c>
+      <c r="H662" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I662" t="s">
+        <v>55</v>
+      </c>
+      <c r="J662" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K662" t="s">
+        <v>24</v>
+      </c>
+      <c r="L662" t="s">
+        <v>25</v>
+      </c>
+      <c r="M662" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N662" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O662" t="s">
+        <v>24</v>
+      </c>
+      <c r="P662" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B663" t="s">
+        <v>58</v>
+      </c>
+      <c r="C663" t="s">
+        <v>41</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E663" t="s">
+        <v>65</v>
+      </c>
+      <c r="F663" t="s">
+        <v>292</v>
+      </c>
+      <c r="G663">
+        <v>67</v>
+      </c>
+      <c r="H663" t="s">
+        <v>281</v>
+      </c>
+      <c r="I663" t="s">
+        <v>22</v>
+      </c>
+      <c r="J663" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K663" t="s">
+        <v>24</v>
+      </c>
+      <c r="L663" t="s">
+        <v>25</v>
+      </c>
+      <c r="M663" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N663" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O663" t="s">
+        <v>80</v>
+      </c>
+      <c r="P663" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B664" t="s">
+        <v>58</v>
+      </c>
+      <c r="C664" t="s">
+        <v>41</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E664" t="s">
+        <v>65</v>
+      </c>
+      <c r="F664" t="s">
+        <v>29</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+      <c r="H664" t="s">
+        <v>319</v>
+      </c>
+      <c r="I664" t="s">
+        <v>157</v>
+      </c>
+      <c r="J664" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K664" t="s">
+        <v>24</v>
+      </c>
+      <c r="L664" t="s">
+        <v>25</v>
+      </c>
+      <c r="M664" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N664" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O664" t="s">
+        <v>80</v>
+      </c>
+      <c r="P664" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B665" t="s">
+        <v>58</v>
+      </c>
+      <c r="C665" t="s">
+        <v>41</v>
+      </c>
+      <c r="D665" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E665" t="s">
+        <v>65</v>
+      </c>
+      <c r="F665" t="s">
+        <v>29</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I665" t="s">
+        <v>55</v>
+      </c>
+      <c r="J665" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K665" t="s">
+        <v>24</v>
+      </c>
+      <c r="L665" t="s">
+        <v>25</v>
+      </c>
+      <c r="M665" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N665" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O665" t="s">
+        <v>80</v>
+      </c>
+      <c r="P665" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="666" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B666" t="s">
+        <v>58</v>
+      </c>
+      <c r="C666" t="s">
+        <v>16</v>
+      </c>
+      <c r="D666" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E666" t="s">
+        <v>65</v>
+      </c>
+      <c r="F666" t="s">
+        <v>29</v>
+      </c>
+      <c r="G666">
+        <v>22</v>
+      </c>
+      <c r="H666" t="s">
+        <v>523</v>
+      </c>
+      <c r="I666" t="s">
+        <v>85</v>
+      </c>
+      <c r="J666" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K666" t="s">
+        <v>24</v>
+      </c>
+      <c r="L666" t="s">
+        <v>25</v>
+      </c>
+      <c r="M666" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N666" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O666" t="s">
+        <v>24</v>
+      </c>
+      <c r="P666" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="667" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B667" t="s">
+        <v>58</v>
+      </c>
+      <c r="C667" t="s">
+        <v>41</v>
+      </c>
+      <c r="D667" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E667" t="s">
+        <v>65</v>
+      </c>
+      <c r="F667" t="s">
+        <v>19</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+      <c r="H667" t="s">
+        <v>129</v>
+      </c>
+      <c r="I667" t="s">
+        <v>157</v>
+      </c>
+      <c r="J667" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K667" t="s">
+        <v>24</v>
+      </c>
+      <c r="L667" t="s">
+        <v>25</v>
+      </c>
+      <c r="M667" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N667" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O667" t="s">
+        <v>24</v>
+      </c>
+      <c r="P667" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B668" t="s">
+        <v>58</v>
+      </c>
+      <c r="C668" t="s">
+        <v>16</v>
+      </c>
+      <c r="D668" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E668" t="s">
+        <v>65</v>
+      </c>
+      <c r="F668" t="s">
+        <v>29</v>
+      </c>
+      <c r="G668">
+        <v>33</v>
+      </c>
+      <c r="H668" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I668" t="s">
+        <v>55</v>
+      </c>
+      <c r="J668" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K668" t="s">
+        <v>24</v>
+      </c>
+      <c r="L668" t="s">
+        <v>25</v>
+      </c>
+      <c r="M668" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N668" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O668" t="s">
+        <v>80</v>
+      </c>
+      <c r="P668" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="669" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B669" t="s">
+        <v>58</v>
+      </c>
+      <c r="C669" t="s">
+        <v>27</v>
+      </c>
+      <c r="D669" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E669" t="s">
+        <v>65</v>
+      </c>
+      <c r="F669" t="s">
+        <v>29</v>
+      </c>
+      <c r="G669">
+        <v>36</v>
+      </c>
+      <c r="H669" t="s">
+        <v>231</v>
+      </c>
+      <c r="I669" t="s">
+        <v>55</v>
+      </c>
+      <c r="J669" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K669" t="s">
+        <v>24</v>
+      </c>
+      <c r="L669" t="s">
+        <v>25</v>
+      </c>
+      <c r="M669" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N669" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O669" t="s">
+        <v>80</v>
+      </c>
+      <c r="P669" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="670" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B670" t="s">
+        <v>58</v>
+      </c>
+      <c r="C670" t="s">
+        <v>27</v>
+      </c>
+      <c r="D670" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E670" t="s">
+        <v>65</v>
+      </c>
+      <c r="F670" t="s">
+        <v>19</v>
+      </c>
+      <c r="G670">
+        <v>38</v>
+      </c>
+      <c r="H670" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I670" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J670" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K670" t="s">
+        <v>24</v>
+      </c>
+      <c r="L670" t="s">
+        <v>25</v>
+      </c>
+      <c r="M670" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N670" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O670" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P670" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="671" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B671" t="s">
+        <v>58</v>
+      </c>
+      <c r="C671" t="s">
+        <v>41</v>
+      </c>
+      <c r="D671" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E671" t="s">
+        <v>65</v>
+      </c>
+      <c r="F671" t="s">
+        <v>19</v>
+      </c>
+      <c r="G671">
+        <v>40</v>
+      </c>
+      <c r="H671" t="s">
+        <v>816</v>
+      </c>
+      <c r="I671" t="s">
+        <v>55</v>
+      </c>
+      <c r="J671" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K671" t="s">
+        <v>24</v>
+      </c>
+      <c r="L671" t="s">
+        <v>46</v>
+      </c>
+      <c r="M671" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N671" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O671" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P671" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B672" t="s">
+        <v>58</v>
+      </c>
+      <c r="C672" t="s">
+        <v>41</v>
+      </c>
+      <c r="D672" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E672" t="s">
+        <v>65</v>
+      </c>
+      <c r="F672" t="s">
+        <v>91</v>
+      </c>
+      <c r="G672">
+        <v>48</v>
+      </c>
+      <c r="H672" t="s">
+        <v>58</v>
+      </c>
+      <c r="I672" t="s">
+        <v>55</v>
+      </c>
+      <c r="J672" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K672" t="s">
+        <v>24</v>
+      </c>
+      <c r="L672" t="s">
+        <v>25</v>
+      </c>
+      <c r="M672" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N672" t="s">
+        <v>2021</v>
+      </c>
+      <c r="O672" t="s">
+        <v>24</v>
+      </c>
+      <c r="P672" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="673" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B673" t="s">
+        <v>58</v>
+      </c>
+      <c r="C673" t="s">
+        <v>27</v>
+      </c>
+      <c r="D673" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E673" t="s">
+        <v>65</v>
+      </c>
+      <c r="F673" t="s">
+        <v>58</v>
+      </c>
+      <c r="G673">
+        <v>0</v>
+      </c>
+      <c r="H673" t="s">
+        <v>44</v>
+      </c>
+      <c r="I673" t="s">
+        <v>22</v>
+      </c>
+      <c r="J673" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K673" t="s">
+        <v>24</v>
+      </c>
+      <c r="L673" t="s">
+        <v>25</v>
+      </c>
+      <c r="M673" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N673" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O673" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P673" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="674" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B674" t="s">
+        <v>58</v>
+      </c>
+      <c r="C674" t="s">
+        <v>16</v>
+      </c>
+      <c r="D674" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E674" t="s">
+        <v>65</v>
+      </c>
+      <c r="F674" t="s">
+        <v>19</v>
+      </c>
+      <c r="G674">
+        <v>38</v>
+      </c>
+      <c r="H674" t="s">
+        <v>152</v>
+      </c>
+      <c r="I674" t="s">
+        <v>22</v>
+      </c>
+      <c r="J674" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K674" t="s">
+        <v>24</v>
+      </c>
+      <c r="L674" t="s">
+        <v>25</v>
+      </c>
+      <c r="M674" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N674" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O674" t="s">
+        <v>80</v>
+      </c>
+      <c r="P674" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="675" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B675" t="s">
+        <v>58</v>
+      </c>
+      <c r="C675" t="s">
+        <v>41</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E675" t="s">
+        <v>65</v>
+      </c>
+      <c r="F675" t="s">
+        <v>29</v>
+      </c>
+      <c r="G675">
+        <v>32</v>
+      </c>
+      <c r="H675" t="s">
+        <v>58</v>
+      </c>
+      <c r="I675" t="s">
+        <v>55</v>
+      </c>
+      <c r="J675" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K675" t="s">
+        <v>24</v>
+      </c>
+      <c r="L675" t="s">
+        <v>46</v>
+      </c>
+      <c r="M675" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N675" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O675" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P675" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="676" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B676" t="s">
+        <v>58</v>
+      </c>
+      <c r="C676" t="s">
+        <v>27</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E676" t="s">
+        <v>65</v>
+      </c>
+      <c r="F676" t="s">
+        <v>29</v>
+      </c>
+      <c r="G676">
+        <v>25</v>
+      </c>
+      <c r="H676" t="s">
+        <v>909</v>
+      </c>
+      <c r="I676" t="s">
+        <v>22</v>
+      </c>
+      <c r="J676" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K676" t="s">
+        <v>24</v>
+      </c>
+      <c r="L676" t="s">
+        <v>46</v>
+      </c>
+      <c r="M676" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N676" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O676" t="s">
+        <v>24</v>
+      </c>
+      <c r="P676" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B677" t="s">
+        <v>58</v>
+      </c>
+      <c r="C677" t="s">
+        <v>16</v>
+      </c>
+      <c r="D677" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E677" t="s">
+        <v>65</v>
+      </c>
+      <c r="F677" t="s">
+        <v>19</v>
+      </c>
+      <c r="G677">
+        <v>34</v>
+      </c>
+      <c r="H677" t="s">
+        <v>58</v>
+      </c>
+      <c r="I677" t="s">
+        <v>55</v>
+      </c>
+      <c r="J677" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K677" t="s">
+        <v>24</v>
+      </c>
+      <c r="L677" t="s">
+        <v>46</v>
+      </c>
+      <c r="M677" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N677" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O677" t="s">
+        <v>80</v>
+      </c>
+      <c r="P677" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B678" t="s">
+        <v>58</v>
+      </c>
+      <c r="C678" t="s">
+        <v>27</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E678" t="s">
+        <v>65</v>
+      </c>
+      <c r="F678" t="s">
+        <v>19</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678" t="s">
+        <v>44</v>
+      </c>
+      <c r="I678" t="s">
+        <v>22</v>
+      </c>
+      <c r="J678" t="s">
+        <v>2033</v>
+      </c>
+      <c r="K678" t="s">
+        <v>24</v>
+      </c>
+      <c r="L678" t="s">
+        <v>25</v>
+      </c>
+      <c r="M678" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N678" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O678" t="s">
+        <v>80</v>
+      </c>
+      <c r="P678" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B679" t="s">
+        <v>58</v>
+      </c>
+      <c r="C679" t="s">
+        <v>27</v>
+      </c>
+      <c r="D679" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E679" t="s">
+        <v>65</v>
+      </c>
+      <c r="F679" t="s">
+        <v>29</v>
+      </c>
+      <c r="G679">
+        <v>27</v>
+      </c>
+      <c r="H679" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I679" t="s">
+        <v>22</v>
+      </c>
+      <c r="J679" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K679" t="s">
+        <v>24</v>
+      </c>
+      <c r="L679" t="s">
+        <v>25</v>
+      </c>
+      <c r="M679" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N679" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O679" t="s">
+        <v>24</v>
+      </c>
+      <c r="P679" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B680" t="s">
+        <v>58</v>
+      </c>
+      <c r="C680" t="s">
+        <v>41</v>
+      </c>
+      <c r="D680" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E680" t="s">
+        <v>65</v>
+      </c>
+      <c r="F680" t="s">
+        <v>29</v>
+      </c>
+      <c r="G680">
+        <v>33</v>
+      </c>
+      <c r="H680" t="s">
+        <v>281</v>
+      </c>
+      <c r="I680" t="s">
+        <v>22</v>
+      </c>
+      <c r="J680" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K680" t="s">
+        <v>24</v>
+      </c>
+      <c r="L680" t="s">
+        <v>25</v>
+      </c>
+      <c r="M680" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N680" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O680" t="s">
+        <v>80</v>
+      </c>
+      <c r="P680" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B681" t="s">
+        <v>58</v>
+      </c>
+      <c r="C681" t="s">
+        <v>27</v>
+      </c>
+      <c r="D681" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E681" t="s">
+        <v>65</v>
+      </c>
+      <c r="F681" t="s">
+        <v>185</v>
+      </c>
+      <c r="G681">
+        <v>32</v>
+      </c>
+      <c r="H681" t="s">
+        <v>58</v>
+      </c>
+      <c r="I681" t="s">
+        <v>55</v>
+      </c>
+      <c r="J681" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K681" t="s">
+        <v>24</v>
+      </c>
+      <c r="L681" t="s">
+        <v>25</v>
+      </c>
+      <c r="M681" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N681" t="s">
+        <v>2041</v>
+      </c>
+      <c r="O681" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P681" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B682" t="s">
+        <v>58</v>
+      </c>
+      <c r="C682" t="s">
+        <v>41</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E682" t="s">
+        <v>65</v>
+      </c>
+      <c r="F682" t="s">
+        <v>19</v>
+      </c>
+      <c r="G682">
+        <v>28</v>
+      </c>
+      <c r="H682" t="s">
+        <v>152</v>
+      </c>
+      <c r="I682" t="s">
+        <v>22</v>
+      </c>
+      <c r="J682" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K682" t="s">
+        <v>24</v>
+      </c>
+      <c r="L682" t="s">
+        <v>25</v>
+      </c>
+      <c r="M682" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N682" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O682" t="s">
+        <v>24</v>
+      </c>
+      <c r="P682" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B683" t="s">
+        <v>58</v>
+      </c>
+      <c r="C683" t="s">
+        <v>41</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E683" t="s">
+        <v>65</v>
+      </c>
+      <c r="F683" t="s">
+        <v>19</v>
+      </c>
+      <c r="G683">
+        <v>69</v>
+      </c>
+      <c r="H683" t="s">
+        <v>58</v>
+      </c>
+      <c r="I683" t="s">
+        <v>55</v>
+      </c>
+      <c r="J683" t="s">
+        <v>2045</v>
+      </c>
+      <c r="K683" t="s">
+        <v>24</v>
+      </c>
+      <c r="L683" t="s">
+        <v>25</v>
+      </c>
+      <c r="M683" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N683" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O683" t="s">
+        <v>80</v>
+      </c>
+      <c r="P683" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B684" t="s">
+        <v>58</v>
+      </c>
+      <c r="C684" t="s">
+        <v>41</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E684" t="s">
+        <v>65</v>
+      </c>
+      <c r="F684" t="s">
+        <v>19</v>
+      </c>
+      <c r="G684">
+        <v>36</v>
+      </c>
+      <c r="H684" t="s">
+        <v>44</v>
+      </c>
+      <c r="I684" t="s">
+        <v>22</v>
+      </c>
+      <c r="J684" t="s">
+        <v>2047</v>
+      </c>
+      <c r="K684" t="s">
+        <v>24</v>
+      </c>
+      <c r="L684" t="s">
+        <v>25</v>
+      </c>
+      <c r="M684" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N684" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O684" t="s">
+        <v>24</v>
+      </c>
+      <c r="P684" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B685" t="s">
+        <v>58</v>
+      </c>
+      <c r="C685" t="s">
+        <v>41</v>
+      </c>
+      <c r="D685" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E685" t="s">
+        <v>65</v>
+      </c>
+      <c r="F685" t="s">
+        <v>58</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685" t="s">
+        <v>58</v>
+      </c>
+      <c r="I685" t="s">
+        <v>55</v>
+      </c>
+      <c r="J685" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K685" t="s">
+        <v>24</v>
+      </c>
+      <c r="L685" t="s">
+        <v>25</v>
+      </c>
+      <c r="M685" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N685" t="s">
+        <v>2050</v>
+      </c>
+      <c r="O685" t="s">
+        <v>24</v>
+      </c>
+      <c r="P685" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B686" t="s">
+        <v>58</v>
+      </c>
+      <c r="C686" t="s">
+        <v>27</v>
+      </c>
+      <c r="D686" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E686" t="s">
+        <v>65</v>
+      </c>
+      <c r="F686" t="s">
+        <v>58</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686" t="s">
+        <v>21</v>
+      </c>
+      <c r="I686" t="s">
+        <v>22</v>
+      </c>
+      <c r="J686" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K686" t="s">
+        <v>24</v>
+      </c>
+      <c r="L686" t="s">
+        <v>25</v>
+      </c>
+      <c r="M686" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N686" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O686" t="s">
+        <v>24</v>
+      </c>
+      <c r="P686" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B687" t="s">
+        <v>58</v>
+      </c>
+      <c r="C687" t="s">
+        <v>27</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E687" t="s">
+        <v>65</v>
+      </c>
+      <c r="F687" t="s">
+        <v>29</v>
+      </c>
+      <c r="G687">
+        <v>37</v>
+      </c>
+      <c r="H687" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I687" t="s">
+        <v>55</v>
+      </c>
+      <c r="J687" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K687" t="s">
+        <v>24</v>
+      </c>
+      <c r="L687" t="s">
+        <v>25</v>
+      </c>
+      <c r="M687" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N687" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O687" t="s">
+        <v>80</v>
+      </c>
+      <c r="P687" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B688" t="s">
+        <v>58</v>
+      </c>
+      <c r="C688" t="s">
+        <v>27</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E688" t="s">
+        <v>65</v>
+      </c>
+      <c r="F688" t="s">
+        <v>29</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688" t="s">
+        <v>281</v>
+      </c>
+      <c r="I688" t="s">
+        <v>22</v>
+      </c>
+      <c r="J688" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K688" t="s">
+        <v>24</v>
+      </c>
+      <c r="L688" t="s">
+        <v>25</v>
+      </c>
+      <c r="M688" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N688" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O688" t="s">
+        <v>80</v>
+      </c>
+      <c r="P688" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="689" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B689" t="s">
+        <v>58</v>
+      </c>
+      <c r="C689" t="s">
+        <v>41</v>
+      </c>
+      <c r="D689" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E689" t="s">
+        <v>65</v>
+      </c>
+      <c r="F689" t="s">
+        <v>19</v>
+      </c>
+      <c r="G689">
+        <v>35</v>
+      </c>
+      <c r="H689" t="s">
+        <v>58</v>
+      </c>
+      <c r="I689" t="s">
+        <v>55</v>
+      </c>
+      <c r="J689" t="s">
+        <v>2058</v>
+      </c>
+      <c r="K689" t="s">
+        <v>24</v>
+      </c>
+      <c r="L689" t="s">
+        <v>148</v>
+      </c>
+      <c r="M689" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N689" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O689" t="s">
+        <v>24</v>
+      </c>
+      <c r="P689" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B690" t="s">
+        <v>58</v>
+      </c>
+      <c r="C690" t="s">
+        <v>41</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E690" t="s">
+        <v>65</v>
+      </c>
+      <c r="F690" t="s">
+        <v>29</v>
+      </c>
+      <c r="G690">
+        <v>24</v>
+      </c>
+      <c r="H690" t="s">
+        <v>129</v>
+      </c>
+      <c r="I690" t="s">
+        <v>22</v>
+      </c>
+      <c r="J690" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K690" t="s">
+        <v>24</v>
+      </c>
+      <c r="L690" t="s">
+        <v>25</v>
+      </c>
+      <c r="M690" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N690" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O690" t="s">
+        <v>24</v>
+      </c>
+      <c r="P690" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="691" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B691" t="s">
+        <v>58</v>
+      </c>
+      <c r="C691" t="s">
+        <v>16</v>
+      </c>
+      <c r="D691" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E691" t="s">
+        <v>65</v>
+      </c>
+      <c r="F691" t="s">
+        <v>19</v>
+      </c>
+      <c r="G691">
+        <v>66</v>
+      </c>
+      <c r="H691" t="s">
+        <v>2063</v>
+      </c>
+      <c r="I691" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J691" t="s">
+        <v>2064</v>
+      </c>
+      <c r="K691" t="s">
+        <v>24</v>
+      </c>
+      <c r="L691" t="s">
+        <v>25</v>
+      </c>
+      <c r="M691" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N691" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O691" t="s">
+        <v>80</v>
+      </c>
+      <c r="P691" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="692" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B692" t="s">
+        <v>58</v>
+      </c>
+      <c r="C692" t="s">
+        <v>41</v>
+      </c>
+      <c r="D692" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E692" t="s">
+        <v>65</v>
+      </c>
+      <c r="F692" t="s">
+        <v>29</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+      <c r="H692" t="s">
+        <v>58</v>
+      </c>
+      <c r="I692" t="s">
+        <v>55</v>
+      </c>
+      <c r="J692" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K692" t="s">
+        <v>24</v>
+      </c>
+      <c r="L692" t="s">
+        <v>25</v>
+      </c>
+      <c r="M692" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N692" t="s">
+        <v>2067</v>
+      </c>
+      <c r="O692" t="s">
+        <v>24</v>
+      </c>
+      <c r="P692" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="693" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B693" t="s">
+        <v>58</v>
+      </c>
+      <c r="C693" t="s">
+        <v>27</v>
+      </c>
+      <c r="D693" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E693" t="s">
+        <v>65</v>
+      </c>
+      <c r="F693" t="s">
+        <v>29</v>
+      </c>
+      <c r="G693">
+        <v>36</v>
+      </c>
+      <c r="H693" t="s">
+        <v>44</v>
+      </c>
+      <c r="I693" t="s">
+        <v>55</v>
+      </c>
+      <c r="J693" t="s">
+        <v>2069</v>
+      </c>
+      <c r="K693" t="s">
+        <v>24</v>
+      </c>
+      <c r="L693" t="s">
+        <v>25</v>
+      </c>
+      <c r="M693" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N693" t="s">
+        <v>2070</v>
+      </c>
+      <c r="O693" t="s">
+        <v>24</v>
+      </c>
+      <c r="P693" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="694" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B694" t="s">
+        <v>58</v>
+      </c>
+      <c r="C694" t="s">
+        <v>41</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E694" t="s">
+        <v>65</v>
+      </c>
+      <c r="F694" t="s">
+        <v>29</v>
+      </c>
+      <c r="G694">
+        <v>29</v>
+      </c>
+      <c r="H694" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I694" t="s">
+        <v>157</v>
+      </c>
+      <c r="J694" t="s">
+        <v>2073</v>
+      </c>
+      <c r="K694" t="s">
+        <v>24</v>
+      </c>
+      <c r="L694" t="s">
+        <v>25</v>
+      </c>
+      <c r="M694" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N694" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O694" t="s">
+        <v>80</v>
+      </c>
+      <c r="P694" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="695" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B695" t="s">
+        <v>58</v>
+      </c>
+      <c r="C695" t="s">
+        <v>27</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E695" t="s">
+        <v>65</v>
+      </c>
+      <c r="F695" t="s">
+        <v>19</v>
+      </c>
+      <c r="G695">
+        <v>45</v>
+      </c>
+      <c r="H695" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I695" t="s">
+        <v>22</v>
+      </c>
+      <c r="J695" t="s">
+        <v>2075</v>
+      </c>
+      <c r="K695" t="s">
+        <v>24</v>
+      </c>
+      <c r="L695" t="s">
+        <v>25</v>
+      </c>
+      <c r="M695" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N695" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O695" t="s">
+        <v>80</v>
+      </c>
+      <c r="P695" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="696" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B696" t="s">
+        <v>58</v>
+      </c>
+      <c r="C696" t="s">
+        <v>27</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E696" t="s">
+        <v>18</v>
+      </c>
+      <c r="F696" t="s">
+        <v>19</v>
+      </c>
+      <c r="G696">
+        <v>41</v>
+      </c>
+      <c r="H696" t="s">
+        <v>393</v>
+      </c>
+      <c r="I696" t="s">
+        <v>22</v>
+      </c>
+      <c r="J696" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K696" t="s">
+        <v>24</v>
+      </c>
+      <c r="L696" t="s">
+        <v>450</v>
+      </c>
+      <c r="M696" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N696" t="s">
+        <v>2079</v>
+      </c>
+      <c r="O696" t="s">
+        <v>24</v>
+      </c>
+      <c r="P696" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B697" t="s">
+        <v>58</v>
+      </c>
+      <c r="C697" t="s">
+        <v>41</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E697" t="s">
+        <v>18</v>
+      </c>
+      <c r="F697" t="s">
+        <v>29</v>
+      </c>
+      <c r="G697">
+        <v>30</v>
+      </c>
+      <c r="H697" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I697" t="s">
+        <v>335</v>
+      </c>
+      <c r="J697" t="s">
+        <v>2081</v>
+      </c>
+      <c r="K697" t="s">
+        <v>24</v>
+      </c>
+      <c r="L697" t="s">
+        <v>25</v>
+      </c>
+      <c r="M697" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N697" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O697" t="s">
+        <v>24</v>
+      </c>
+      <c r="P697" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="698" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B698" t="s">
+        <v>58</v>
+      </c>
+      <c r="C698" t="s">
+        <v>41</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E698" t="s">
+        <v>18</v>
+      </c>
+      <c r="F698" t="s">
+        <v>29</v>
+      </c>
+      <c r="G698">
+        <v>26</v>
+      </c>
+      <c r="H698" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I698" t="s">
+        <v>55</v>
+      </c>
+      <c r="J698" t="s">
+        <v>2084</v>
+      </c>
+      <c r="K698" t="s">
+        <v>24</v>
+      </c>
+      <c r="L698" t="s">
+        <v>25</v>
+      </c>
+      <c r="M698" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N698" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O698" t="s">
+        <v>24</v>
+      </c>
+      <c r="P698" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="699" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B699" t="s">
+        <v>58</v>
+      </c>
+      <c r="C699" t="s">
+        <v>41</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E699" t="s">
+        <v>18</v>
+      </c>
+      <c r="F699" t="s">
+        <v>29</v>
+      </c>
+      <c r="G699">
+        <v>16</v>
+      </c>
+      <c r="H699" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I699" t="s">
+        <v>22</v>
+      </c>
+      <c r="J699" t="s">
+        <v>2086</v>
+      </c>
+      <c r="K699" t="s">
+        <v>24</v>
+      </c>
+      <c r="L699" t="s">
+        <v>25</v>
+      </c>
+      <c r="M699" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N699" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O699" t="s">
+        <v>80</v>
+      </c>
+      <c r="P699" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="700" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B700" t="s">
+        <v>58</v>
+      </c>
+      <c r="C700" t="s">
+        <v>41</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E700" t="s">
+        <v>65</v>
+      </c>
+      <c r="F700" t="s">
+        <v>29</v>
+      </c>
+      <c r="G700">
+        <v>41</v>
+      </c>
+      <c r="H700" t="s">
+        <v>61</v>
+      </c>
+      <c r="I700" t="s">
+        <v>22</v>
+      </c>
+      <c r="J700" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K700" t="s">
+        <v>24</v>
+      </c>
+      <c r="L700" t="s">
+        <v>25</v>
+      </c>
+      <c r="M700" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N700" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O700" t="s">
+        <v>80</v>
+      </c>
+      <c r="P700" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="701" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B701" t="s">
+        <v>58</v>
+      </c>
+      <c r="C701" t="s">
+        <v>41</v>
+      </c>
+      <c r="D701" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E701" t="s">
+        <v>65</v>
+      </c>
+      <c r="F701" t="s">
+        <v>29</v>
+      </c>
+      <c r="G701">
+        <v>29</v>
+      </c>
+      <c r="H701" t="s">
+        <v>364</v>
+      </c>
+      <c r="I701" t="s">
+        <v>22</v>
+      </c>
+      <c r="J701" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K701" t="s">
+        <v>24</v>
+      </c>
+      <c r="L701" t="s">
+        <v>25</v>
+      </c>
+      <c r="M701" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N701" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O701" t="s">
+        <v>24</v>
+      </c>
+      <c r="P701" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="702" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B702" t="s">
+        <v>58</v>
+      </c>
+      <c r="C702" t="s">
+        <v>27</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E702" t="s">
+        <v>65</v>
+      </c>
+      <c r="F702" t="s">
+        <v>91</v>
+      </c>
+      <c r="G702">
+        <v>41</v>
+      </c>
+      <c r="H702" t="s">
+        <v>307</v>
+      </c>
+      <c r="I702" t="s">
+        <v>22</v>
+      </c>
+      <c r="J702" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K702" t="s">
+        <v>24</v>
+      </c>
+      <c r="L702" t="s">
+        <v>25</v>
+      </c>
+      <c r="M702" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N702" t="s">
+        <v>2094</v>
+      </c>
+      <c r="O702" t="s">
+        <v>24</v>
+      </c>
+      <c r="P702" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="703" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B703" t="s">
+        <v>58</v>
+      </c>
+      <c r="C703" t="s">
+        <v>41</v>
+      </c>
+      <c r="D703" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E703" t="s">
+        <v>65</v>
+      </c>
+      <c r="F703" t="s">
+        <v>19</v>
+      </c>
+      <c r="G703">
+        <v>39</v>
+      </c>
+      <c r="H703" t="s">
+        <v>393</v>
+      </c>
+      <c r="I703" t="s">
+        <v>55</v>
+      </c>
+      <c r="J703" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K703" t="s">
+        <v>24</v>
+      </c>
+      <c r="L703" t="s">
+        <v>46</v>
+      </c>
+      <c r="M703" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N703" t="s">
+        <v>2097</v>
+      </c>
+      <c r="O703" t="s">
+        <v>24</v>
+      </c>
+      <c r="P703" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="704" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B704" t="s">
+        <v>58</v>
+      </c>
+      <c r="C704" t="s">
+        <v>41</v>
+      </c>
+      <c r="D704" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E704" t="s">
+        <v>65</v>
+      </c>
+      <c r="F704" t="s">
+        <v>29</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704" t="s">
+        <v>58</v>
+      </c>
+      <c r="I704" t="s">
+        <v>55</v>
+      </c>
+      <c r="J704" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K704" t="s">
+        <v>24</v>
+      </c>
+      <c r="L704" t="s">
+        <v>201</v>
+      </c>
+      <c r="M704" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N704" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O704" t="s">
+        <v>24</v>
+      </c>
+      <c r="P704" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="705" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B705" t="s">
+        <v>58</v>
+      </c>
+      <c r="C705" t="s">
+        <v>16</v>
+      </c>
+      <c r="D705" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E705" t="s">
+        <v>65</v>
+      </c>
+      <c r="F705" t="s">
+        <v>91</v>
+      </c>
+      <c r="G705">
+        <v>32</v>
+      </c>
+      <c r="H705" t="s">
+        <v>44</v>
+      </c>
+      <c r="I705" t="s">
+        <v>22</v>
+      </c>
+      <c r="J705" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K705" t="s">
+        <v>24</v>
+      </c>
+      <c r="L705" t="s">
+        <v>25</v>
+      </c>
+      <c r="M705" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N705" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O705" t="s">
+        <v>80</v>
+      </c>
+      <c r="P705" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="706" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B706" t="s">
+        <v>58</v>
+      </c>
+      <c r="C706" t="s">
+        <v>27</v>
+      </c>
+      <c r="D706" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E706" t="s">
+        <v>65</v>
+      </c>
+      <c r="F706" t="s">
+        <v>29</v>
+      </c>
+      <c r="G706">
+        <v>13</v>
+      </c>
+      <c r="H706" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I706" t="s">
+        <v>335</v>
+      </c>
+      <c r="J706" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K706" t="s">
+        <v>24</v>
+      </c>
+      <c r="L706" t="s">
+        <v>25</v>
+      </c>
+      <c r="M706" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N706" t="s">
+        <v>2105</v>
+      </c>
+      <c r="O706" t="s">
+        <v>2106</v>
+      </c>
+      <c r="P706" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B707" t="s">
+        <v>58</v>
+      </c>
+      <c r="C707" t="s">
+        <v>41</v>
+      </c>
+      <c r="D707" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E707" t="s">
+        <v>65</v>
+      </c>
+      <c r="F707" t="s">
+        <v>29</v>
+      </c>
+      <c r="G707">
+        <v>21</v>
+      </c>
+      <c r="H707" t="s">
+        <v>58</v>
+      </c>
+      <c r="I707" t="s">
+        <v>55</v>
+      </c>
+      <c r="J707" t="s">
+        <v>2108</v>
+      </c>
+      <c r="K707" t="s">
+        <v>24</v>
+      </c>
+      <c r="L707" t="s">
+        <v>25</v>
+      </c>
+      <c r="M707" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N707" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O707" t="s">
+        <v>80</v>
+      </c>
+      <c r="P707" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="708" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B708" t="s">
+        <v>58</v>
+      </c>
+      <c r="C708" t="s">
+        <v>27</v>
+      </c>
+      <c r="D708" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E708" t="s">
+        <v>65</v>
+      </c>
+      <c r="F708" t="s">
+        <v>29</v>
+      </c>
+      <c r="G708">
+        <v>100</v>
+      </c>
+      <c r="H708" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I708" t="s">
+        <v>157</v>
+      </c>
+      <c r="J708" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K708" t="s">
+        <v>24</v>
+      </c>
+      <c r="L708" t="s">
+        <v>25</v>
+      </c>
+      <c r="M708" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N708" t="s">
+        <v>95</v>
+      </c>
+      <c r="O708" t="s">
+        <v>80</v>
+      </c>
+      <c r="P708" t="s">
         <v>824</v>
       </c>
     </row>

--- a/Consolidado_Bridge_2025_OLD.xlsx
+++ b/Consolidado_Bridge_2025_OLD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Documentos/nwb/bridge/dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE888C6-418B-4C16-8479-D50EA5CEDD67}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84FD7C7D-C16D-408A-B09D-5A7E31300699}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2025 Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$708</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$232</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10687" uniqueCount="2112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13042" uniqueCount="2475">
   <si>
     <t>Quando</t>
   </si>
@@ -6398,6 +6398,1095 @@
   </si>
   <si>
     <t>21 98667-9866</t>
+  </si>
+  <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>Pierre Souza</t>
+  </si>
+  <si>
+    <t>21 98344-6853</t>
+  </si>
+  <si>
+    <t>Carlos Alberto De Souza Jr</t>
+  </si>
+  <si>
+    <t>21 99827-5183</t>
+  </si>
+  <si>
+    <t>Maxi Vila</t>
+  </si>
+  <si>
+    <t>21 99881-6640</t>
+  </si>
+  <si>
+    <t>Jonildo Viegas</t>
+  </si>
+  <si>
+    <t>21 98257-7569</t>
+  </si>
+  <si>
+    <t>Luiz Antônio De Azevedo</t>
+  </si>
+  <si>
+    <t>21 99409-6903</t>
+  </si>
+  <si>
+    <t>Yago Elias Lessa Nascimento</t>
+  </si>
+  <si>
+    <t>21 97883-9918</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando encaminhar ao gc</t>
+  </si>
+  <si>
+    <t>Nelmar Paiva</t>
+  </si>
+  <si>
+    <t>21 99969-6367</t>
+  </si>
+  <si>
+    <t>Camilly Neves</t>
+  </si>
+  <si>
+    <t>21 96543-3580</t>
+  </si>
+  <si>
+    <t>Chrystiane Thomas</t>
+  </si>
+  <si>
+    <t>21 96567-7704</t>
+  </si>
+  <si>
+    <t>Eduardo Bernardino</t>
+  </si>
+  <si>
+    <t>21 96536-0809</t>
+  </si>
+  <si>
+    <t>Esta indo aos cultos e quando puder disse que vai ao gc</t>
+  </si>
+  <si>
+    <t>Tamyres Moreira</t>
+  </si>
+  <si>
+    <t>32 99814-7464</t>
+  </si>
+  <si>
+    <t>06/07/2025</t>
+  </si>
+  <si>
+    <t>Jonathan Siqueira Nascimento</t>
+  </si>
+  <si>
+    <t>21 98330-9557</t>
+  </si>
+  <si>
+    <t>Entrei em contato por whatsApp e dei as boas vindas</t>
+  </si>
+  <si>
+    <t>Leandro Garcia Da Silva Filho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trezentos </t>
+  </si>
+  <si>
+    <t>São Cristóvão  / RJ</t>
+  </si>
+  <si>
+    <t>21 97932-2184</t>
+  </si>
+  <si>
+    <t>Entrei em contato mas a pessoa informou que o número estava errado.</t>
+  </si>
+  <si>
+    <t>Davi Siqueira Nascimento</t>
+  </si>
+  <si>
+    <t>21 99441-4251</t>
+  </si>
+  <si>
+    <t>Já foi a frente algumas vezes. Tentamos encaminhar para o GC Barrinha diversas vezes sem sucesso.</t>
+  </si>
+  <si>
+    <t>Laudson Rodrigues</t>
+  </si>
+  <si>
+    <t>21 96425-8696</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Dias</t>
+  </si>
+  <si>
+    <t>Piedade</t>
+  </si>
+  <si>
+    <t>21 98839-0666</t>
+  </si>
+  <si>
+    <t>Tiago Alves Santana</t>
+  </si>
+  <si>
+    <t>21 99408-6398</t>
+  </si>
+  <si>
+    <t>Herik Lobo</t>
+  </si>
+  <si>
+    <t>98 8168-1256</t>
+  </si>
+  <si>
+    <t>Anderson Soares Silverio</t>
+  </si>
+  <si>
+    <t>21 98046-7490</t>
+  </si>
+  <si>
+    <t>Ewerton Vignolli</t>
+  </si>
+  <si>
+    <t>28 99904-1883</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>Caio De Castro Faria</t>
+  </si>
+  <si>
+    <t>21 99616-6377</t>
+  </si>
+  <si>
+    <t>Victoria Silva</t>
+  </si>
+  <si>
+    <t>21 97614-0071</t>
+  </si>
+  <si>
+    <t>Encaminhada para um gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danielle Mariano </t>
+  </si>
+  <si>
+    <t>Viviane R B Paradelas</t>
+  </si>
+  <si>
+    <t>21 98377-4305</t>
+  </si>
+  <si>
+    <t>Ana Paula Silva</t>
+  </si>
+  <si>
+    <t>21 96601-9584</t>
+  </si>
+  <si>
+    <t>Stefanie Lucena</t>
+  </si>
+  <si>
+    <t>21 98082-8923</t>
+  </si>
+  <si>
+    <t>Kesllen Brito</t>
+  </si>
+  <si>
+    <t>21 96516-6137</t>
+  </si>
+  <si>
+    <t>Fernanda Nanda</t>
+  </si>
+  <si>
+    <t>Humaita</t>
+  </si>
+  <si>
+    <t>21 97205-5760</t>
+  </si>
+  <si>
+    <t>Vilane Brito</t>
+  </si>
+  <si>
+    <t>21 98100-0913</t>
+  </si>
+  <si>
+    <t>Aline Araujo</t>
+  </si>
+  <si>
+    <t>21 97921-1000</t>
+  </si>
+  <si>
+    <t>Denise Santana</t>
+  </si>
+  <si>
+    <t>21 97974-7402</t>
+  </si>
+  <si>
+    <t>Pediu apenas oração, não quer aindaparticipar do gc</t>
+  </si>
+  <si>
+    <t>Thuany Vicente</t>
+  </si>
+  <si>
+    <t>21 98385-9183</t>
+  </si>
+  <si>
+    <t>Priscila Mozer</t>
+  </si>
+  <si>
+    <t>21 99734-3978</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Misto Botafogo</t>
+  </si>
+  <si>
+    <t>Fernanda Gomes</t>
+  </si>
+  <si>
+    <t>21 96505-7716</t>
+  </si>
+  <si>
+    <t>Tatiana Da Silva Rodrigues</t>
+  </si>
+  <si>
+    <t>21 96413-2416</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Pink</t>
+  </si>
+  <si>
+    <t>Nathalia Fleming Ricci Fonseca</t>
+  </si>
+  <si>
+    <t>21 99387-4289</t>
+  </si>
+  <si>
+    <t>Francine Alvez</t>
+  </si>
+  <si>
+    <t>21 99100-4009</t>
+  </si>
+  <si>
+    <t>Está indo ao GC Barrinha</t>
+  </si>
+  <si>
+    <t>Laís Marcela</t>
+  </si>
+  <si>
+    <t>21 96428-7733</t>
+  </si>
+  <si>
+    <t>Maria Carolina Montezano</t>
+  </si>
+  <si>
+    <t>21 ---</t>
+  </si>
+  <si>
+    <t>Não tem o telefone</t>
+  </si>
+  <si>
+    <t>Andreza Cecilia Caetano De Castro</t>
+  </si>
+  <si>
+    <t>21 96871-5665</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Botafogo</t>
+  </si>
+  <si>
+    <t>Amira Barrett</t>
+  </si>
+  <si>
+    <t>21 96895-4602</t>
+  </si>
+  <si>
+    <t>13/07/2025</t>
+  </si>
+  <si>
+    <t>Daniel De Souza Araújo</t>
+  </si>
+  <si>
+    <t>Enviei mensagem pelo WhatsApp.</t>
+  </si>
+  <si>
+    <t>Robert Oliveira</t>
+  </si>
+  <si>
+    <t>21 98034-4626</t>
+  </si>
+  <si>
+    <t>André Moraes</t>
+  </si>
+  <si>
+    <t>11 99342-5391</t>
+  </si>
+  <si>
+    <t>Fernando Neves</t>
+  </si>
+  <si>
+    <t>21 98891-2600</t>
+  </si>
+  <si>
+    <t>Felipe Chiba</t>
+  </si>
+  <si>
+    <t>11 99999-0736</t>
+  </si>
+  <si>
+    <t>Victor Santiago</t>
+  </si>
+  <si>
+    <t>21 97268-9840</t>
+  </si>
+  <si>
+    <t>Liguei e deixei recado na caixa postal. Não tem WhatsApp</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>Andrew Peixoto</t>
+  </si>
+  <si>
+    <t>Comendador Soares</t>
+  </si>
+  <si>
+    <t>21 97152-5982</t>
+  </si>
+  <si>
+    <t>Bruno Almeida</t>
+  </si>
+  <si>
+    <t>21 97937-6645</t>
+  </si>
+  <si>
+    <t>Tauã Victor</t>
+  </si>
+  <si>
+    <t>21 96501-7222</t>
+  </si>
+  <si>
+    <t>Carolina Correa</t>
+  </si>
+  <si>
+    <t>19 99194-4744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviei mensagem e estou aguardando responder </t>
+  </si>
+  <si>
+    <t>Naiara Soares</t>
+  </si>
+  <si>
+    <t>21 96583-8705</t>
+  </si>
+  <si>
+    <t>Segunda vez à frente. Já está indo ao GC Flamengo</t>
+  </si>
+  <si>
+    <t>Kelly Souza</t>
+  </si>
+  <si>
+    <t>21 98455-8344</t>
+  </si>
+  <si>
+    <t>Raissa Vitória</t>
+  </si>
+  <si>
+    <t>21 99719-5478</t>
+  </si>
+  <si>
+    <t>Segunda vez à frente. Encaminhada para o Nexteen</t>
+  </si>
+  <si>
+    <t>Betsy Torres</t>
+  </si>
+  <si>
+    <t>21 98701-5522</t>
+  </si>
+  <si>
+    <t>Marcia Regina</t>
+  </si>
+  <si>
+    <t>21 99608-0386</t>
+  </si>
+  <si>
+    <t>Millena Souza</t>
+  </si>
+  <si>
+    <t>Jailda Duarte</t>
+  </si>
+  <si>
+    <t>21 98784-2207</t>
+  </si>
+  <si>
+    <t>Maria Rute Lima Maceda</t>
+  </si>
+  <si>
+    <t>Manacapuru</t>
+  </si>
+  <si>
+    <t>Residencial Manacapuru / AM</t>
+  </si>
+  <si>
+    <t>92 99264-2593</t>
+  </si>
+  <si>
+    <t>Andréia Carmo</t>
+  </si>
+  <si>
+    <t>21 99851-1246</t>
+  </si>
+  <si>
+    <t>Jessica Santos</t>
+  </si>
+  <si>
+    <t>21 97174-6949</t>
+  </si>
+  <si>
+    <t>Priscila Max</t>
+  </si>
+  <si>
+    <t>21 99656-0178</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Leme</t>
+  </si>
+  <si>
+    <t>Ravena Alexandre De Oliveira</t>
+  </si>
+  <si>
+    <t>21 97657-5345</t>
+  </si>
+  <si>
+    <t>Julia Câmara</t>
+  </si>
+  <si>
+    <t>21 99101-7355</t>
+  </si>
+  <si>
+    <t>Maria José Alexandre Da Costa</t>
+  </si>
+  <si>
+    <t>21 98118-0451</t>
+  </si>
+  <si>
+    <t>Alexandra Dos Santos Rocha</t>
+  </si>
+  <si>
+    <t>21 99104-6050</t>
+  </si>
+  <si>
+    <t>Encaminhada para pink ipanema</t>
+  </si>
+  <si>
+    <t>Dila Sousa</t>
+  </si>
+  <si>
+    <t>21 99104-8493</t>
+  </si>
+  <si>
+    <t>Respondeu. Encaminhada ao 27+</t>
+  </si>
+  <si>
+    <t>Uini Veiga</t>
+  </si>
+  <si>
+    <t>21 99642-2080</t>
+  </si>
+  <si>
+    <t>Lorrany Moitim</t>
+  </si>
+  <si>
+    <t>24 98117-2700</t>
+  </si>
+  <si>
+    <t>Respondeu. Encaminhada para o Nexteen</t>
+  </si>
+  <si>
+    <t>Graziele Maciel</t>
+  </si>
+  <si>
+    <t>24 99288-5878</t>
+  </si>
+  <si>
+    <t>Juliana Machado</t>
+  </si>
+  <si>
+    <t>Rancho Fundo</t>
+  </si>
+  <si>
+    <t>21 96569-2743</t>
+  </si>
+  <si>
+    <t>Rosa Moitim</t>
+  </si>
+  <si>
+    <t>24 99952-4593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mora em volta redonda </t>
+  </si>
+  <si>
+    <t>Desiree Duarte Cordeiro</t>
+  </si>
+  <si>
+    <t>Vila Gaúcha</t>
+  </si>
+  <si>
+    <t>21 97489-6654</t>
+  </si>
+  <si>
+    <t>Joseane Bezerra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Conrado </t>
+  </si>
+  <si>
+    <t>21 99401-5419</t>
+  </si>
+  <si>
+    <t>Alani Araujo</t>
+  </si>
+  <si>
+    <t>Rio / RJ</t>
+  </si>
+  <si>
+    <t>21 97775-7585</t>
+  </si>
+  <si>
+    <t>Roberta Passomides</t>
+  </si>
+  <si>
+    <t>21 98864-4907</t>
+  </si>
+  <si>
+    <t>Respondeu. Disse que está indo ao GC com amigos</t>
+  </si>
+  <si>
+    <t>20/07/2025</t>
+  </si>
+  <si>
+    <t>João Henrique Ferro Lopes</t>
+  </si>
+  <si>
+    <t>21 98103-4640</t>
+  </si>
+  <si>
+    <t>Enviei mensagem via WhatsApp</t>
+  </si>
+  <si>
+    <t>Marcos Oliveira Mota</t>
+  </si>
+  <si>
+    <t>22 99967-5264</t>
+  </si>
+  <si>
+    <t>Rafael Nascimento De Carvalho</t>
+  </si>
+  <si>
+    <t>21 98026-2283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irajá </t>
+  </si>
+  <si>
+    <t>21 98441-8996</t>
+  </si>
+  <si>
+    <t>Gutemberg Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenho De Dentro </t>
+  </si>
+  <si>
+    <t>21 98028-9166</t>
+  </si>
+  <si>
+    <t>Patrick Pereira</t>
+  </si>
+  <si>
+    <t>Agostinho Porto</t>
+  </si>
+  <si>
+    <t>21 96475-7643</t>
+  </si>
+  <si>
+    <t>Vitor De Lima Pereira</t>
+  </si>
+  <si>
+    <t>21 97624-3343</t>
+  </si>
+  <si>
+    <t>Rafael Carvalho</t>
+  </si>
+  <si>
+    <t>22 99854-2513</t>
+  </si>
+  <si>
+    <t>Yves Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Paula São Gonçalo </t>
+  </si>
+  <si>
+    <t>21 96552-6567</t>
+  </si>
+  <si>
+    <t>Joao Victor De Azevedo Looes</t>
+  </si>
+  <si>
+    <t>21 99772-7209</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>Toni Matias</t>
+  </si>
+  <si>
+    <t>Copacaba</t>
+  </si>
+  <si>
+    <t>21 96826-9080</t>
+  </si>
+  <si>
+    <t>Natália Pires Santos</t>
+  </si>
+  <si>
+    <t>21 98363-5890</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando Encaminhar ao GC</t>
+  </si>
+  <si>
+    <t>Camila Souza</t>
+  </si>
+  <si>
+    <t>Canasvieiras</t>
+  </si>
+  <si>
+    <t>Florianópolis / SC</t>
+  </si>
+  <si>
+    <t>48 99864-0922</t>
+  </si>
+  <si>
+    <t>Enviei Mensagem. Aguardando responder</t>
+  </si>
+  <si>
+    <t>Rejane Medeiros</t>
+  </si>
+  <si>
+    <t>21 98756-3835</t>
+  </si>
+  <si>
+    <t>Encaminhada para gc pink</t>
+  </si>
+  <si>
+    <t>Julia Ribeiro Lopes</t>
+  </si>
+  <si>
+    <t>31 99380-0050</t>
+  </si>
+  <si>
+    <t>Isabella Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardim Botanico </t>
+  </si>
+  <si>
+    <t>11 97399-0041</t>
+  </si>
+  <si>
+    <t>Encaminhei para o GC 27+</t>
+  </si>
+  <si>
+    <t>Janaina De Oliveira Mrwues</t>
+  </si>
+  <si>
+    <t>21 99989-6794</t>
+  </si>
+  <si>
+    <t>Dayana Soares</t>
+  </si>
+  <si>
+    <t>21 96431-2085</t>
+  </si>
+  <si>
+    <t>Pamela Farias Mattos</t>
+  </si>
+  <si>
+    <t>21 99217-3047</t>
+  </si>
+  <si>
+    <t>Disse que quando puder, irá ao gc</t>
+  </si>
+  <si>
+    <t>Eneida Mello Costa</t>
+  </si>
+  <si>
+    <t>21 99992-6454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respondeu. Está em contato com lider gc tijuca </t>
+  </si>
+  <si>
+    <t>Manuela Gonçalves Guimaraes</t>
+  </si>
+  <si>
+    <t>SEM TELEFONE</t>
+  </si>
+  <si>
+    <t>Thalita Lustoza Pereira</t>
+  </si>
+  <si>
+    <t>Conforto</t>
+  </si>
+  <si>
+    <t>Volta Redonda / RJ</t>
+  </si>
+  <si>
+    <t>24 99325-4646</t>
+  </si>
+  <si>
+    <t>Livia Brito</t>
+  </si>
+  <si>
+    <t>98 99231-3365</t>
+  </si>
+  <si>
+    <t>Aline Lopes Vidal</t>
+  </si>
+  <si>
+    <t>21 99982-5414</t>
+  </si>
+  <si>
+    <t>Rubia Santis</t>
+  </si>
+  <si>
+    <t>21 98292-0991</t>
+  </si>
+  <si>
+    <t>Valdenice Maria Da Silva</t>
+  </si>
+  <si>
+    <t>21 97295-0337</t>
+  </si>
+  <si>
+    <t>Encaminhada para o gc tijuca</t>
+  </si>
+  <si>
+    <t>Beatriz Oliveira</t>
+  </si>
+  <si>
+    <t>21 98370-9034</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Ribeiro</t>
+  </si>
+  <si>
+    <t>21 98897-6115</t>
+  </si>
+  <si>
+    <t>Priscila Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botofogo </t>
+  </si>
+  <si>
+    <t>Rio Janeiro  / --</t>
+  </si>
+  <si>
+    <t>21 98030-8426</t>
+  </si>
+  <si>
+    <t>Luiza Victoria Da Silva</t>
+  </si>
+  <si>
+    <t>21 99731-3515</t>
+  </si>
+  <si>
+    <t>Letícia Mendonça</t>
+  </si>
+  <si>
+    <t>21 98269-5040</t>
+  </si>
+  <si>
+    <t>Encaminhada para NEXT</t>
+  </si>
+  <si>
+    <t>Ana Paula Rodrigues</t>
+  </si>
+  <si>
+    <t>21 97940-2121</t>
+  </si>
+  <si>
+    <t>Luísa Moura De Oliveira</t>
+  </si>
+  <si>
+    <t>21 96706-3112</t>
+  </si>
+  <si>
+    <t>Camila De Andrade</t>
+  </si>
+  <si>
+    <t>21 96805-1684</t>
+  </si>
+  <si>
+    <t>Bárbara Barbedo</t>
+  </si>
+  <si>
+    <t>21 99870-4066</t>
+  </si>
+  <si>
+    <t>Manoella Werneck</t>
+  </si>
+  <si>
+    <t>21 98714-0901</t>
+  </si>
+  <si>
+    <t>Tentando enviar para um gc</t>
+  </si>
+  <si>
+    <t>Kelty Suzy Da Silva</t>
+  </si>
+  <si>
+    <t>21 99270-9640</t>
+  </si>
+  <si>
+    <t>Maiara Lacerda Silva</t>
+  </si>
+  <si>
+    <t>21 97980-5609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta indo no gc flamengo </t>
+  </si>
+  <si>
+    <t>Juliana Barcellos</t>
+  </si>
+  <si>
+    <t>21 97645-2785</t>
+  </si>
+  <si>
+    <t>Ana Carla Da Silva Schelck</t>
+  </si>
+  <si>
+    <t>21 96434-9659</t>
+  </si>
+  <si>
+    <t>Renata Fernades Da Rocha</t>
+  </si>
+  <si>
+    <t>21 99783-0462</t>
+  </si>
+  <si>
+    <t>Stephany Roza</t>
+  </si>
+  <si>
+    <t>21 98120-8260</t>
+  </si>
+  <si>
+    <t>Enviei para o GC Maes</t>
+  </si>
+  <si>
+    <t>Danielle Bardeli Palhano Silva</t>
+  </si>
+  <si>
+    <t>21 97943-6816</t>
+  </si>
+  <si>
+    <t>Jessica Carvalho</t>
+  </si>
+  <si>
+    <t>61 98405-1256</t>
+  </si>
+  <si>
+    <t>Wal Silva</t>
+  </si>
+  <si>
+    <t>21 98758-8647</t>
+  </si>
+  <si>
+    <t>Fabiana Lopes Maia</t>
+  </si>
+  <si>
+    <t>Acari</t>
+  </si>
+  <si>
+    <t>21 99216-8906</t>
+  </si>
+  <si>
+    <t>Yasmin Menezes Bahiense</t>
+  </si>
+  <si>
+    <t>21 96644-2497</t>
+  </si>
+  <si>
+    <t>Ana Paula Mota</t>
+  </si>
+  <si>
+    <t>21 97933-8848</t>
+  </si>
+  <si>
+    <t>27/07/2025</t>
+  </si>
+  <si>
+    <t>Alexandre Soares Da Silva Júnior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irará </t>
+  </si>
+  <si>
+    <t>21 99373-1948</t>
+  </si>
+  <si>
+    <t>Victor Leite</t>
+  </si>
+  <si>
+    <t>22 99781-3185</t>
+  </si>
+  <si>
+    <t>David Lopez Autino</t>
+  </si>
+  <si>
+    <t>21 96512-1280</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>Tiago De Moraes</t>
+  </si>
+  <si>
+    <t>Inhaúma</t>
+  </si>
+  <si>
+    <t>21 96886-6330</t>
+  </si>
+  <si>
+    <t>Davi Marcondes</t>
+  </si>
+  <si>
+    <t>21 96774-9625</t>
+  </si>
+  <si>
+    <t>Joao Gabriel Teixeira Da Silva</t>
+  </si>
+  <si>
+    <t>21 97932-2870</t>
+  </si>
+  <si>
+    <t>Sandra Vieira</t>
+  </si>
+  <si>
+    <t>21 97034-1880</t>
+  </si>
+  <si>
+    <t>Encaminhada para gc maes online</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Moura</t>
+  </si>
+  <si>
+    <t>22 99787-3642</t>
+  </si>
+  <si>
+    <t>Encaminhada para o 27+ tijuca</t>
+  </si>
+  <si>
+    <t>Janine Cotinho</t>
+  </si>
+  <si>
+    <t>21 99859-2544</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando encaminhar para o gc</t>
+  </si>
+  <si>
+    <t>Roberta Magalhães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catumbi </t>
+  </si>
+  <si>
+    <t>21 99021-9090</t>
+  </si>
+  <si>
+    <t>Enviei mensagem. Aguradando responder</t>
+  </si>
+  <si>
+    <t>Alexandra Paixao</t>
+  </si>
+  <si>
+    <t>21 98727-3018</t>
+  </si>
+  <si>
+    <t>enviei mensagem. Aguradando responder</t>
+  </si>
+  <si>
+    <t>Lea Magalhaes</t>
+  </si>
+  <si>
+    <t>21 97194-3776</t>
+  </si>
+  <si>
+    <t>Karla Rodrigues</t>
+  </si>
+  <si>
+    <t>21 99956-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia </t>
+  </si>
+  <si>
+    <t>21 96838-9924</t>
+  </si>
+  <si>
+    <t>Camilly Henrique Corrêa Da Luz</t>
+  </si>
+  <si>
+    <t>21 96524-1047</t>
+  </si>
+  <si>
+    <t>Priscilla Rocha</t>
+  </si>
+  <si>
+    <t>21 99602-2356</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Oliveira Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque União </t>
+  </si>
+  <si>
+    <t>21 99895-8728</t>
+  </si>
+  <si>
+    <t>Encaminhada para nexteen copacabana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paloma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenho Da Rainha </t>
+  </si>
+  <si>
+    <t>21 98123-6410</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Del castilho</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Gonçalves</t>
+  </si>
+  <si>
+    <t>21 98968-0406</t>
   </si>
 </sst>
 </file>
@@ -6798,12 +7887,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:P708"/>
+  <dimension ref="A1:P865"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A665" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A837" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A853" sqref="A853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42125,6 +43214,7856 @@
         <v>824</v>
       </c>
     </row>
+    <row r="709" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B709" t="s">
+        <v>58</v>
+      </c>
+      <c r="C709" t="s">
+        <v>27</v>
+      </c>
+      <c r="D709" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E709" t="s">
+        <v>18</v>
+      </c>
+      <c r="F709" t="s">
+        <v>19</v>
+      </c>
+      <c r="G709">
+        <v>41</v>
+      </c>
+      <c r="H709" t="s">
+        <v>393</v>
+      </c>
+      <c r="I709" t="s">
+        <v>22</v>
+      </c>
+      <c r="J709" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K709" t="s">
+        <v>24</v>
+      </c>
+      <c r="L709" t="s">
+        <v>450</v>
+      </c>
+      <c r="M709" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N709" t="s">
+        <v>2079</v>
+      </c>
+      <c r="O709" t="s">
+        <v>24</v>
+      </c>
+      <c r="P709" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="710" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B710" t="s">
+        <v>58</v>
+      </c>
+      <c r="C710" t="s">
+        <v>41</v>
+      </c>
+      <c r="D710" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E710" t="s">
+        <v>18</v>
+      </c>
+      <c r="F710" t="s">
+        <v>29</v>
+      </c>
+      <c r="G710">
+        <v>30</v>
+      </c>
+      <c r="H710" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I710" t="s">
+        <v>335</v>
+      </c>
+      <c r="J710" t="s">
+        <v>2081</v>
+      </c>
+      <c r="K710" t="s">
+        <v>24</v>
+      </c>
+      <c r="L710" t="s">
+        <v>25</v>
+      </c>
+      <c r="M710" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N710" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O710" t="s">
+        <v>24</v>
+      </c>
+      <c r="P710" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="711" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B711" t="s">
+        <v>58</v>
+      </c>
+      <c r="C711" t="s">
+        <v>41</v>
+      </c>
+      <c r="D711" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E711" t="s">
+        <v>18</v>
+      </c>
+      <c r="F711" t="s">
+        <v>29</v>
+      </c>
+      <c r="G711">
+        <v>26</v>
+      </c>
+      <c r="H711" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I711" t="s">
+        <v>55</v>
+      </c>
+      <c r="J711" t="s">
+        <v>2084</v>
+      </c>
+      <c r="K711" t="s">
+        <v>24</v>
+      </c>
+      <c r="L711" t="s">
+        <v>25</v>
+      </c>
+      <c r="M711" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N711" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O711" t="s">
+        <v>24</v>
+      </c>
+      <c r="P711" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B712" t="s">
+        <v>58</v>
+      </c>
+      <c r="C712" t="s">
+        <v>41</v>
+      </c>
+      <c r="D712" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E712" t="s">
+        <v>18</v>
+      </c>
+      <c r="F712" t="s">
+        <v>29</v>
+      </c>
+      <c r="G712">
+        <v>16</v>
+      </c>
+      <c r="H712" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I712" t="s">
+        <v>22</v>
+      </c>
+      <c r="J712" t="s">
+        <v>2086</v>
+      </c>
+      <c r="K712" t="s">
+        <v>24</v>
+      </c>
+      <c r="L712" t="s">
+        <v>25</v>
+      </c>
+      <c r="M712" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N712" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O712" t="s">
+        <v>80</v>
+      </c>
+      <c r="P712" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="713" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B713" t="s">
+        <v>58</v>
+      </c>
+      <c r="C713" t="s">
+        <v>16</v>
+      </c>
+      <c r="D713" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E713" t="s">
+        <v>18</v>
+      </c>
+      <c r="F713" t="s">
+        <v>19</v>
+      </c>
+      <c r="G713">
+        <v>24</v>
+      </c>
+      <c r="H713" t="s">
+        <v>618</v>
+      </c>
+      <c r="I713" t="s">
+        <v>22</v>
+      </c>
+      <c r="J713" t="s">
+        <v>2114</v>
+      </c>
+      <c r="K713" t="s">
+        <v>24</v>
+      </c>
+      <c r="L713" t="s">
+        <v>25</v>
+      </c>
+      <c r="M713" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N713" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O713" t="s">
+        <v>80</v>
+      </c>
+      <c r="P713" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="714" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B714" t="s">
+        <v>58</v>
+      </c>
+      <c r="C714" t="s">
+        <v>41</v>
+      </c>
+      <c r="D714" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E714" t="s">
+        <v>18</v>
+      </c>
+      <c r="F714" t="s">
+        <v>29</v>
+      </c>
+      <c r="G714">
+        <v>46</v>
+      </c>
+      <c r="H714" t="s">
+        <v>152</v>
+      </c>
+      <c r="I714" t="s">
+        <v>55</v>
+      </c>
+      <c r="J714" t="s">
+        <v>2116</v>
+      </c>
+      <c r="K714" t="s">
+        <v>24</v>
+      </c>
+      <c r="L714" t="s">
+        <v>148</v>
+      </c>
+      <c r="M714" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N714" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O714" t="s">
+        <v>24</v>
+      </c>
+      <c r="P714" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="715" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B715" t="s">
+        <v>58</v>
+      </c>
+      <c r="C715" t="s">
+        <v>41</v>
+      </c>
+      <c r="D715" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E715" t="s">
+        <v>18</v>
+      </c>
+      <c r="F715" t="s">
+        <v>91</v>
+      </c>
+      <c r="G715">
+        <v>54</v>
+      </c>
+      <c r="H715" t="s">
+        <v>35</v>
+      </c>
+      <c r="I715" t="s">
+        <v>22</v>
+      </c>
+      <c r="J715" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K715" t="s">
+        <v>24</v>
+      </c>
+      <c r="L715" t="s">
+        <v>25</v>
+      </c>
+      <c r="M715" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N715" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O715" t="s">
+        <v>24</v>
+      </c>
+      <c r="P715" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B716" t="s">
+        <v>58</v>
+      </c>
+      <c r="C716" t="s">
+        <v>16</v>
+      </c>
+      <c r="D716" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E716" t="s">
+        <v>18</v>
+      </c>
+      <c r="F716" t="s">
+        <v>29</v>
+      </c>
+      <c r="G716">
+        <v>32</v>
+      </c>
+      <c r="H716" t="s">
+        <v>393</v>
+      </c>
+      <c r="I716" t="s">
+        <v>22</v>
+      </c>
+      <c r="J716" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K716" t="s">
+        <v>24</v>
+      </c>
+      <c r="L716" t="s">
+        <v>201</v>
+      </c>
+      <c r="M716" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N716" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O716" t="s">
+        <v>24</v>
+      </c>
+      <c r="P716" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B717" t="s">
+        <v>58</v>
+      </c>
+      <c r="C717" t="s">
+        <v>41</v>
+      </c>
+      <c r="D717" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E717" t="s">
+        <v>18</v>
+      </c>
+      <c r="F717" t="s">
+        <v>29</v>
+      </c>
+      <c r="G717">
+        <v>36</v>
+      </c>
+      <c r="H717" t="s">
+        <v>393</v>
+      </c>
+      <c r="I717" t="s">
+        <v>55</v>
+      </c>
+      <c r="J717" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K717" t="s">
+        <v>24</v>
+      </c>
+      <c r="L717" t="s">
+        <v>201</v>
+      </c>
+      <c r="M717" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N717" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O717" t="s">
+        <v>24</v>
+      </c>
+      <c r="P717" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B718" t="s">
+        <v>58</v>
+      </c>
+      <c r="C718" t="s">
+        <v>41</v>
+      </c>
+      <c r="D718" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E718" t="s">
+        <v>18</v>
+      </c>
+      <c r="F718" t="s">
+        <v>29</v>
+      </c>
+      <c r="G718">
+        <v>28</v>
+      </c>
+      <c r="H718" t="s">
+        <v>166</v>
+      </c>
+      <c r="I718" t="s">
+        <v>22</v>
+      </c>
+      <c r="J718" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K718" t="s">
+        <v>24</v>
+      </c>
+      <c r="L718" t="s">
+        <v>445</v>
+      </c>
+      <c r="M718" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N718" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O718" t="s">
+        <v>24</v>
+      </c>
+      <c r="P718" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B719" t="s">
+        <v>58</v>
+      </c>
+      <c r="C719" t="s">
+        <v>41</v>
+      </c>
+      <c r="D719" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E719" t="s">
+        <v>65</v>
+      </c>
+      <c r="F719" t="s">
+        <v>29</v>
+      </c>
+      <c r="G719">
+        <v>41</v>
+      </c>
+      <c r="H719" t="s">
+        <v>61</v>
+      </c>
+      <c r="I719" t="s">
+        <v>22</v>
+      </c>
+      <c r="J719" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K719" t="s">
+        <v>24</v>
+      </c>
+      <c r="L719" t="s">
+        <v>25</v>
+      </c>
+      <c r="M719" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N719" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O719" t="s">
+        <v>80</v>
+      </c>
+      <c r="P719" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B720" t="s">
+        <v>58</v>
+      </c>
+      <c r="C720" t="s">
+        <v>41</v>
+      </c>
+      <c r="D720" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E720" t="s">
+        <v>65</v>
+      </c>
+      <c r="F720" t="s">
+        <v>29</v>
+      </c>
+      <c r="G720">
+        <v>29</v>
+      </c>
+      <c r="H720" t="s">
+        <v>364</v>
+      </c>
+      <c r="I720" t="s">
+        <v>22</v>
+      </c>
+      <c r="J720" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K720" t="s">
+        <v>24</v>
+      </c>
+      <c r="L720" t="s">
+        <v>25</v>
+      </c>
+      <c r="M720" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N720" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O720" t="s">
+        <v>24</v>
+      </c>
+      <c r="P720" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="721" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B721" t="s">
+        <v>58</v>
+      </c>
+      <c r="C721" t="s">
+        <v>27</v>
+      </c>
+      <c r="D721" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E721" t="s">
+        <v>65</v>
+      </c>
+      <c r="F721" t="s">
+        <v>91</v>
+      </c>
+      <c r="G721">
+        <v>41</v>
+      </c>
+      <c r="H721" t="s">
+        <v>307</v>
+      </c>
+      <c r="I721" t="s">
+        <v>22</v>
+      </c>
+      <c r="J721" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K721" t="s">
+        <v>24</v>
+      </c>
+      <c r="L721" t="s">
+        <v>25</v>
+      </c>
+      <c r="M721" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N721" t="s">
+        <v>2094</v>
+      </c>
+      <c r="O721" t="s">
+        <v>24</v>
+      </c>
+      <c r="P721" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="722" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B722" t="s">
+        <v>58</v>
+      </c>
+      <c r="C722" t="s">
+        <v>41</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E722" t="s">
+        <v>65</v>
+      </c>
+      <c r="F722" t="s">
+        <v>19</v>
+      </c>
+      <c r="G722">
+        <v>39</v>
+      </c>
+      <c r="H722" t="s">
+        <v>393</v>
+      </c>
+      <c r="I722" t="s">
+        <v>55</v>
+      </c>
+      <c r="J722" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K722" t="s">
+        <v>24</v>
+      </c>
+      <c r="L722" t="s">
+        <v>46</v>
+      </c>
+      <c r="M722" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N722" t="s">
+        <v>2097</v>
+      </c>
+      <c r="O722" t="s">
+        <v>24</v>
+      </c>
+      <c r="P722" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="723" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B723" t="s">
+        <v>58</v>
+      </c>
+      <c r="C723" t="s">
+        <v>41</v>
+      </c>
+      <c r="D723" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E723" t="s">
+        <v>65</v>
+      </c>
+      <c r="F723" t="s">
+        <v>29</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+      <c r="H723" t="s">
+        <v>58</v>
+      </c>
+      <c r="I723" t="s">
+        <v>55</v>
+      </c>
+      <c r="J723" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K723" t="s">
+        <v>24</v>
+      </c>
+      <c r="L723" t="s">
+        <v>201</v>
+      </c>
+      <c r="M723" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N723" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O723" t="s">
+        <v>24</v>
+      </c>
+      <c r="P723" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="724" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B724" t="s">
+        <v>58</v>
+      </c>
+      <c r="C724" t="s">
+        <v>16</v>
+      </c>
+      <c r="D724" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E724" t="s">
+        <v>65</v>
+      </c>
+      <c r="F724" t="s">
+        <v>91</v>
+      </c>
+      <c r="G724">
+        <v>32</v>
+      </c>
+      <c r="H724" t="s">
+        <v>44</v>
+      </c>
+      <c r="I724" t="s">
+        <v>22</v>
+      </c>
+      <c r="J724" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K724" t="s">
+        <v>24</v>
+      </c>
+      <c r="L724" t="s">
+        <v>25</v>
+      </c>
+      <c r="M724" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N724" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O724" t="s">
+        <v>80</v>
+      </c>
+      <c r="P724" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="725" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B725" t="s">
+        <v>58</v>
+      </c>
+      <c r="C725" t="s">
+        <v>27</v>
+      </c>
+      <c r="D725" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E725" t="s">
+        <v>65</v>
+      </c>
+      <c r="F725" t="s">
+        <v>29</v>
+      </c>
+      <c r="G725">
+        <v>13</v>
+      </c>
+      <c r="H725" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I725" t="s">
+        <v>335</v>
+      </c>
+      <c r="J725" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K725" t="s">
+        <v>24</v>
+      </c>
+      <c r="L725" t="s">
+        <v>25</v>
+      </c>
+      <c r="M725" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N725" t="s">
+        <v>2105</v>
+      </c>
+      <c r="O725" t="s">
+        <v>2106</v>
+      </c>
+      <c r="P725" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="726" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B726" t="s">
+        <v>58</v>
+      </c>
+      <c r="C726" t="s">
+        <v>41</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E726" t="s">
+        <v>65</v>
+      </c>
+      <c r="F726" t="s">
+        <v>29</v>
+      </c>
+      <c r="G726">
+        <v>21</v>
+      </c>
+      <c r="H726" t="s">
+        <v>58</v>
+      </c>
+      <c r="I726" t="s">
+        <v>55</v>
+      </c>
+      <c r="J726" t="s">
+        <v>2108</v>
+      </c>
+      <c r="K726" t="s">
+        <v>24</v>
+      </c>
+      <c r="L726" t="s">
+        <v>25</v>
+      </c>
+      <c r="M726" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N726" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O726" t="s">
+        <v>80</v>
+      </c>
+      <c r="P726" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="727" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B727" t="s">
+        <v>58</v>
+      </c>
+      <c r="C727" t="s">
+        <v>27</v>
+      </c>
+      <c r="D727" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E727" t="s">
+        <v>65</v>
+      </c>
+      <c r="F727" t="s">
+        <v>29</v>
+      </c>
+      <c r="G727">
+        <v>100</v>
+      </c>
+      <c r="H727" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I727" t="s">
+        <v>157</v>
+      </c>
+      <c r="J727" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K727" t="s">
+        <v>24</v>
+      </c>
+      <c r="L727" t="s">
+        <v>25</v>
+      </c>
+      <c r="M727" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N727" t="s">
+        <v>2125</v>
+      </c>
+      <c r="O727" t="s">
+        <v>24</v>
+      </c>
+      <c r="P727" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="728" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B728" t="s">
+        <v>58</v>
+      </c>
+      <c r="C728" t="s">
+        <v>27</v>
+      </c>
+      <c r="D728" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E728" t="s">
+        <v>65</v>
+      </c>
+      <c r="F728" t="s">
+        <v>29</v>
+      </c>
+      <c r="G728">
+        <v>45</v>
+      </c>
+      <c r="H728" t="s">
+        <v>909</v>
+      </c>
+      <c r="I728" t="s">
+        <v>22</v>
+      </c>
+      <c r="J728" t="s">
+        <v>2127</v>
+      </c>
+      <c r="K728" t="s">
+        <v>24</v>
+      </c>
+      <c r="L728" t="s">
+        <v>25</v>
+      </c>
+      <c r="M728" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N728" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O728" t="s">
+        <v>80</v>
+      </c>
+      <c r="P728" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="729" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B729" t="s">
+        <v>58</v>
+      </c>
+      <c r="C729" t="s">
+        <v>16</v>
+      </c>
+      <c r="D729" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E729" t="s">
+        <v>65</v>
+      </c>
+      <c r="F729" t="s">
+        <v>185</v>
+      </c>
+      <c r="G729">
+        <v>27</v>
+      </c>
+      <c r="H729" t="s">
+        <v>120</v>
+      </c>
+      <c r="I729" t="s">
+        <v>22</v>
+      </c>
+      <c r="J729" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K729" t="s">
+        <v>24</v>
+      </c>
+      <c r="L729" t="s">
+        <v>148</v>
+      </c>
+      <c r="M729" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N729" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O729" t="s">
+        <v>80</v>
+      </c>
+      <c r="P729" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="730" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B730" t="s">
+        <v>58</v>
+      </c>
+      <c r="C730" t="s">
+        <v>27</v>
+      </c>
+      <c r="D730" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E730" t="s">
+        <v>65</v>
+      </c>
+      <c r="F730" t="s">
+        <v>29</v>
+      </c>
+      <c r="G730">
+        <v>26</v>
+      </c>
+      <c r="H730" t="s">
+        <v>44</v>
+      </c>
+      <c r="I730" t="s">
+        <v>22</v>
+      </c>
+      <c r="J730" t="s">
+        <v>2131</v>
+      </c>
+      <c r="K730" t="s">
+        <v>24</v>
+      </c>
+      <c r="L730" t="s">
+        <v>25</v>
+      </c>
+      <c r="M730" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N730" t="s">
+        <v>2125</v>
+      </c>
+      <c r="O730" t="s">
+        <v>24</v>
+      </c>
+      <c r="P730" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B731" t="s">
+        <v>58</v>
+      </c>
+      <c r="C731" t="s">
+        <v>16</v>
+      </c>
+      <c r="D731" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E731" t="s">
+        <v>65</v>
+      </c>
+      <c r="F731" t="s">
+        <v>29</v>
+      </c>
+      <c r="G731">
+        <v>24</v>
+      </c>
+      <c r="H731" t="s">
+        <v>152</v>
+      </c>
+      <c r="I731" t="s">
+        <v>22</v>
+      </c>
+      <c r="J731" t="s">
+        <v>2133</v>
+      </c>
+      <c r="K731" t="s">
+        <v>24</v>
+      </c>
+      <c r="L731" t="s">
+        <v>46</v>
+      </c>
+      <c r="M731" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N731" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O731" t="s">
+        <v>24</v>
+      </c>
+      <c r="P731" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B732" t="s">
+        <v>58</v>
+      </c>
+      <c r="C732" t="s">
+        <v>27</v>
+      </c>
+      <c r="D732" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E732" t="s">
+        <v>65</v>
+      </c>
+      <c r="F732" t="s">
+        <v>29</v>
+      </c>
+      <c r="G732">
+        <v>26</v>
+      </c>
+      <c r="H732" t="s">
+        <v>366</v>
+      </c>
+      <c r="I732" t="s">
+        <v>22</v>
+      </c>
+      <c r="J732" t="s">
+        <v>2136</v>
+      </c>
+      <c r="K732" t="s">
+        <v>24</v>
+      </c>
+      <c r="L732" t="s">
+        <v>25</v>
+      </c>
+      <c r="M732" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N732" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O732" t="s">
+        <v>24</v>
+      </c>
+      <c r="P732" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B733" t="s">
+        <v>58</v>
+      </c>
+      <c r="C733" t="s">
+        <v>27</v>
+      </c>
+      <c r="D733" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E733" t="s">
+        <v>18</v>
+      </c>
+      <c r="F733" t="s">
+        <v>29</v>
+      </c>
+      <c r="G733">
+        <v>41</v>
+      </c>
+      <c r="H733" t="s">
+        <v>281</v>
+      </c>
+      <c r="I733" t="s">
+        <v>22</v>
+      </c>
+      <c r="J733" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K733" t="s">
+        <v>24</v>
+      </c>
+      <c r="L733" t="s">
+        <v>25</v>
+      </c>
+      <c r="M733" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N733" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O733" t="s">
+        <v>24</v>
+      </c>
+      <c r="P733" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="734" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B734" t="s">
+        <v>58</v>
+      </c>
+      <c r="C734" t="s">
+        <v>16</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E734" t="s">
+        <v>18</v>
+      </c>
+      <c r="F734" t="s">
+        <v>29</v>
+      </c>
+      <c r="G734">
+        <v>15</v>
+      </c>
+      <c r="H734" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I734" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J734" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K734" t="s">
+        <v>24</v>
+      </c>
+      <c r="L734" t="s">
+        <v>25</v>
+      </c>
+      <c r="M734" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N734" t="s">
+        <v>2145</v>
+      </c>
+      <c r="O734" t="s">
+        <v>24</v>
+      </c>
+      <c r="P734" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B735" t="s">
+        <v>58</v>
+      </c>
+      <c r="C735" t="s">
+        <v>27</v>
+      </c>
+      <c r="D735" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E735" t="s">
+        <v>18</v>
+      </c>
+      <c r="F735" t="s">
+        <v>29</v>
+      </c>
+      <c r="G735">
+        <v>12</v>
+      </c>
+      <c r="H735" t="s">
+        <v>281</v>
+      </c>
+      <c r="I735" t="s">
+        <v>22</v>
+      </c>
+      <c r="J735" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K735" t="s">
+        <v>24</v>
+      </c>
+      <c r="L735" t="s">
+        <v>25</v>
+      </c>
+      <c r="M735" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N735" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O735" t="s">
+        <v>80</v>
+      </c>
+      <c r="P735" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B736" t="s">
+        <v>58</v>
+      </c>
+      <c r="C736" t="s">
+        <v>41</v>
+      </c>
+      <c r="D736" t="s">
+        <v>582</v>
+      </c>
+      <c r="E736" t="s">
+        <v>18</v>
+      </c>
+      <c r="F736" t="s">
+        <v>29</v>
+      </c>
+      <c r="G736">
+        <v>44</v>
+      </c>
+      <c r="H736" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I736" t="s">
+        <v>22</v>
+      </c>
+      <c r="J736" t="s">
+        <v>2147</v>
+      </c>
+      <c r="K736" t="s">
+        <v>24</v>
+      </c>
+      <c r="L736" t="s">
+        <v>25</v>
+      </c>
+      <c r="M736" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N736" t="s">
+        <v>2148</v>
+      </c>
+      <c r="O736" t="s">
+        <v>24</v>
+      </c>
+      <c r="P736" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="737" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B737" t="s">
+        <v>58</v>
+      </c>
+      <c r="C737" t="s">
+        <v>16</v>
+      </c>
+      <c r="D737" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E737" t="s">
+        <v>18</v>
+      </c>
+      <c r="F737" t="s">
+        <v>19</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I737" t="s">
+        <v>157</v>
+      </c>
+      <c r="J737" t="s">
+        <v>2150</v>
+      </c>
+      <c r="K737" t="s">
+        <v>24</v>
+      </c>
+      <c r="L737" t="s">
+        <v>201</v>
+      </c>
+      <c r="M737" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N737" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O737" t="s">
+        <v>80</v>
+      </c>
+      <c r="P737" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B738" t="s">
+        <v>58</v>
+      </c>
+      <c r="C738" t="s">
+        <v>27</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E738" t="s">
+        <v>18</v>
+      </c>
+      <c r="F738" t="s">
+        <v>185</v>
+      </c>
+      <c r="G738">
+        <v>35</v>
+      </c>
+      <c r="H738" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I738" t="s">
+        <v>22</v>
+      </c>
+      <c r="J738" t="s">
+        <v>2153</v>
+      </c>
+      <c r="K738" t="s">
+        <v>24</v>
+      </c>
+      <c r="L738" t="s">
+        <v>25</v>
+      </c>
+      <c r="M738" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N738" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O738" t="s">
+        <v>80</v>
+      </c>
+      <c r="P738" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B739" t="s">
+        <v>58</v>
+      </c>
+      <c r="C739" t="s">
+        <v>27</v>
+      </c>
+      <c r="D739" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E739" t="s">
+        <v>18</v>
+      </c>
+      <c r="F739" t="s">
+        <v>29</v>
+      </c>
+      <c r="G739">
+        <v>19</v>
+      </c>
+      <c r="H739" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I739" t="s">
+        <v>420</v>
+      </c>
+      <c r="J739" t="s">
+        <v>2155</v>
+      </c>
+      <c r="K739" t="s">
+        <v>24</v>
+      </c>
+      <c r="L739" t="s">
+        <v>25</v>
+      </c>
+      <c r="M739" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N739" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O739" t="s">
+        <v>80</v>
+      </c>
+      <c r="P739" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B740" t="s">
+        <v>58</v>
+      </c>
+      <c r="C740" t="s">
+        <v>41</v>
+      </c>
+      <c r="D740" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E740" t="s">
+        <v>18</v>
+      </c>
+      <c r="F740" t="s">
+        <v>29</v>
+      </c>
+      <c r="G740">
+        <v>31</v>
+      </c>
+      <c r="H740" t="s">
+        <v>61</v>
+      </c>
+      <c r="I740" t="s">
+        <v>55</v>
+      </c>
+      <c r="J740" t="s">
+        <v>2157</v>
+      </c>
+      <c r="K740" t="s">
+        <v>24</v>
+      </c>
+      <c r="L740" t="s">
+        <v>46</v>
+      </c>
+      <c r="M740" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N740" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O740" t="s">
+        <v>24</v>
+      </c>
+      <c r="P740" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B741" t="s">
+        <v>58</v>
+      </c>
+      <c r="C741" t="s">
+        <v>41</v>
+      </c>
+      <c r="D741" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E741" t="s">
+        <v>18</v>
+      </c>
+      <c r="F741" t="s">
+        <v>19</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741" t="s">
+        <v>991</v>
+      </c>
+      <c r="I741" t="s">
+        <v>335</v>
+      </c>
+      <c r="J741" t="s">
+        <v>2159</v>
+      </c>
+      <c r="K741" t="s">
+        <v>24</v>
+      </c>
+      <c r="L741" t="s">
+        <v>25</v>
+      </c>
+      <c r="M741" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N741" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O741" t="s">
+        <v>24</v>
+      </c>
+      <c r="P741" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B742" t="s">
+        <v>58</v>
+      </c>
+      <c r="C742" t="s">
+        <v>41</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E742" t="s">
+        <v>18</v>
+      </c>
+      <c r="F742" t="s">
+        <v>19</v>
+      </c>
+      <c r="G742">
+        <v>37</v>
+      </c>
+      <c r="H742" t="s">
+        <v>44</v>
+      </c>
+      <c r="I742" t="s">
+        <v>22</v>
+      </c>
+      <c r="J742" t="s">
+        <v>2161</v>
+      </c>
+      <c r="K742" t="s">
+        <v>24</v>
+      </c>
+      <c r="L742" t="s">
+        <v>46</v>
+      </c>
+      <c r="M742" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N742" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O742" t="s">
+        <v>80</v>
+      </c>
+      <c r="P742" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B743" t="s">
+        <v>58</v>
+      </c>
+      <c r="C743" t="s">
+        <v>41</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E743" t="s">
+        <v>18</v>
+      </c>
+      <c r="F743" t="s">
+        <v>19</v>
+      </c>
+      <c r="G743">
+        <v>29</v>
+      </c>
+      <c r="H743" t="s">
+        <v>281</v>
+      </c>
+      <c r="I743" t="s">
+        <v>22</v>
+      </c>
+      <c r="J743" t="s">
+        <v>2164</v>
+      </c>
+      <c r="K743" t="s">
+        <v>24</v>
+      </c>
+      <c r="L743" t="s">
+        <v>25</v>
+      </c>
+      <c r="M743" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N743" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O743" t="s">
+        <v>80</v>
+      </c>
+      <c r="P743" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B744" t="s">
+        <v>58</v>
+      </c>
+      <c r="C744" t="s">
+        <v>41</v>
+      </c>
+      <c r="D744" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E744" t="s">
+        <v>65</v>
+      </c>
+      <c r="F744" t="s">
+        <v>29</v>
+      </c>
+      <c r="G744">
+        <v>27</v>
+      </c>
+      <c r="H744" t="s">
+        <v>58</v>
+      </c>
+      <c r="I744" t="s">
+        <v>55</v>
+      </c>
+      <c r="J744" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K744" t="s">
+        <v>24</v>
+      </c>
+      <c r="L744" t="s">
+        <v>201</v>
+      </c>
+      <c r="M744" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N744" t="s">
+        <v>2167</v>
+      </c>
+      <c r="O744" t="s">
+        <v>24</v>
+      </c>
+      <c r="P744" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B745" t="s">
+        <v>58</v>
+      </c>
+      <c r="C745" t="s">
+        <v>16</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E745" t="s">
+        <v>65</v>
+      </c>
+      <c r="F745" t="s">
+        <v>29</v>
+      </c>
+      <c r="G745">
+        <v>44</v>
+      </c>
+      <c r="H745" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I745" t="s">
+        <v>324</v>
+      </c>
+      <c r="J745" t="s">
+        <v>2170</v>
+      </c>
+      <c r="K745" t="s">
+        <v>24</v>
+      </c>
+      <c r="L745" t="s">
+        <v>450</v>
+      </c>
+      <c r="M745" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N745" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O745" t="s">
+        <v>80</v>
+      </c>
+      <c r="P745" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B746" t="s">
+        <v>58</v>
+      </c>
+      <c r="C746" t="s">
+        <v>41</v>
+      </c>
+      <c r="D746" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E746" t="s">
+        <v>65</v>
+      </c>
+      <c r="F746" t="s">
+        <v>58</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
+      </c>
+      <c r="H746" t="s">
+        <v>58</v>
+      </c>
+      <c r="I746" t="s">
+        <v>55</v>
+      </c>
+      <c r="J746" t="s">
+        <v>2172</v>
+      </c>
+      <c r="K746" t="s">
+        <v>24</v>
+      </c>
+      <c r="L746" t="s">
+        <v>201</v>
+      </c>
+      <c r="M746" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N746" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O746" t="s">
+        <v>80</v>
+      </c>
+      <c r="P746" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B747" t="s">
+        <v>58</v>
+      </c>
+      <c r="C747" t="s">
+        <v>41</v>
+      </c>
+      <c r="D747" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E747" t="s">
+        <v>65</v>
+      </c>
+      <c r="F747" t="s">
+        <v>58</v>
+      </c>
+      <c r="G747">
+        <v>38</v>
+      </c>
+      <c r="H747" t="s">
+        <v>58</v>
+      </c>
+      <c r="I747" t="s">
+        <v>55</v>
+      </c>
+      <c r="J747" t="s">
+        <v>2174</v>
+      </c>
+      <c r="K747" t="s">
+        <v>24</v>
+      </c>
+      <c r="L747" t="s">
+        <v>148</v>
+      </c>
+      <c r="M747" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N747" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O747" t="s">
+        <v>24</v>
+      </c>
+      <c r="P747" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B748" t="s">
+        <v>58</v>
+      </c>
+      <c r="C748" t="s">
+        <v>16</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E748" t="s">
+        <v>65</v>
+      </c>
+      <c r="F748" t="s">
+        <v>29</v>
+      </c>
+      <c r="G748">
+        <v>22</v>
+      </c>
+      <c r="H748" t="s">
+        <v>58</v>
+      </c>
+      <c r="I748" t="s">
+        <v>55</v>
+      </c>
+      <c r="J748" t="s">
+        <v>2176</v>
+      </c>
+      <c r="K748" t="s">
+        <v>24</v>
+      </c>
+      <c r="L748" t="s">
+        <v>46</v>
+      </c>
+      <c r="M748" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N748" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O748" t="s">
+        <v>24</v>
+      </c>
+      <c r="P748" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B749" t="s">
+        <v>58</v>
+      </c>
+      <c r="C749" t="s">
+        <v>41</v>
+      </c>
+      <c r="D749" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E749" t="s">
+        <v>65</v>
+      </c>
+      <c r="F749" t="s">
+        <v>185</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I749" t="s">
+        <v>55</v>
+      </c>
+      <c r="J749" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K749" t="s">
+        <v>24</v>
+      </c>
+      <c r="L749" t="s">
+        <v>201</v>
+      </c>
+      <c r="M749" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N749" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O749" t="s">
+        <v>80</v>
+      </c>
+      <c r="P749" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B750" t="s">
+        <v>58</v>
+      </c>
+      <c r="C750" t="s">
+        <v>16</v>
+      </c>
+      <c r="D750" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E750" t="s">
+        <v>65</v>
+      </c>
+      <c r="F750" t="s">
+        <v>58</v>
+      </c>
+      <c r="G750">
+        <v>49</v>
+      </c>
+      <c r="H750" t="s">
+        <v>58</v>
+      </c>
+      <c r="I750" t="s">
+        <v>55</v>
+      </c>
+      <c r="J750" t="s">
+        <v>2181</v>
+      </c>
+      <c r="K750" t="s">
+        <v>24</v>
+      </c>
+      <c r="L750" t="s">
+        <v>25</v>
+      </c>
+      <c r="M750" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N750" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O750" t="s">
+        <v>24</v>
+      </c>
+      <c r="P750" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B751" t="s">
+        <v>58</v>
+      </c>
+      <c r="C751" t="s">
+        <v>41</v>
+      </c>
+      <c r="D751" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E751" t="s">
+        <v>65</v>
+      </c>
+      <c r="F751" t="s">
+        <v>29</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751" t="s">
+        <v>231</v>
+      </c>
+      <c r="I751" t="s">
+        <v>55</v>
+      </c>
+      <c r="J751" t="s">
+        <v>2183</v>
+      </c>
+      <c r="K751" t="s">
+        <v>24</v>
+      </c>
+      <c r="L751" t="s">
+        <v>46</v>
+      </c>
+      <c r="M751" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N751" t="s">
+        <v>1933</v>
+      </c>
+      <c r="O751" t="s">
+        <v>24</v>
+      </c>
+      <c r="P751" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B752" t="s">
+        <v>58</v>
+      </c>
+      <c r="C752" t="s">
+        <v>41</v>
+      </c>
+      <c r="D752" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E752" t="s">
+        <v>65</v>
+      </c>
+      <c r="F752" t="s">
+        <v>292</v>
+      </c>
+      <c r="G752">
+        <v>60</v>
+      </c>
+      <c r="H752" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I752" t="s">
+        <v>22</v>
+      </c>
+      <c r="J752" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K752" t="s">
+        <v>24</v>
+      </c>
+      <c r="L752" t="s">
+        <v>25</v>
+      </c>
+      <c r="M752" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N752" t="s">
+        <v>2186</v>
+      </c>
+      <c r="O752" t="s">
+        <v>24</v>
+      </c>
+      <c r="P752" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="753" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B753" t="s">
+        <v>58</v>
+      </c>
+      <c r="C753" t="s">
+        <v>27</v>
+      </c>
+      <c r="D753" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E753" t="s">
+        <v>65</v>
+      </c>
+      <c r="F753" t="s">
+        <v>58</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753" t="s">
+        <v>58</v>
+      </c>
+      <c r="I753" t="s">
+        <v>55</v>
+      </c>
+      <c r="J753" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K753" t="s">
+        <v>24</v>
+      </c>
+      <c r="L753" t="s">
+        <v>46</v>
+      </c>
+      <c r="M753" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N753" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O753" t="s">
+        <v>24</v>
+      </c>
+      <c r="P753" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="754" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B754" t="s">
+        <v>58</v>
+      </c>
+      <c r="C754" t="s">
+        <v>16</v>
+      </c>
+      <c r="D754" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E754" t="s">
+        <v>65</v>
+      </c>
+      <c r="F754" t="s">
+        <v>91</v>
+      </c>
+      <c r="G754">
+        <v>40</v>
+      </c>
+      <c r="H754" t="s">
+        <v>281</v>
+      </c>
+      <c r="I754" t="s">
+        <v>55</v>
+      </c>
+      <c r="J754" t="s">
+        <v>2190</v>
+      </c>
+      <c r="K754" t="s">
+        <v>24</v>
+      </c>
+      <c r="L754" t="s">
+        <v>25</v>
+      </c>
+      <c r="M754" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N754" t="s">
+        <v>2191</v>
+      </c>
+      <c r="O754" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P754" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B755" t="s">
+        <v>58</v>
+      </c>
+      <c r="C755" t="s">
+        <v>41</v>
+      </c>
+      <c r="D755" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E755" t="s">
+        <v>65</v>
+      </c>
+      <c r="F755" t="s">
+        <v>29</v>
+      </c>
+      <c r="G755">
+        <v>33</v>
+      </c>
+      <c r="H755" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I755" t="s">
+        <v>420</v>
+      </c>
+      <c r="J755" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K755" t="s">
+        <v>24</v>
+      </c>
+      <c r="L755" t="s">
+        <v>46</v>
+      </c>
+      <c r="M755" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N755" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O755" t="s">
+        <v>24</v>
+      </c>
+      <c r="P755" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B756" t="s">
+        <v>58</v>
+      </c>
+      <c r="C756" t="s">
+        <v>27</v>
+      </c>
+      <c r="D756" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E756" t="s">
+        <v>65</v>
+      </c>
+      <c r="F756" t="s">
+        <v>58</v>
+      </c>
+      <c r="G756">
+        <v>44</v>
+      </c>
+      <c r="H756" t="s">
+        <v>58</v>
+      </c>
+      <c r="I756" t="s">
+        <v>55</v>
+      </c>
+      <c r="J756" t="s">
+        <v>2195</v>
+      </c>
+      <c r="K756" t="s">
+        <v>24</v>
+      </c>
+      <c r="L756" t="s">
+        <v>25</v>
+      </c>
+      <c r="M756" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N756" t="s">
+        <v>2196</v>
+      </c>
+      <c r="O756" t="s">
+        <v>24</v>
+      </c>
+      <c r="P756" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="757" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B757" t="s">
+        <v>58</v>
+      </c>
+      <c r="C757" t="s">
+        <v>41</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E757" t="s">
+        <v>65</v>
+      </c>
+      <c r="F757" t="s">
+        <v>58</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="H757" t="s">
+        <v>58</v>
+      </c>
+      <c r="I757" t="s">
+        <v>55</v>
+      </c>
+      <c r="J757" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K757" t="s">
+        <v>24</v>
+      </c>
+      <c r="L757" t="s">
+        <v>25</v>
+      </c>
+      <c r="M757" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N757" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O757" t="s">
+        <v>24</v>
+      </c>
+      <c r="P757" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="758" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B758" t="s">
+        <v>58</v>
+      </c>
+      <c r="C758" t="s">
+        <v>41</v>
+      </c>
+      <c r="D758" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E758" t="s">
+        <v>65</v>
+      </c>
+      <c r="F758" t="s">
+        <v>19</v>
+      </c>
+      <c r="G758">
+        <v>43</v>
+      </c>
+      <c r="H758" t="s">
+        <v>178</v>
+      </c>
+      <c r="I758" t="s">
+        <v>22</v>
+      </c>
+      <c r="J758" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K758" t="s">
+        <v>24</v>
+      </c>
+      <c r="L758" t="s">
+        <v>25</v>
+      </c>
+      <c r="M758" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N758" t="s">
+        <v>2201</v>
+      </c>
+      <c r="O758" t="s">
+        <v>24</v>
+      </c>
+      <c r="P758" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="759" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B759" t="s">
+        <v>58</v>
+      </c>
+      <c r="C759" t="s">
+        <v>41</v>
+      </c>
+      <c r="D759" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E759" t="s">
+        <v>65</v>
+      </c>
+      <c r="F759" t="s">
+        <v>29</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I759" t="s">
+        <v>55</v>
+      </c>
+      <c r="J759" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K759" t="s">
+        <v>24</v>
+      </c>
+      <c r="L759" t="s">
+        <v>25</v>
+      </c>
+      <c r="M759" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N759" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O759" t="s">
+        <v>80</v>
+      </c>
+      <c r="P759" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="760" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B760" t="s">
+        <v>58</v>
+      </c>
+      <c r="C760" t="s">
+        <v>41</v>
+      </c>
+      <c r="D760" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E760" t="s">
+        <v>65</v>
+      </c>
+      <c r="F760" t="s">
+        <v>29</v>
+      </c>
+      <c r="G760">
+        <v>20</v>
+      </c>
+      <c r="H760" t="s">
+        <v>58</v>
+      </c>
+      <c r="I760" t="s">
+        <v>55</v>
+      </c>
+      <c r="J760" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K760" t="s">
+        <v>24</v>
+      </c>
+      <c r="L760" t="s">
+        <v>25</v>
+      </c>
+      <c r="M760" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N760" t="s">
+        <v>2206</v>
+      </c>
+      <c r="O760" t="s">
+        <v>80</v>
+      </c>
+      <c r="P760" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="761" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B761" t="s">
+        <v>58</v>
+      </c>
+      <c r="C761" t="s">
+        <v>27</v>
+      </c>
+      <c r="D761" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E761" t="s">
+        <v>65</v>
+      </c>
+      <c r="F761" t="s">
+        <v>19</v>
+      </c>
+      <c r="G761">
+        <v>30</v>
+      </c>
+      <c r="H761" t="s">
+        <v>281</v>
+      </c>
+      <c r="I761" t="s">
+        <v>22</v>
+      </c>
+      <c r="J761" t="s">
+        <v>2208</v>
+      </c>
+      <c r="K761" t="s">
+        <v>24</v>
+      </c>
+      <c r="L761" t="s">
+        <v>25</v>
+      </c>
+      <c r="M761" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N761" t="s">
+        <v>2209</v>
+      </c>
+      <c r="O761" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P761" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="762" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B762" t="s">
+        <v>58</v>
+      </c>
+      <c r="C762" t="s">
+        <v>27</v>
+      </c>
+      <c r="D762" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E762" t="s">
+        <v>65</v>
+      </c>
+      <c r="F762" t="s">
+        <v>29</v>
+      </c>
+      <c r="G762">
+        <v>22</v>
+      </c>
+      <c r="H762" t="s">
+        <v>231</v>
+      </c>
+      <c r="I762" t="s">
+        <v>36</v>
+      </c>
+      <c r="J762" t="s">
+        <v>2211</v>
+      </c>
+      <c r="K762" t="s">
+        <v>24</v>
+      </c>
+      <c r="L762" t="s">
+        <v>25</v>
+      </c>
+      <c r="M762" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N762" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O762" t="s">
+        <v>80</v>
+      </c>
+      <c r="P762" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="763" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B763" t="s">
+        <v>58</v>
+      </c>
+      <c r="C763" t="s">
+        <v>27</v>
+      </c>
+      <c r="D763" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E763" t="s">
+        <v>18</v>
+      </c>
+      <c r="F763" t="s">
+        <v>29</v>
+      </c>
+      <c r="G763">
+        <v>39</v>
+      </c>
+      <c r="H763" t="s">
+        <v>658</v>
+      </c>
+      <c r="I763" t="s">
+        <v>22</v>
+      </c>
+      <c r="J763" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K763" t="s">
+        <v>24</v>
+      </c>
+      <c r="L763" t="s">
+        <v>25</v>
+      </c>
+      <c r="M763" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N763" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O763" t="s">
+        <v>80</v>
+      </c>
+      <c r="P763" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="764" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B764" t="s">
+        <v>58</v>
+      </c>
+      <c r="C764" t="s">
+        <v>41</v>
+      </c>
+      <c r="D764" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E764" t="s">
+        <v>18</v>
+      </c>
+      <c r="F764" t="s">
+        <v>29</v>
+      </c>
+      <c r="G764">
+        <v>24</v>
+      </c>
+      <c r="H764" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I764" t="s">
+        <v>22</v>
+      </c>
+      <c r="J764" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K764" t="s">
+        <v>24</v>
+      </c>
+      <c r="L764" t="s">
+        <v>25</v>
+      </c>
+      <c r="M764" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N764" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O764" t="s">
+        <v>80</v>
+      </c>
+      <c r="P764" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="765" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B765" t="s">
+        <v>58</v>
+      </c>
+      <c r="C765" t="s">
+        <v>41</v>
+      </c>
+      <c r="D765" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E765" t="s">
+        <v>18</v>
+      </c>
+      <c r="F765" t="s">
+        <v>29</v>
+      </c>
+      <c r="G765">
+        <v>0</v>
+      </c>
+      <c r="H765" t="s">
+        <v>319</v>
+      </c>
+      <c r="I765" t="s">
+        <v>55</v>
+      </c>
+      <c r="J765" t="s">
+        <v>2218</v>
+      </c>
+      <c r="K765" t="s">
+        <v>24</v>
+      </c>
+      <c r="L765" t="s">
+        <v>796</v>
+      </c>
+      <c r="M765" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N765" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O765" t="s">
+        <v>80</v>
+      </c>
+      <c r="P765" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="766" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B766" t="s">
+        <v>58</v>
+      </c>
+      <c r="C766" t="s">
+        <v>16</v>
+      </c>
+      <c r="D766" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E766" t="s">
+        <v>18</v>
+      </c>
+      <c r="F766" t="s">
+        <v>19</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+      <c r="H766" t="s">
+        <v>523</v>
+      </c>
+      <c r="I766" t="s">
+        <v>55</v>
+      </c>
+      <c r="J766" t="s">
+        <v>2220</v>
+      </c>
+      <c r="K766" t="s">
+        <v>24</v>
+      </c>
+      <c r="L766" t="s">
+        <v>25</v>
+      </c>
+      <c r="M766" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N766" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O766" t="s">
+        <v>24</v>
+      </c>
+      <c r="P766" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="767" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B767" t="s">
+        <v>58</v>
+      </c>
+      <c r="C767" t="s">
+        <v>27</v>
+      </c>
+      <c r="D767" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E767" t="s">
+        <v>18</v>
+      </c>
+      <c r="F767" t="s">
+        <v>29</v>
+      </c>
+      <c r="G767">
+        <v>33</v>
+      </c>
+      <c r="H767" t="s">
+        <v>58</v>
+      </c>
+      <c r="I767" t="s">
+        <v>55</v>
+      </c>
+      <c r="J767" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K767" t="s">
+        <v>24</v>
+      </c>
+      <c r="L767" t="s">
+        <v>25</v>
+      </c>
+      <c r="M767" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N767" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O767" t="s">
+        <v>24</v>
+      </c>
+      <c r="P767" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="768" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B768" t="s">
+        <v>58</v>
+      </c>
+      <c r="C768" t="s">
+        <v>41</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E768" t="s">
+        <v>18</v>
+      </c>
+      <c r="F768" t="s">
+        <v>19</v>
+      </c>
+      <c r="G768">
+        <v>54</v>
+      </c>
+      <c r="H768" t="s">
+        <v>44</v>
+      </c>
+      <c r="I768" t="s">
+        <v>22</v>
+      </c>
+      <c r="J768" t="s">
+        <v>2224</v>
+      </c>
+      <c r="K768" t="s">
+        <v>24</v>
+      </c>
+      <c r="L768" t="s">
+        <v>25</v>
+      </c>
+      <c r="M768" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N768" t="s">
+        <v>2225</v>
+      </c>
+      <c r="O768" t="s">
+        <v>80</v>
+      </c>
+      <c r="P768" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="769" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B769" t="s">
+        <v>58</v>
+      </c>
+      <c r="C769" t="s">
+        <v>27</v>
+      </c>
+      <c r="D769" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E769" t="s">
+        <v>18</v>
+      </c>
+      <c r="F769" t="s">
+        <v>29</v>
+      </c>
+      <c r="G769">
+        <v>29</v>
+      </c>
+      <c r="H769" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I769" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J769" t="s">
+        <v>2229</v>
+      </c>
+      <c r="K769" t="s">
+        <v>24</v>
+      </c>
+      <c r="L769" t="s">
+        <v>25</v>
+      </c>
+      <c r="M769" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N769" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O769" t="s">
+        <v>80</v>
+      </c>
+      <c r="P769" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="770" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B770" t="s">
+        <v>58</v>
+      </c>
+      <c r="C770" t="s">
+        <v>27</v>
+      </c>
+      <c r="D770" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E770" t="s">
+        <v>18</v>
+      </c>
+      <c r="F770" t="s">
+        <v>19</v>
+      </c>
+      <c r="G770">
+        <v>30</v>
+      </c>
+      <c r="H770" t="s">
+        <v>369</v>
+      </c>
+      <c r="I770" t="s">
+        <v>55</v>
+      </c>
+      <c r="J770" t="s">
+        <v>2231</v>
+      </c>
+      <c r="K770" t="s">
+        <v>24</v>
+      </c>
+      <c r="L770" t="s">
+        <v>201</v>
+      </c>
+      <c r="M770" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N770" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O770" t="s">
+        <v>80</v>
+      </c>
+      <c r="P770" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="771" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B771" t="s">
+        <v>58</v>
+      </c>
+      <c r="C771" t="s">
+        <v>27</v>
+      </c>
+      <c r="D771" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E771" t="s">
+        <v>18</v>
+      </c>
+      <c r="F771" t="s">
+        <v>29</v>
+      </c>
+      <c r="G771">
+        <v>19</v>
+      </c>
+      <c r="H771" t="s">
+        <v>166</v>
+      </c>
+      <c r="I771" t="s">
+        <v>22</v>
+      </c>
+      <c r="J771" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K771" t="s">
+        <v>24</v>
+      </c>
+      <c r="L771" t="s">
+        <v>25</v>
+      </c>
+      <c r="M771" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N771" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O771" t="s">
+        <v>80</v>
+      </c>
+      <c r="P771" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="772" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B772" t="s">
+        <v>58</v>
+      </c>
+      <c r="C772" t="s">
+        <v>27</v>
+      </c>
+      <c r="D772" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E772" t="s">
+        <v>65</v>
+      </c>
+      <c r="F772" t="s">
+        <v>29</v>
+      </c>
+      <c r="G772">
+        <v>41</v>
+      </c>
+      <c r="H772" t="s">
+        <v>58</v>
+      </c>
+      <c r="I772" t="s">
+        <v>55</v>
+      </c>
+      <c r="J772" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K772" t="s">
+        <v>24</v>
+      </c>
+      <c r="L772" t="s">
+        <v>25</v>
+      </c>
+      <c r="M772" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N772" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O772" t="s">
+        <v>80</v>
+      </c>
+      <c r="P772" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="773" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B773" t="s">
+        <v>58</v>
+      </c>
+      <c r="C773" t="s">
+        <v>41</v>
+      </c>
+      <c r="D773" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E773" t="s">
+        <v>65</v>
+      </c>
+      <c r="F773" t="s">
+        <v>91</v>
+      </c>
+      <c r="G773">
+        <v>38</v>
+      </c>
+      <c r="H773" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I773" t="s">
+        <v>157</v>
+      </c>
+      <c r="J773" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K773" t="s">
+        <v>24</v>
+      </c>
+      <c r="L773" t="s">
+        <v>46</v>
+      </c>
+      <c r="M773" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N773" t="s">
+        <v>2239</v>
+      </c>
+      <c r="O773" t="s">
+        <v>24</v>
+      </c>
+      <c r="P773" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="774" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B774" t="s">
+        <v>58</v>
+      </c>
+      <c r="C774" t="s">
+        <v>16</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E774" t="s">
+        <v>65</v>
+      </c>
+      <c r="F774" t="s">
+        <v>29</v>
+      </c>
+      <c r="G774">
+        <v>38</v>
+      </c>
+      <c r="H774" t="s">
+        <v>816</v>
+      </c>
+      <c r="I774" t="s">
+        <v>22</v>
+      </c>
+      <c r="J774" t="s">
+        <v>2241</v>
+      </c>
+      <c r="K774" t="s">
+        <v>24</v>
+      </c>
+      <c r="L774" t="s">
+        <v>25</v>
+      </c>
+      <c r="M774" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N774" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O774" t="s">
+        <v>80</v>
+      </c>
+      <c r="P774" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="775" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B775" t="s">
+        <v>58</v>
+      </c>
+      <c r="C775" t="s">
+        <v>27</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E775" t="s">
+        <v>65</v>
+      </c>
+      <c r="F775" t="s">
+        <v>29</v>
+      </c>
+      <c r="G775">
+        <v>17</v>
+      </c>
+      <c r="H775" t="s">
+        <v>58</v>
+      </c>
+      <c r="I775" t="s">
+        <v>55</v>
+      </c>
+      <c r="J775" t="s">
+        <v>2243</v>
+      </c>
+      <c r="K775" t="s">
+        <v>24</v>
+      </c>
+      <c r="L775" t="s">
+        <v>25</v>
+      </c>
+      <c r="M775" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N775" t="s">
+        <v>2244</v>
+      </c>
+      <c r="O775" t="s">
+        <v>24</v>
+      </c>
+      <c r="P775" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="776" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B776" t="s">
+        <v>58</v>
+      </c>
+      <c r="C776" t="s">
+        <v>27</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E776" t="s">
+        <v>65</v>
+      </c>
+      <c r="F776" t="s">
+        <v>29</v>
+      </c>
+      <c r="G776">
+        <v>34</v>
+      </c>
+      <c r="H776" t="s">
+        <v>58</v>
+      </c>
+      <c r="I776" t="s">
+        <v>55</v>
+      </c>
+      <c r="J776" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K776" t="s">
+        <v>24</v>
+      </c>
+      <c r="L776" t="s">
+        <v>25</v>
+      </c>
+      <c r="M776" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N776" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O776" t="s">
+        <v>24</v>
+      </c>
+      <c r="P776" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="777" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B777" t="s">
+        <v>58</v>
+      </c>
+      <c r="C777" t="s">
+        <v>41</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E777" t="s">
+        <v>65</v>
+      </c>
+      <c r="F777" t="s">
+        <v>91</v>
+      </c>
+      <c r="G777">
+        <v>51</v>
+      </c>
+      <c r="H777" t="s">
+        <v>378</v>
+      </c>
+      <c r="I777" t="s">
+        <v>22</v>
+      </c>
+      <c r="J777" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K777" t="s">
+        <v>24</v>
+      </c>
+      <c r="L777" t="s">
+        <v>25</v>
+      </c>
+      <c r="M777" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N777" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O777" t="s">
+        <v>24</v>
+      </c>
+      <c r="P777" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="778" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B778" t="s">
+        <v>58</v>
+      </c>
+      <c r="C778" t="s">
+        <v>41</v>
+      </c>
+      <c r="D778" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E778" t="s">
+        <v>65</v>
+      </c>
+      <c r="F778" t="s">
+        <v>91</v>
+      </c>
+      <c r="G778">
+        <v>46</v>
+      </c>
+      <c r="H778" t="s">
+        <v>58</v>
+      </c>
+      <c r="I778" t="s">
+        <v>55</v>
+      </c>
+      <c r="J778" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K778" t="s">
+        <v>24</v>
+      </c>
+      <c r="L778" t="s">
+        <v>25</v>
+      </c>
+      <c r="M778" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N778" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O778" t="s">
+        <v>80</v>
+      </c>
+      <c r="P778" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="779" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B779" t="s">
+        <v>58</v>
+      </c>
+      <c r="C779" t="s">
+        <v>16</v>
+      </c>
+      <c r="D779" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E779" t="s">
+        <v>65</v>
+      </c>
+      <c r="F779" t="s">
+        <v>19</v>
+      </c>
+      <c r="G779">
+        <v>51</v>
+      </c>
+      <c r="H779" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I779" t="s">
+        <v>2254</v>
+      </c>
+      <c r="J779" t="s">
+        <v>2255</v>
+      </c>
+      <c r="K779" t="s">
+        <v>24</v>
+      </c>
+      <c r="L779" t="s">
+        <v>25</v>
+      </c>
+      <c r="M779" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N779" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O779" t="s">
+        <v>80</v>
+      </c>
+      <c r="P779" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="780" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B780" t="s">
+        <v>58</v>
+      </c>
+      <c r="C780" t="s">
+        <v>41</v>
+      </c>
+      <c r="D780" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E780" t="s">
+        <v>65</v>
+      </c>
+      <c r="F780" t="s">
+        <v>29</v>
+      </c>
+      <c r="G780">
+        <v>54</v>
+      </c>
+      <c r="H780" t="s">
+        <v>523</v>
+      </c>
+      <c r="I780" t="s">
+        <v>335</v>
+      </c>
+      <c r="J780" t="s">
+        <v>2257</v>
+      </c>
+      <c r="K780" t="s">
+        <v>24</v>
+      </c>
+      <c r="L780" t="s">
+        <v>25</v>
+      </c>
+      <c r="M780" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N780" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O780" t="s">
+        <v>24</v>
+      </c>
+      <c r="P780" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="781" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B781" t="s">
+        <v>58</v>
+      </c>
+      <c r="C781" t="s">
+        <v>27</v>
+      </c>
+      <c r="D781" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E781" t="s">
+        <v>65</v>
+      </c>
+      <c r="F781" t="s">
+        <v>185</v>
+      </c>
+      <c r="G781">
+        <v>33</v>
+      </c>
+      <c r="H781" t="s">
+        <v>618</v>
+      </c>
+      <c r="I781" t="s">
+        <v>22</v>
+      </c>
+      <c r="J781" t="s">
+        <v>2259</v>
+      </c>
+      <c r="K781" t="s">
+        <v>24</v>
+      </c>
+      <c r="L781" t="s">
+        <v>25</v>
+      </c>
+      <c r="M781" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N781" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O781" t="s">
+        <v>80</v>
+      </c>
+      <c r="P781" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="782" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B782" t="s">
+        <v>58</v>
+      </c>
+      <c r="C782" t="s">
+        <v>41</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E782" t="s">
+        <v>65</v>
+      </c>
+      <c r="F782" t="s">
+        <v>91</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782" t="s">
+        <v>44</v>
+      </c>
+      <c r="I782" t="s">
+        <v>22</v>
+      </c>
+      <c r="J782" t="s">
+        <v>2261</v>
+      </c>
+      <c r="K782" t="s">
+        <v>24</v>
+      </c>
+      <c r="L782" t="s">
+        <v>25</v>
+      </c>
+      <c r="M782" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N782" t="s">
+        <v>2262</v>
+      </c>
+      <c r="O782" t="s">
+        <v>24</v>
+      </c>
+      <c r="P782" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="783" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B783" t="s">
+        <v>58</v>
+      </c>
+      <c r="C783" t="s">
+        <v>16</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E783" t="s">
+        <v>65</v>
+      </c>
+      <c r="F783" t="s">
+        <v>29</v>
+      </c>
+      <c r="G783">
+        <v>31</v>
+      </c>
+      <c r="H783" t="s">
+        <v>58</v>
+      </c>
+      <c r="I783" t="s">
+        <v>55</v>
+      </c>
+      <c r="J783" t="s">
+        <v>2264</v>
+      </c>
+      <c r="K783" t="s">
+        <v>24</v>
+      </c>
+      <c r="L783" t="s">
+        <v>25</v>
+      </c>
+      <c r="M783" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N783" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O783" t="s">
+        <v>80</v>
+      </c>
+      <c r="P783" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="784" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B784" t="s">
+        <v>58</v>
+      </c>
+      <c r="C784" t="s">
+        <v>27</v>
+      </c>
+      <c r="D784" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E784" t="s">
+        <v>65</v>
+      </c>
+      <c r="F784" t="s">
+        <v>19</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784" t="s">
+        <v>21</v>
+      </c>
+      <c r="I784" t="s">
+        <v>55</v>
+      </c>
+      <c r="J784" t="s">
+        <v>2266</v>
+      </c>
+      <c r="K784" t="s">
+        <v>24</v>
+      </c>
+      <c r="L784" t="s">
+        <v>25</v>
+      </c>
+      <c r="M784" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N784" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O784" t="s">
+        <v>80</v>
+      </c>
+      <c r="P784" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="785" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B785" t="s">
+        <v>58</v>
+      </c>
+      <c r="C785" t="s">
+        <v>16</v>
+      </c>
+      <c r="D785" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E785" t="s">
+        <v>65</v>
+      </c>
+      <c r="F785" t="s">
+        <v>91</v>
+      </c>
+      <c r="G785">
+        <v>57</v>
+      </c>
+      <c r="H785" t="s">
+        <v>307</v>
+      </c>
+      <c r="I785" t="s">
+        <v>22</v>
+      </c>
+      <c r="J785" t="s">
+        <v>2268</v>
+      </c>
+      <c r="K785" t="s">
+        <v>24</v>
+      </c>
+      <c r="L785" t="s">
+        <v>25</v>
+      </c>
+      <c r="M785" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N785" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O785" t="s">
+        <v>24</v>
+      </c>
+      <c r="P785" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="786" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B786" t="s">
+        <v>58</v>
+      </c>
+      <c r="C786" t="s">
+        <v>41</v>
+      </c>
+      <c r="D786" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E786" t="s">
+        <v>65</v>
+      </c>
+      <c r="F786" t="s">
+        <v>19</v>
+      </c>
+      <c r="G786">
+        <v>40</v>
+      </c>
+      <c r="H786" t="s">
+        <v>44</v>
+      </c>
+      <c r="I786" t="s">
+        <v>22</v>
+      </c>
+      <c r="J786" t="s">
+        <v>2270</v>
+      </c>
+      <c r="K786" t="s">
+        <v>24</v>
+      </c>
+      <c r="L786" t="s">
+        <v>445</v>
+      </c>
+      <c r="M786" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N786" t="s">
+        <v>2271</v>
+      </c>
+      <c r="O786" t="s">
+        <v>24</v>
+      </c>
+      <c r="P786" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="787" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B787" t="s">
+        <v>58</v>
+      </c>
+      <c r="C787" t="s">
+        <v>41</v>
+      </c>
+      <c r="D787" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E787" t="s">
+        <v>65</v>
+      </c>
+      <c r="F787" t="s">
+        <v>91</v>
+      </c>
+      <c r="G787">
+        <v>31</v>
+      </c>
+      <c r="H787" t="s">
+        <v>44</v>
+      </c>
+      <c r="I787" t="s">
+        <v>22</v>
+      </c>
+      <c r="J787" t="s">
+        <v>2273</v>
+      </c>
+      <c r="K787" t="s">
+        <v>24</v>
+      </c>
+      <c r="L787" t="s">
+        <v>25</v>
+      </c>
+      <c r="M787" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N787" t="s">
+        <v>2274</v>
+      </c>
+      <c r="O787" t="s">
+        <v>24</v>
+      </c>
+      <c r="P787" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="788" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B788" t="s">
+        <v>58</v>
+      </c>
+      <c r="C788" t="s">
+        <v>27</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E788" t="s">
+        <v>65</v>
+      </c>
+      <c r="F788" t="s">
+        <v>29</v>
+      </c>
+      <c r="G788">
+        <v>23</v>
+      </c>
+      <c r="H788" t="s">
+        <v>166</v>
+      </c>
+      <c r="I788" t="s">
+        <v>22</v>
+      </c>
+      <c r="J788" t="s">
+        <v>2276</v>
+      </c>
+      <c r="K788" t="s">
+        <v>24</v>
+      </c>
+      <c r="L788" t="s">
+        <v>25</v>
+      </c>
+      <c r="M788" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N788" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O788" t="s">
+        <v>24</v>
+      </c>
+      <c r="P788" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="789" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B789" t="s">
+        <v>58</v>
+      </c>
+      <c r="C789" t="s">
+        <v>41</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E789" t="s">
+        <v>65</v>
+      </c>
+      <c r="F789" t="s">
+        <v>29</v>
+      </c>
+      <c r="G789">
+        <v>32</v>
+      </c>
+      <c r="H789" t="s">
+        <v>44</v>
+      </c>
+      <c r="I789" t="s">
+        <v>22</v>
+      </c>
+      <c r="J789" t="s">
+        <v>2278</v>
+      </c>
+      <c r="K789" t="s">
+        <v>24</v>
+      </c>
+      <c r="L789" t="s">
+        <v>457</v>
+      </c>
+      <c r="M789" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N789" t="s">
+        <v>2279</v>
+      </c>
+      <c r="O789" t="s">
+        <v>24</v>
+      </c>
+      <c r="P789" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="790" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B790" t="s">
+        <v>58</v>
+      </c>
+      <c r="C790" t="s">
+        <v>27</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E790" t="s">
+        <v>65</v>
+      </c>
+      <c r="F790" t="s">
+        <v>29</v>
+      </c>
+      <c r="G790">
+        <v>24</v>
+      </c>
+      <c r="H790" t="s">
+        <v>369</v>
+      </c>
+      <c r="I790" t="s">
+        <v>22</v>
+      </c>
+      <c r="J790" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K790" t="s">
+        <v>24</v>
+      </c>
+      <c r="L790" t="s">
+        <v>25</v>
+      </c>
+      <c r="M790" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N790" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O790" t="s">
+        <v>80</v>
+      </c>
+      <c r="P790" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="791" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B791" t="s">
+        <v>58</v>
+      </c>
+      <c r="C791" t="s">
+        <v>41</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E791" t="s">
+        <v>65</v>
+      </c>
+      <c r="F791" t="s">
+        <v>91</v>
+      </c>
+      <c r="G791">
+        <v>32</v>
+      </c>
+      <c r="H791" t="s">
+        <v>2283</v>
+      </c>
+      <c r="I791" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J791" t="s">
+        <v>2284</v>
+      </c>
+      <c r="K791" t="s">
+        <v>24</v>
+      </c>
+      <c r="L791" t="s">
+        <v>25</v>
+      </c>
+      <c r="M791" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N791" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O791" t="s">
+        <v>80</v>
+      </c>
+      <c r="P791" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="792" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B792" t="s">
+        <v>58</v>
+      </c>
+      <c r="C792" t="s">
+        <v>41</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E792" t="s">
+        <v>65</v>
+      </c>
+      <c r="F792" t="s">
+        <v>91</v>
+      </c>
+      <c r="G792">
+        <v>65</v>
+      </c>
+      <c r="H792" t="s">
+        <v>44</v>
+      </c>
+      <c r="I792" t="s">
+        <v>22</v>
+      </c>
+      <c r="J792" t="s">
+        <v>2286</v>
+      </c>
+      <c r="K792" t="s">
+        <v>24</v>
+      </c>
+      <c r="L792" t="s">
+        <v>25</v>
+      </c>
+      <c r="M792" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N792" t="s">
+        <v>2287</v>
+      </c>
+      <c r="O792" t="s">
+        <v>24</v>
+      </c>
+      <c r="P792" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="793" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B793" t="s">
+        <v>58</v>
+      </c>
+      <c r="C793" t="s">
+        <v>41</v>
+      </c>
+      <c r="D793" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E793" t="s">
+        <v>65</v>
+      </c>
+      <c r="F793" t="s">
+        <v>29</v>
+      </c>
+      <c r="G793">
+        <v>32</v>
+      </c>
+      <c r="H793" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I793" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J793" t="s">
+        <v>2290</v>
+      </c>
+      <c r="K793" t="s">
+        <v>24</v>
+      </c>
+      <c r="L793" t="s">
+        <v>25</v>
+      </c>
+      <c r="M793" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N793" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O793" t="s">
+        <v>80</v>
+      </c>
+      <c r="P793" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="794" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B794" t="s">
+        <v>58</v>
+      </c>
+      <c r="C794" t="s">
+        <v>41</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E794" t="s">
+        <v>65</v>
+      </c>
+      <c r="F794" t="s">
+        <v>29</v>
+      </c>
+      <c r="G794">
+        <v>43</v>
+      </c>
+      <c r="H794" t="s">
+        <v>2292</v>
+      </c>
+      <c r="I794" t="s">
+        <v>22</v>
+      </c>
+      <c r="J794" t="s">
+        <v>2293</v>
+      </c>
+      <c r="K794" t="s">
+        <v>24</v>
+      </c>
+      <c r="L794" t="s">
+        <v>25</v>
+      </c>
+      <c r="M794" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N794" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O794" t="s">
+        <v>80</v>
+      </c>
+      <c r="P794" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="795" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B795" t="s">
+        <v>58</v>
+      </c>
+      <c r="C795" t="s">
+        <v>41</v>
+      </c>
+      <c r="D795" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E795" t="s">
+        <v>65</v>
+      </c>
+      <c r="F795" t="s">
+        <v>29</v>
+      </c>
+      <c r="G795">
+        <v>21</v>
+      </c>
+      <c r="H795" t="s">
+        <v>231</v>
+      </c>
+      <c r="I795" t="s">
+        <v>2295</v>
+      </c>
+      <c r="J795" t="s">
+        <v>2296</v>
+      </c>
+      <c r="K795" t="s">
+        <v>24</v>
+      </c>
+      <c r="L795" t="s">
+        <v>25</v>
+      </c>
+      <c r="M795" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N795" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O795" t="s">
+        <v>24</v>
+      </c>
+      <c r="P795" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="796" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B796" t="s">
+        <v>58</v>
+      </c>
+      <c r="C796" t="s">
+        <v>41</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E796" t="s">
+        <v>65</v>
+      </c>
+      <c r="F796" t="s">
+        <v>29</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796" t="s">
+        <v>327</v>
+      </c>
+      <c r="I796" t="s">
+        <v>157</v>
+      </c>
+      <c r="J796" t="s">
+        <v>2298</v>
+      </c>
+      <c r="K796" t="s">
+        <v>24</v>
+      </c>
+      <c r="L796" t="s">
+        <v>25</v>
+      </c>
+      <c r="M796" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N796" t="s">
+        <v>2299</v>
+      </c>
+      <c r="O796" t="s">
+        <v>24</v>
+      </c>
+      <c r="P796" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B797" t="s">
+        <v>58</v>
+      </c>
+      <c r="C797" t="s">
+        <v>41</v>
+      </c>
+      <c r="D797" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E797" t="s">
+        <v>18</v>
+      </c>
+      <c r="F797" t="s">
+        <v>29</v>
+      </c>
+      <c r="G797">
+        <v>33</v>
+      </c>
+      <c r="H797" t="s">
+        <v>366</v>
+      </c>
+      <c r="I797" t="s">
+        <v>22</v>
+      </c>
+      <c r="J797" t="s">
+        <v>2302</v>
+      </c>
+      <c r="K797" t="s">
+        <v>24</v>
+      </c>
+      <c r="L797" t="s">
+        <v>25</v>
+      </c>
+      <c r="M797" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N797" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O797" t="s">
+        <v>80</v>
+      </c>
+      <c r="P797" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="798" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B798" t="s">
+        <v>58</v>
+      </c>
+      <c r="C798" t="s">
+        <v>27</v>
+      </c>
+      <c r="D798" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E798" t="s">
+        <v>18</v>
+      </c>
+      <c r="F798" t="s">
+        <v>91</v>
+      </c>
+      <c r="G798">
+        <v>62</v>
+      </c>
+      <c r="H798" t="s">
+        <v>366</v>
+      </c>
+      <c r="I798" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J798" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K798" t="s">
+        <v>24</v>
+      </c>
+      <c r="L798" t="s">
+        <v>25</v>
+      </c>
+      <c r="M798" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N798" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O798" t="s">
+        <v>80</v>
+      </c>
+      <c r="P798" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="799" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B799" t="s">
+        <v>58</v>
+      </c>
+      <c r="C799" t="s">
+        <v>27</v>
+      </c>
+      <c r="D799" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E799" t="s">
+        <v>18</v>
+      </c>
+      <c r="F799" t="s">
+        <v>29</v>
+      </c>
+      <c r="G799">
+        <v>30</v>
+      </c>
+      <c r="H799" t="s">
+        <v>281</v>
+      </c>
+      <c r="I799" t="s">
+        <v>22</v>
+      </c>
+      <c r="J799" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K799" t="s">
+        <v>24</v>
+      </c>
+      <c r="L799" t="s">
+        <v>445</v>
+      </c>
+      <c r="M799" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N799" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O799" t="s">
+        <v>80</v>
+      </c>
+      <c r="P799" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="800" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B800" t="s">
+        <v>58</v>
+      </c>
+      <c r="C800" t="s">
+        <v>41</v>
+      </c>
+      <c r="D800" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E800" t="s">
+        <v>18</v>
+      </c>
+      <c r="F800" t="s">
+        <v>91</v>
+      </c>
+      <c r="G800">
+        <v>68</v>
+      </c>
+      <c r="H800" t="s">
+        <v>2309</v>
+      </c>
+      <c r="I800" t="s">
+        <v>55</v>
+      </c>
+      <c r="J800" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K800" t="s">
+        <v>24</v>
+      </c>
+      <c r="L800" t="s">
+        <v>25</v>
+      </c>
+      <c r="M800" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N800" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O800" t="s">
+        <v>24</v>
+      </c>
+      <c r="P800" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="801" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B801" t="s">
+        <v>58</v>
+      </c>
+      <c r="C801" t="s">
+        <v>41</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E801" t="s">
+        <v>18</v>
+      </c>
+      <c r="F801" t="s">
+        <v>19</v>
+      </c>
+      <c r="G801">
+        <v>0</v>
+      </c>
+      <c r="H801" t="s">
+        <v>2312</v>
+      </c>
+      <c r="I801" t="s">
+        <v>157</v>
+      </c>
+      <c r="J801" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K801" t="s">
+        <v>24</v>
+      </c>
+      <c r="L801" t="s">
+        <v>25</v>
+      </c>
+      <c r="M801" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N801" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O801" t="s">
+        <v>24</v>
+      </c>
+      <c r="P801" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="802" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B802" t="s">
+        <v>58</v>
+      </c>
+      <c r="C802" t="s">
+        <v>41</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E802" t="s">
+        <v>18</v>
+      </c>
+      <c r="F802" t="s">
+        <v>29</v>
+      </c>
+      <c r="G802">
+        <v>20</v>
+      </c>
+      <c r="H802" t="s">
+        <v>2315</v>
+      </c>
+      <c r="I802" t="s">
+        <v>440</v>
+      </c>
+      <c r="J802" t="s">
+        <v>2316</v>
+      </c>
+      <c r="K802" t="s">
+        <v>24</v>
+      </c>
+      <c r="L802" t="s">
+        <v>25</v>
+      </c>
+      <c r="M802" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N802" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O802" t="s">
+        <v>80</v>
+      </c>
+      <c r="P802" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="803" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B803" t="s">
+        <v>58</v>
+      </c>
+      <c r="C803" t="s">
+        <v>41</v>
+      </c>
+      <c r="D803" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E803" t="s">
+        <v>18</v>
+      </c>
+      <c r="F803" t="s">
+        <v>91</v>
+      </c>
+      <c r="G803">
+        <v>0</v>
+      </c>
+      <c r="H803" t="s">
+        <v>166</v>
+      </c>
+      <c r="I803" t="s">
+        <v>36</v>
+      </c>
+      <c r="J803" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K803" t="s">
+        <v>24</v>
+      </c>
+      <c r="L803" t="s">
+        <v>25</v>
+      </c>
+      <c r="M803" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N803" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O803" t="s">
+        <v>80</v>
+      </c>
+      <c r="P803" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="804" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B804" t="s">
+        <v>58</v>
+      </c>
+      <c r="C804" t="s">
+        <v>41</v>
+      </c>
+      <c r="D804" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E804" t="s">
+        <v>18</v>
+      </c>
+      <c r="F804" t="s">
+        <v>29</v>
+      </c>
+      <c r="G804">
+        <v>32</v>
+      </c>
+      <c r="H804" t="s">
+        <v>21</v>
+      </c>
+      <c r="I804" t="s">
+        <v>55</v>
+      </c>
+      <c r="J804" t="s">
+        <v>2320</v>
+      </c>
+      <c r="K804" t="s">
+        <v>24</v>
+      </c>
+      <c r="L804" t="s">
+        <v>46</v>
+      </c>
+      <c r="M804" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N804" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O804" t="s">
+        <v>24</v>
+      </c>
+      <c r="P804" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="805" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B805" t="s">
+        <v>58</v>
+      </c>
+      <c r="C805" t="s">
+        <v>41</v>
+      </c>
+      <c r="D805" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E805" t="s">
+        <v>18</v>
+      </c>
+      <c r="F805" t="s">
+        <v>29</v>
+      </c>
+      <c r="G805">
+        <v>34</v>
+      </c>
+      <c r="H805" t="s">
+        <v>2322</v>
+      </c>
+      <c r="I805" t="s">
+        <v>335</v>
+      </c>
+      <c r="J805" t="s">
+        <v>2323</v>
+      </c>
+      <c r="K805" t="s">
+        <v>24</v>
+      </c>
+      <c r="L805" t="s">
+        <v>445</v>
+      </c>
+      <c r="M805" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N805" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O805" t="s">
+        <v>24</v>
+      </c>
+      <c r="P805" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="806" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B806" t="s">
+        <v>58</v>
+      </c>
+      <c r="C806" t="s">
+        <v>27</v>
+      </c>
+      <c r="D806" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E806" t="s">
+        <v>18</v>
+      </c>
+      <c r="F806" t="s">
+        <v>19</v>
+      </c>
+      <c r="G806">
+        <v>29</v>
+      </c>
+      <c r="H806" t="s">
+        <v>58</v>
+      </c>
+      <c r="I806" t="s">
+        <v>55</v>
+      </c>
+      <c r="J806" t="s">
+        <v>2325</v>
+      </c>
+      <c r="K806" t="s">
+        <v>24</v>
+      </c>
+      <c r="L806" t="s">
+        <v>25</v>
+      </c>
+      <c r="M806" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N806" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O806" t="s">
+        <v>80</v>
+      </c>
+      <c r="P806" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="807" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B807" t="s">
+        <v>58</v>
+      </c>
+      <c r="C807" t="s">
+        <v>41</v>
+      </c>
+      <c r="D807" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E807" t="s">
+        <v>18</v>
+      </c>
+      <c r="F807" t="s">
+        <v>29</v>
+      </c>
+      <c r="G807">
+        <v>46</v>
+      </c>
+      <c r="H807" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I807" t="s">
+        <v>55</v>
+      </c>
+      <c r="J807" t="s">
+        <v>2329</v>
+      </c>
+      <c r="K807" t="s">
+        <v>24</v>
+      </c>
+      <c r="L807" t="s">
+        <v>25</v>
+      </c>
+      <c r="M807" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N807" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O807" t="s">
+        <v>24</v>
+      </c>
+      <c r="P807" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="808" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B808" t="s">
+        <v>58</v>
+      </c>
+      <c r="C808" t="s">
+        <v>27</v>
+      </c>
+      <c r="D808" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E808" t="s">
+        <v>65</v>
+      </c>
+      <c r="F808" t="s">
+        <v>58</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+      <c r="H808" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I808" t="s">
+        <v>335</v>
+      </c>
+      <c r="J808" t="s">
+        <v>2331</v>
+      </c>
+      <c r="K808" t="s">
+        <v>24</v>
+      </c>
+      <c r="L808" t="s">
+        <v>25</v>
+      </c>
+      <c r="M808" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N808" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O808" t="s">
+        <v>24</v>
+      </c>
+      <c r="P808" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="809" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B809" t="s">
+        <v>58</v>
+      </c>
+      <c r="C809" t="s">
+        <v>16</v>
+      </c>
+      <c r="D809" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E809" t="s">
+        <v>65</v>
+      </c>
+      <c r="F809" t="s">
+        <v>29</v>
+      </c>
+      <c r="G809">
+        <v>25</v>
+      </c>
+      <c r="H809" t="s">
+        <v>2334</v>
+      </c>
+      <c r="I809" t="s">
+        <v>2335</v>
+      </c>
+      <c r="J809" t="s">
+        <v>2336</v>
+      </c>
+      <c r="K809" t="s">
+        <v>24</v>
+      </c>
+      <c r="L809" t="s">
+        <v>201</v>
+      </c>
+      <c r="M809" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N809" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O809" t="s">
+        <v>80</v>
+      </c>
+      <c r="P809" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="810" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B810" t="s">
+        <v>58</v>
+      </c>
+      <c r="C810" t="s">
+        <v>41</v>
+      </c>
+      <c r="D810" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E810" t="s">
+        <v>65</v>
+      </c>
+      <c r="F810" t="s">
+        <v>58</v>
+      </c>
+      <c r="G810">
+        <v>0</v>
+      </c>
+      <c r="H810" t="s">
+        <v>58</v>
+      </c>
+      <c r="I810" t="s">
+        <v>55</v>
+      </c>
+      <c r="J810" t="s">
+        <v>2339</v>
+      </c>
+      <c r="K810" t="s">
+        <v>24</v>
+      </c>
+      <c r="L810" t="s">
+        <v>201</v>
+      </c>
+      <c r="M810" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N810" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O810" t="s">
+        <v>24</v>
+      </c>
+      <c r="P810" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="811" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B811" t="s">
+        <v>58</v>
+      </c>
+      <c r="C811" t="s">
+        <v>27</v>
+      </c>
+      <c r="D811" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E811" t="s">
+        <v>65</v>
+      </c>
+      <c r="F811" t="s">
+        <v>19</v>
+      </c>
+      <c r="G811">
+        <v>25</v>
+      </c>
+      <c r="H811" t="s">
+        <v>54</v>
+      </c>
+      <c r="I811" t="s">
+        <v>22</v>
+      </c>
+      <c r="J811" t="s">
+        <v>2342</v>
+      </c>
+      <c r="K811" t="s">
+        <v>24</v>
+      </c>
+      <c r="L811" t="s">
+        <v>46</v>
+      </c>
+      <c r="M811" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N811" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O811" t="s">
+        <v>80</v>
+      </c>
+      <c r="P811" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="812" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B812" t="s">
+        <v>58</v>
+      </c>
+      <c r="C812" t="s">
+        <v>16</v>
+      </c>
+      <c r="D812" t="s">
+        <v>2343</v>
+      </c>
+      <c r="E812" t="s">
+        <v>65</v>
+      </c>
+      <c r="F812" t="s">
+        <v>29</v>
+      </c>
+      <c r="G812">
+        <v>27</v>
+      </c>
+      <c r="H812" t="s">
+        <v>2344</v>
+      </c>
+      <c r="I812" t="s">
+        <v>36</v>
+      </c>
+      <c r="J812" t="s">
+        <v>2345</v>
+      </c>
+      <c r="K812" t="s">
+        <v>24</v>
+      </c>
+      <c r="L812" t="s">
+        <v>450</v>
+      </c>
+      <c r="M812" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N812" t="s">
+        <v>2346</v>
+      </c>
+      <c r="O812" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P812" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="813" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B813" t="s">
+        <v>58</v>
+      </c>
+      <c r="C813" t="s">
+        <v>41</v>
+      </c>
+      <c r="D813" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E813" t="s">
+        <v>65</v>
+      </c>
+      <c r="F813" t="s">
+        <v>19</v>
+      </c>
+      <c r="G813">
+        <v>51</v>
+      </c>
+      <c r="H813" t="s">
+        <v>132</v>
+      </c>
+      <c r="I813" t="s">
+        <v>22</v>
+      </c>
+      <c r="J813" t="s">
+        <v>2348</v>
+      </c>
+      <c r="K813" t="s">
+        <v>24</v>
+      </c>
+      <c r="L813" t="s">
+        <v>25</v>
+      </c>
+      <c r="M813" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N813" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O813" t="s">
+        <v>24</v>
+      </c>
+      <c r="P813" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="814" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B814" t="s">
+        <v>58</v>
+      </c>
+      <c r="C814" t="s">
+        <v>41</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E814" t="s">
+        <v>65</v>
+      </c>
+      <c r="F814" t="s">
+        <v>58</v>
+      </c>
+      <c r="G814">
+        <v>0</v>
+      </c>
+      <c r="H814" t="s">
+        <v>58</v>
+      </c>
+      <c r="I814" t="s">
+        <v>55</v>
+      </c>
+      <c r="J814" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K814" t="s">
+        <v>24</v>
+      </c>
+      <c r="L814" t="s">
+        <v>201</v>
+      </c>
+      <c r="M814" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N814" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O814" t="s">
+        <v>24</v>
+      </c>
+      <c r="P814" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="815" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B815" t="s">
+        <v>58</v>
+      </c>
+      <c r="C815" t="s">
+        <v>27</v>
+      </c>
+      <c r="D815" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E815" t="s">
+        <v>65</v>
+      </c>
+      <c r="F815" t="s">
+        <v>29</v>
+      </c>
+      <c r="G815">
+        <v>41</v>
+      </c>
+      <c r="H815" t="s">
+        <v>44</v>
+      </c>
+      <c r="I815" t="s">
+        <v>22</v>
+      </c>
+      <c r="J815" t="s">
+        <v>2350</v>
+      </c>
+      <c r="K815" t="s">
+        <v>24</v>
+      </c>
+      <c r="L815" t="s">
+        <v>201</v>
+      </c>
+      <c r="M815" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N815" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O815" t="s">
+        <v>80</v>
+      </c>
+      <c r="P815" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="816" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B816" t="s">
+        <v>58</v>
+      </c>
+      <c r="C816" t="s">
+        <v>41</v>
+      </c>
+      <c r="D816" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E816" t="s">
+        <v>65</v>
+      </c>
+      <c r="F816" t="s">
+        <v>29</v>
+      </c>
+      <c r="G816">
+        <v>37</v>
+      </c>
+      <c r="H816" t="s">
+        <v>21</v>
+      </c>
+      <c r="I816" t="s">
+        <v>22</v>
+      </c>
+      <c r="J816" t="s">
+        <v>2352</v>
+      </c>
+      <c r="K816" t="s">
+        <v>24</v>
+      </c>
+      <c r="L816" t="s">
+        <v>46</v>
+      </c>
+      <c r="M816" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N816" t="s">
+        <v>2353</v>
+      </c>
+      <c r="O816" t="s">
+        <v>24</v>
+      </c>
+      <c r="P816" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="817" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B817" t="s">
+        <v>58</v>
+      </c>
+      <c r="C817" t="s">
+        <v>41</v>
+      </c>
+      <c r="D817" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E817" t="s">
+        <v>65</v>
+      </c>
+      <c r="F817" t="s">
+        <v>91</v>
+      </c>
+      <c r="G817">
+        <v>60</v>
+      </c>
+      <c r="H817" t="s">
+        <v>132</v>
+      </c>
+      <c r="I817" t="s">
+        <v>22</v>
+      </c>
+      <c r="J817" t="s">
+        <v>2355</v>
+      </c>
+      <c r="K817" t="s">
+        <v>24</v>
+      </c>
+      <c r="L817" t="s">
+        <v>46</v>
+      </c>
+      <c r="M817" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N817" t="s">
+        <v>2356</v>
+      </c>
+      <c r="O817" t="s">
+        <v>24</v>
+      </c>
+      <c r="P817" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="818" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B818" t="s">
+        <v>58</v>
+      </c>
+      <c r="C818" t="s">
+        <v>41</v>
+      </c>
+      <c r="D818" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E818" t="s">
+        <v>65</v>
+      </c>
+      <c r="F818" t="s">
+        <v>29</v>
+      </c>
+      <c r="G818">
+        <v>20</v>
+      </c>
+      <c r="H818" t="s">
+        <v>44</v>
+      </c>
+      <c r="I818" t="s">
+        <v>22</v>
+      </c>
+      <c r="J818" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K818" t="s">
+        <v>24</v>
+      </c>
+      <c r="L818" t="s">
+        <v>46</v>
+      </c>
+      <c r="M818" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N818" t="s">
+        <v>2358</v>
+      </c>
+      <c r="O818" t="s">
+        <v>80</v>
+      </c>
+      <c r="P818" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="819" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B819" t="s">
+        <v>58</v>
+      </c>
+      <c r="C819" t="s">
+        <v>27</v>
+      </c>
+      <c r="D819" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E819" t="s">
+        <v>65</v>
+      </c>
+      <c r="F819" t="s">
+        <v>29</v>
+      </c>
+      <c r="G819">
+        <v>37</v>
+      </c>
+      <c r="H819" t="s">
+        <v>2360</v>
+      </c>
+      <c r="I819" t="s">
+        <v>2361</v>
+      </c>
+      <c r="J819" t="s">
+        <v>2362</v>
+      </c>
+      <c r="K819" t="s">
+        <v>24</v>
+      </c>
+      <c r="L819" t="s">
+        <v>201</v>
+      </c>
+      <c r="M819" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N819" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O819" t="s">
+        <v>80</v>
+      </c>
+      <c r="P819" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="820" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B820" t="s">
+        <v>58</v>
+      </c>
+      <c r="C820" t="s">
+        <v>16</v>
+      </c>
+      <c r="D820" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E820" t="s">
+        <v>65</v>
+      </c>
+      <c r="F820" t="s">
+        <v>19</v>
+      </c>
+      <c r="G820">
+        <v>42</v>
+      </c>
+      <c r="H820" t="s">
+        <v>573</v>
+      </c>
+      <c r="I820" t="s">
+        <v>335</v>
+      </c>
+      <c r="J820" t="s">
+        <v>2364</v>
+      </c>
+      <c r="K820" t="s">
+        <v>24</v>
+      </c>
+      <c r="L820" t="s">
+        <v>25</v>
+      </c>
+      <c r="M820" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N820" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O820" t="s">
+        <v>80</v>
+      </c>
+      <c r="P820" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="821" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B821" t="s">
+        <v>58</v>
+      </c>
+      <c r="C821" t="s">
+        <v>27</v>
+      </c>
+      <c r="D821" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E821" t="s">
+        <v>65</v>
+      </c>
+      <c r="F821" t="s">
+        <v>58</v>
+      </c>
+      <c r="G821">
+        <v>0</v>
+      </c>
+      <c r="H821" t="s">
+        <v>58</v>
+      </c>
+      <c r="I821" t="s">
+        <v>55</v>
+      </c>
+      <c r="J821" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K821" t="s">
+        <v>24</v>
+      </c>
+      <c r="L821" t="s">
+        <v>25</v>
+      </c>
+      <c r="M821" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N821" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O821" t="s">
+        <v>24</v>
+      </c>
+      <c r="P821" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="822" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B822" t="s">
+        <v>58</v>
+      </c>
+      <c r="C822" t="s">
+        <v>41</v>
+      </c>
+      <c r="D822" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E822" t="s">
+        <v>65</v>
+      </c>
+      <c r="F822" t="s">
+        <v>29</v>
+      </c>
+      <c r="G822">
+        <v>27</v>
+      </c>
+      <c r="H822" t="s">
+        <v>58</v>
+      </c>
+      <c r="I822" t="s">
+        <v>55</v>
+      </c>
+      <c r="J822" t="s">
+        <v>2368</v>
+      </c>
+      <c r="K822" t="s">
+        <v>24</v>
+      </c>
+      <c r="L822" t="s">
+        <v>25</v>
+      </c>
+      <c r="M822" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N822" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O822" t="s">
+        <v>80</v>
+      </c>
+      <c r="P822" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="823" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B823" t="s">
+        <v>58</v>
+      </c>
+      <c r="C823" t="s">
+        <v>27</v>
+      </c>
+      <c r="D823" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E823" t="s">
+        <v>65</v>
+      </c>
+      <c r="F823" t="s">
+        <v>292</v>
+      </c>
+      <c r="G823">
+        <v>53</v>
+      </c>
+      <c r="H823" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I823" t="s">
+        <v>157</v>
+      </c>
+      <c r="J823" t="s">
+        <v>2370</v>
+      </c>
+      <c r="K823" t="s">
+        <v>24</v>
+      </c>
+      <c r="L823" t="s">
+        <v>25</v>
+      </c>
+      <c r="M823" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N823" t="s">
+        <v>2371</v>
+      </c>
+      <c r="O823" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P823" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="824" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B824" t="s">
+        <v>58</v>
+      </c>
+      <c r="C824" t="s">
+        <v>27</v>
+      </c>
+      <c r="D824" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E824" t="s">
+        <v>65</v>
+      </c>
+      <c r="F824" t="s">
+        <v>58</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+      <c r="H824" t="s">
+        <v>58</v>
+      </c>
+      <c r="I824" t="s">
+        <v>55</v>
+      </c>
+      <c r="J824" t="s">
+        <v>2373</v>
+      </c>
+      <c r="K824" t="s">
+        <v>24</v>
+      </c>
+      <c r="L824" t="s">
+        <v>25</v>
+      </c>
+      <c r="M824" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N824" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O824" t="s">
+        <v>80</v>
+      </c>
+      <c r="P824" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="825" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B825" t="s">
+        <v>58</v>
+      </c>
+      <c r="C825" t="s">
+        <v>41</v>
+      </c>
+      <c r="D825" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E825" t="s">
+        <v>65</v>
+      </c>
+      <c r="F825" t="s">
+        <v>58</v>
+      </c>
+      <c r="G825">
+        <v>0</v>
+      </c>
+      <c r="H825" t="s">
+        <v>58</v>
+      </c>
+      <c r="I825" t="s">
+        <v>55</v>
+      </c>
+      <c r="J825" t="s">
+        <v>2375</v>
+      </c>
+      <c r="K825" t="s">
+        <v>24</v>
+      </c>
+      <c r="L825" t="s">
+        <v>25</v>
+      </c>
+      <c r="M825" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N825" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O825" t="s">
+        <v>24</v>
+      </c>
+      <c r="P825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B826" t="s">
+        <v>58</v>
+      </c>
+      <c r="C826" t="s">
+        <v>16</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E826" t="s">
+        <v>65</v>
+      </c>
+      <c r="F826" t="s">
+        <v>58</v>
+      </c>
+      <c r="G826">
+        <v>0</v>
+      </c>
+      <c r="H826" t="s">
+        <v>58</v>
+      </c>
+      <c r="I826" t="s">
+        <v>55</v>
+      </c>
+      <c r="J826" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K826" t="s">
+        <v>24</v>
+      </c>
+      <c r="L826" t="s">
+        <v>25</v>
+      </c>
+      <c r="M826" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N826" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O826" t="s">
+        <v>80</v>
+      </c>
+      <c r="P826" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="827" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B827" t="s">
+        <v>58</v>
+      </c>
+      <c r="C827" t="s">
+        <v>41</v>
+      </c>
+      <c r="D827" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E827" t="s">
+        <v>65</v>
+      </c>
+      <c r="F827" t="s">
+        <v>91</v>
+      </c>
+      <c r="G827">
+        <v>40</v>
+      </c>
+      <c r="H827" t="s">
+        <v>2377</v>
+      </c>
+      <c r="I827" t="s">
+        <v>2378</v>
+      </c>
+      <c r="J827" t="s">
+        <v>2379</v>
+      </c>
+      <c r="K827" t="s">
+        <v>24</v>
+      </c>
+      <c r="L827" t="s">
+        <v>148</v>
+      </c>
+      <c r="M827" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N827" t="s">
+        <v>2353</v>
+      </c>
+      <c r="O827" t="s">
+        <v>24</v>
+      </c>
+      <c r="P827" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="828" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B828" t="s">
+        <v>58</v>
+      </c>
+      <c r="C828" t="s">
+        <v>16</v>
+      </c>
+      <c r="D828" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E828" t="s">
+        <v>65</v>
+      </c>
+      <c r="F828" t="s">
+        <v>29</v>
+      </c>
+      <c r="G828">
+        <v>27</v>
+      </c>
+      <c r="H828" t="s">
+        <v>44</v>
+      </c>
+      <c r="I828" t="s">
+        <v>22</v>
+      </c>
+      <c r="J828" t="s">
+        <v>2381</v>
+      </c>
+      <c r="K828" t="s">
+        <v>24</v>
+      </c>
+      <c r="L828" t="s">
+        <v>25</v>
+      </c>
+      <c r="M828" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N828" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O828" t="s">
+        <v>80</v>
+      </c>
+      <c r="P828" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="829" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B829" t="s">
+        <v>58</v>
+      </c>
+      <c r="C829" t="s">
+        <v>16</v>
+      </c>
+      <c r="D829" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E829" t="s">
+        <v>65</v>
+      </c>
+      <c r="F829" t="s">
+        <v>29</v>
+      </c>
+      <c r="G829">
+        <v>21</v>
+      </c>
+      <c r="H829" t="s">
+        <v>523</v>
+      </c>
+      <c r="I829" t="s">
+        <v>335</v>
+      </c>
+      <c r="J829" t="s">
+        <v>2383</v>
+      </c>
+      <c r="K829" t="s">
+        <v>24</v>
+      </c>
+      <c r="L829" t="s">
+        <v>25</v>
+      </c>
+      <c r="M829" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N829" t="s">
+        <v>2384</v>
+      </c>
+      <c r="O829" t="s">
+        <v>24</v>
+      </c>
+      <c r="P829" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="830" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B830" t="s">
+        <v>58</v>
+      </c>
+      <c r="C830" t="s">
+        <v>27</v>
+      </c>
+      <c r="D830" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E830" t="s">
+        <v>65</v>
+      </c>
+      <c r="F830" t="s">
+        <v>29</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830" t="s">
+        <v>886</v>
+      </c>
+      <c r="I830" t="s">
+        <v>22</v>
+      </c>
+      <c r="J830" t="s">
+        <v>2386</v>
+      </c>
+      <c r="K830" t="s">
+        <v>24</v>
+      </c>
+      <c r="L830" t="s">
+        <v>25</v>
+      </c>
+      <c r="M830" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N830" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O830" t="s">
+        <v>80</v>
+      </c>
+      <c r="P830" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="831" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B831" t="s">
+        <v>58</v>
+      </c>
+      <c r="C831" t="s">
+        <v>27</v>
+      </c>
+      <c r="D831" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E831" t="s">
+        <v>65</v>
+      </c>
+      <c r="F831" t="s">
+        <v>29</v>
+      </c>
+      <c r="G831">
+        <v>21</v>
+      </c>
+      <c r="H831" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I831" t="s">
+        <v>22</v>
+      </c>
+      <c r="J831" t="s">
+        <v>2388</v>
+      </c>
+      <c r="K831" t="s">
+        <v>24</v>
+      </c>
+      <c r="L831" t="s">
+        <v>25</v>
+      </c>
+      <c r="M831" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N831" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O831" t="s">
+        <v>80</v>
+      </c>
+      <c r="P831" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="832" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B832" t="s">
+        <v>58</v>
+      </c>
+      <c r="C832" t="s">
+        <v>41</v>
+      </c>
+      <c r="D832" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E832" t="s">
+        <v>65</v>
+      </c>
+      <c r="F832" t="s">
+        <v>19</v>
+      </c>
+      <c r="G832">
+        <v>36</v>
+      </c>
+      <c r="H832" t="s">
+        <v>327</v>
+      </c>
+      <c r="I832" t="s">
+        <v>85</v>
+      </c>
+      <c r="J832" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K832" t="s">
+        <v>24</v>
+      </c>
+      <c r="L832" t="s">
+        <v>25</v>
+      </c>
+      <c r="M832" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N832" t="s">
+        <v>922</v>
+      </c>
+      <c r="O832" t="s">
+        <v>24</v>
+      </c>
+      <c r="P832" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="833" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B833" t="s">
+        <v>58</v>
+      </c>
+      <c r="C833" t="s">
+        <v>27</v>
+      </c>
+      <c r="D833" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E833" t="s">
+        <v>65</v>
+      </c>
+      <c r="F833" t="s">
+        <v>19</v>
+      </c>
+      <c r="G833">
+        <v>32</v>
+      </c>
+      <c r="H833" t="s">
+        <v>21</v>
+      </c>
+      <c r="I833" t="s">
+        <v>55</v>
+      </c>
+      <c r="J833" t="s">
+        <v>2392</v>
+      </c>
+      <c r="K833" t="s">
+        <v>24</v>
+      </c>
+      <c r="L833" t="s">
+        <v>25</v>
+      </c>
+      <c r="M833" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N833" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O833" t="s">
+        <v>80</v>
+      </c>
+      <c r="P833" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="834" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B834" t="s">
+        <v>58</v>
+      </c>
+      <c r="C834" t="s">
+        <v>27</v>
+      </c>
+      <c r="D834" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E834" t="s">
+        <v>65</v>
+      </c>
+      <c r="F834" t="s">
+        <v>29</v>
+      </c>
+      <c r="G834">
+        <v>27</v>
+      </c>
+      <c r="H834" t="s">
+        <v>58</v>
+      </c>
+      <c r="I834" t="s">
+        <v>55</v>
+      </c>
+      <c r="J834" t="s">
+        <v>2394</v>
+      </c>
+      <c r="K834" t="s">
+        <v>24</v>
+      </c>
+      <c r="L834" t="s">
+        <v>25</v>
+      </c>
+      <c r="M834" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N834" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O834" t="s">
+        <v>24</v>
+      </c>
+      <c r="P834" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="835" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B835" t="s">
+        <v>58</v>
+      </c>
+      <c r="C835" t="s">
+        <v>41</v>
+      </c>
+      <c r="D835" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E835" t="s">
+        <v>65</v>
+      </c>
+      <c r="F835" t="s">
+        <v>29</v>
+      </c>
+      <c r="G835">
+        <v>40</v>
+      </c>
+      <c r="H835" t="s">
+        <v>129</v>
+      </c>
+      <c r="I835" t="s">
+        <v>22</v>
+      </c>
+      <c r="J835" t="s">
+        <v>2397</v>
+      </c>
+      <c r="K835" t="s">
+        <v>24</v>
+      </c>
+      <c r="L835" t="s">
+        <v>25</v>
+      </c>
+      <c r="M835" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N835" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O835" t="s">
+        <v>80</v>
+      </c>
+      <c r="P835" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="836" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B836" t="s">
+        <v>58</v>
+      </c>
+      <c r="C836" t="s">
+        <v>41</v>
+      </c>
+      <c r="D836" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E836" t="s">
+        <v>65</v>
+      </c>
+      <c r="F836" t="s">
+        <v>19</v>
+      </c>
+      <c r="G836">
+        <v>33</v>
+      </c>
+      <c r="H836" t="s">
+        <v>58</v>
+      </c>
+      <c r="I836" t="s">
+        <v>55</v>
+      </c>
+      <c r="J836" t="s">
+        <v>2399</v>
+      </c>
+      <c r="K836" t="s">
+        <v>24</v>
+      </c>
+      <c r="L836" t="s">
+        <v>25</v>
+      </c>
+      <c r="M836" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N836" t="s">
+        <v>2400</v>
+      </c>
+      <c r="O836" t="s">
+        <v>24</v>
+      </c>
+      <c r="P836" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="837" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B837" t="s">
+        <v>58</v>
+      </c>
+      <c r="C837" t="s">
+        <v>27</v>
+      </c>
+      <c r="D837" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E837" t="s">
+        <v>65</v>
+      </c>
+      <c r="F837" t="s">
+        <v>58</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837" t="s">
+        <v>523</v>
+      </c>
+      <c r="I837" t="s">
+        <v>335</v>
+      </c>
+      <c r="J837" t="s">
+        <v>2402</v>
+      </c>
+      <c r="K837" t="s">
+        <v>24</v>
+      </c>
+      <c r="L837" t="s">
+        <v>25</v>
+      </c>
+      <c r="M837" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N837" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O837" t="s">
+        <v>80</v>
+      </c>
+      <c r="P837" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="838" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B838" t="s">
+        <v>58</v>
+      </c>
+      <c r="C838" t="s">
+        <v>41</v>
+      </c>
+      <c r="D838" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E838" t="s">
+        <v>65</v>
+      </c>
+      <c r="F838" t="s">
+        <v>185</v>
+      </c>
+      <c r="G838">
+        <v>40</v>
+      </c>
+      <c r="H838" t="s">
+        <v>231</v>
+      </c>
+      <c r="I838" t="s">
+        <v>36</v>
+      </c>
+      <c r="J838" t="s">
+        <v>2404</v>
+      </c>
+      <c r="K838" t="s">
+        <v>24</v>
+      </c>
+      <c r="L838" t="s">
+        <v>25</v>
+      </c>
+      <c r="M838" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N838" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O838" t="s">
+        <v>24</v>
+      </c>
+      <c r="P838" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="839" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B839" t="s">
+        <v>58</v>
+      </c>
+      <c r="C839" t="s">
+        <v>41</v>
+      </c>
+      <c r="D839" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E839" t="s">
+        <v>65</v>
+      </c>
+      <c r="F839" t="s">
+        <v>29</v>
+      </c>
+      <c r="G839">
+        <v>47</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I839" t="s">
+        <v>22</v>
+      </c>
+      <c r="J839" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K839" t="s">
+        <v>24</v>
+      </c>
+      <c r="L839" t="s">
+        <v>46</v>
+      </c>
+      <c r="M839" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N839" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O839" t="s">
+        <v>80</v>
+      </c>
+      <c r="P839" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="840" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B840" t="s">
+        <v>58</v>
+      </c>
+      <c r="C840" t="s">
+        <v>41</v>
+      </c>
+      <c r="D840" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E840" t="s">
+        <v>65</v>
+      </c>
+      <c r="F840" t="s">
+        <v>19</v>
+      </c>
+      <c r="G840">
+        <v>36</v>
+      </c>
+      <c r="H840" t="s">
+        <v>129</v>
+      </c>
+      <c r="I840" t="s">
+        <v>22</v>
+      </c>
+      <c r="J840" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K840" t="s">
+        <v>24</v>
+      </c>
+      <c r="L840" t="s">
+        <v>25</v>
+      </c>
+      <c r="M840" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N840" t="s">
+        <v>2409</v>
+      </c>
+      <c r="O840" t="s">
+        <v>24</v>
+      </c>
+      <c r="P840" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="841" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B841" t="s">
+        <v>58</v>
+      </c>
+      <c r="C841" t="s">
+        <v>41</v>
+      </c>
+      <c r="D841" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E841" t="s">
+        <v>65</v>
+      </c>
+      <c r="F841" t="s">
+        <v>292</v>
+      </c>
+      <c r="G841">
+        <v>40</v>
+      </c>
+      <c r="H841" t="s">
+        <v>58</v>
+      </c>
+      <c r="I841" t="s">
+        <v>55</v>
+      </c>
+      <c r="J841" t="s">
+        <v>2411</v>
+      </c>
+      <c r="K841" t="s">
+        <v>24</v>
+      </c>
+      <c r="L841" t="s">
+        <v>25</v>
+      </c>
+      <c r="M841" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N841" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O841" t="s">
+        <v>24</v>
+      </c>
+      <c r="P841" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="842" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B842" t="s">
+        <v>58</v>
+      </c>
+      <c r="C842" t="s">
+        <v>16</v>
+      </c>
+      <c r="D842" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E842" t="s">
+        <v>65</v>
+      </c>
+      <c r="F842" t="s">
+        <v>29</v>
+      </c>
+      <c r="G842">
+        <v>32</v>
+      </c>
+      <c r="H842" t="s">
+        <v>58</v>
+      </c>
+      <c r="I842" t="s">
+        <v>55</v>
+      </c>
+      <c r="J842" t="s">
+        <v>2413</v>
+      </c>
+      <c r="K842" t="s">
+        <v>24</v>
+      </c>
+      <c r="L842" t="s">
+        <v>46</v>
+      </c>
+      <c r="M842" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N842" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O842" t="s">
+        <v>80</v>
+      </c>
+      <c r="P842" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="843" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B843" t="s">
+        <v>58</v>
+      </c>
+      <c r="C843" t="s">
+        <v>27</v>
+      </c>
+      <c r="D843" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E843" t="s">
+        <v>65</v>
+      </c>
+      <c r="F843" t="s">
+        <v>19</v>
+      </c>
+      <c r="G843">
+        <v>44</v>
+      </c>
+      <c r="H843" t="s">
+        <v>21</v>
+      </c>
+      <c r="I843" t="s">
+        <v>157</v>
+      </c>
+      <c r="J843" t="s">
+        <v>2415</v>
+      </c>
+      <c r="K843" t="s">
+        <v>24</v>
+      </c>
+      <c r="L843" t="s">
+        <v>25</v>
+      </c>
+      <c r="M843" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N843" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O843" t="s">
+        <v>80</v>
+      </c>
+      <c r="P843" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="844" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B844" t="s">
+        <v>58</v>
+      </c>
+      <c r="C844" t="s">
+        <v>41</v>
+      </c>
+      <c r="D844" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E844" t="s">
+        <v>65</v>
+      </c>
+      <c r="F844" t="s">
+        <v>29</v>
+      </c>
+      <c r="G844">
+        <v>45</v>
+      </c>
+      <c r="H844" t="s">
+        <v>2417</v>
+      </c>
+      <c r="I844" t="s">
+        <v>22</v>
+      </c>
+      <c r="J844" t="s">
+        <v>2418</v>
+      </c>
+      <c r="K844" t="s">
+        <v>24</v>
+      </c>
+      <c r="L844" t="s">
+        <v>25</v>
+      </c>
+      <c r="M844" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N844" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O844" t="s">
+        <v>24</v>
+      </c>
+      <c r="P844" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="845" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B845" t="s">
+        <v>58</v>
+      </c>
+      <c r="C845" t="s">
+        <v>27</v>
+      </c>
+      <c r="D845" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E845" t="s">
+        <v>65</v>
+      </c>
+      <c r="F845" t="s">
+        <v>19</v>
+      </c>
+      <c r="G845">
+        <v>28</v>
+      </c>
+      <c r="H845" t="s">
+        <v>132</v>
+      </c>
+      <c r="I845" t="s">
+        <v>335</v>
+      </c>
+      <c r="J845" t="s">
+        <v>2420</v>
+      </c>
+      <c r="K845" t="s">
+        <v>24</v>
+      </c>
+      <c r="L845" t="s">
+        <v>25</v>
+      </c>
+      <c r="M845" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N845" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O845" t="s">
+        <v>80</v>
+      </c>
+      <c r="P845" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="846" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B846" t="s">
+        <v>58</v>
+      </c>
+      <c r="C846" t="s">
+        <v>41</v>
+      </c>
+      <c r="D846" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E846" t="s">
+        <v>65</v>
+      </c>
+      <c r="F846" t="s">
+        <v>185</v>
+      </c>
+      <c r="G846">
+        <v>38</v>
+      </c>
+      <c r="H846" t="s">
+        <v>44</v>
+      </c>
+      <c r="I846" t="s">
+        <v>36</v>
+      </c>
+      <c r="J846" t="s">
+        <v>2422</v>
+      </c>
+      <c r="K846" t="s">
+        <v>24</v>
+      </c>
+      <c r="L846" t="s">
+        <v>25</v>
+      </c>
+      <c r="M846" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N846" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O846" t="s">
+        <v>80</v>
+      </c>
+      <c r="P846" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="847" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B847" t="s">
+        <v>58</v>
+      </c>
+      <c r="C847" t="s">
+        <v>27</v>
+      </c>
+      <c r="D847" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E847" t="s">
+        <v>18</v>
+      </c>
+      <c r="F847" t="s">
+        <v>29</v>
+      </c>
+      <c r="G847">
+        <v>0</v>
+      </c>
+      <c r="H847" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I847" t="s">
+        <v>55</v>
+      </c>
+      <c r="J847" t="s">
+        <v>2426</v>
+      </c>
+      <c r="K847" t="s">
+        <v>24</v>
+      </c>
+      <c r="L847" t="s">
+        <v>25</v>
+      </c>
+      <c r="M847" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N847" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O847" t="s">
+        <v>24</v>
+      </c>
+      <c r="P847" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="848" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B848" t="s">
+        <v>58</v>
+      </c>
+      <c r="C848" t="s">
+        <v>41</v>
+      </c>
+      <c r="D848" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E848" t="s">
+        <v>18</v>
+      </c>
+      <c r="F848" t="s">
+        <v>29</v>
+      </c>
+      <c r="G848">
+        <v>21</v>
+      </c>
+      <c r="H848" t="s">
+        <v>21</v>
+      </c>
+      <c r="I848" t="s">
+        <v>22</v>
+      </c>
+      <c r="J848" t="s">
+        <v>2428</v>
+      </c>
+      <c r="K848" t="s">
+        <v>24</v>
+      </c>
+      <c r="L848" t="s">
+        <v>25</v>
+      </c>
+      <c r="M848" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N848" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O848" t="s">
+        <v>80</v>
+      </c>
+      <c r="P848" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="849" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B849" t="s">
+        <v>58</v>
+      </c>
+      <c r="C849" t="s">
+        <v>41</v>
+      </c>
+      <c r="D849" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E849" t="s">
+        <v>18</v>
+      </c>
+      <c r="F849" t="s">
+        <v>19</v>
+      </c>
+      <c r="G849">
+        <v>43</v>
+      </c>
+      <c r="H849" t="s">
+        <v>281</v>
+      </c>
+      <c r="I849" t="s">
+        <v>22</v>
+      </c>
+      <c r="J849" t="s">
+        <v>2430</v>
+      </c>
+      <c r="K849" t="s">
+        <v>24</v>
+      </c>
+      <c r="L849" t="s">
+        <v>25</v>
+      </c>
+      <c r="M849" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N849" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O849" t="s">
+        <v>80</v>
+      </c>
+      <c r="P849" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="850" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B850" t="s">
+        <v>58</v>
+      </c>
+      <c r="C850" t="s">
+        <v>27</v>
+      </c>
+      <c r="D850" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E850" t="s">
+        <v>18</v>
+      </c>
+      <c r="F850" t="s">
+        <v>19</v>
+      </c>
+      <c r="G850">
+        <v>28</v>
+      </c>
+      <c r="H850" t="s">
+        <v>2433</v>
+      </c>
+      <c r="I850" t="s">
+        <v>55</v>
+      </c>
+      <c r="J850" t="s">
+        <v>2434</v>
+      </c>
+      <c r="K850" t="s">
+        <v>24</v>
+      </c>
+      <c r="L850" t="s">
+        <v>25</v>
+      </c>
+      <c r="M850" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N850" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O850" t="s">
+        <v>24</v>
+      </c>
+      <c r="P850" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="851" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B851" t="s">
+        <v>58</v>
+      </c>
+      <c r="C851" t="s">
+        <v>41</v>
+      </c>
+      <c r="D851" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E851" t="s">
+        <v>18</v>
+      </c>
+      <c r="F851" t="s">
+        <v>29</v>
+      </c>
+      <c r="G851">
+        <v>24</v>
+      </c>
+      <c r="H851" t="s">
+        <v>21</v>
+      </c>
+      <c r="I851" t="s">
+        <v>22</v>
+      </c>
+      <c r="J851" t="s">
+        <v>2436</v>
+      </c>
+      <c r="K851" t="s">
+        <v>24</v>
+      </c>
+      <c r="L851" t="s">
+        <v>25</v>
+      </c>
+      <c r="M851" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N851" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O851" t="s">
+        <v>24</v>
+      </c>
+      <c r="P851" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="852" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B852" t="s">
+        <v>58</v>
+      </c>
+      <c r="C852" t="s">
+        <v>27</v>
+      </c>
+      <c r="D852" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E852" t="s">
+        <v>18</v>
+      </c>
+      <c r="F852" t="s">
+        <v>29</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+      <c r="H852" t="s">
+        <v>129</v>
+      </c>
+      <c r="I852" t="s">
+        <v>36</v>
+      </c>
+      <c r="J852" t="s">
+        <v>2438</v>
+      </c>
+      <c r="K852" t="s">
+        <v>80</v>
+      </c>
+      <c r="L852" t="s">
+        <v>25</v>
+      </c>
+      <c r="M852" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N852" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O852" t="s">
+        <v>24</v>
+      </c>
+      <c r="P852" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="853" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B853" t="s">
+        <v>58</v>
+      </c>
+      <c r="C853" t="s">
+        <v>27</v>
+      </c>
+      <c r="D853" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E853" t="s">
+        <v>65</v>
+      </c>
+      <c r="F853" t="s">
+        <v>19</v>
+      </c>
+      <c r="G853">
+        <v>41</v>
+      </c>
+      <c r="H853" t="s">
+        <v>129</v>
+      </c>
+      <c r="I853" t="s">
+        <v>55</v>
+      </c>
+      <c r="J853" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K853" t="s">
+        <v>24</v>
+      </c>
+      <c r="L853" t="s">
+        <v>25</v>
+      </c>
+      <c r="M853" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N853" t="s">
+        <v>2441</v>
+      </c>
+      <c r="O853" t="s">
+        <v>24</v>
+      </c>
+      <c r="P853" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="854" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B854" t="s">
+        <v>58</v>
+      </c>
+      <c r="C854" t="s">
+        <v>27</v>
+      </c>
+      <c r="D854" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E854" t="s">
+        <v>65</v>
+      </c>
+      <c r="F854" t="s">
+        <v>29</v>
+      </c>
+      <c r="G854">
+        <v>25</v>
+      </c>
+      <c r="H854" t="s">
+        <v>21</v>
+      </c>
+      <c r="I854" t="s">
+        <v>22</v>
+      </c>
+      <c r="J854" t="s">
+        <v>2443</v>
+      </c>
+      <c r="K854" t="s">
+        <v>24</v>
+      </c>
+      <c r="L854" t="s">
+        <v>46</v>
+      </c>
+      <c r="M854" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N854" t="s">
+        <v>2444</v>
+      </c>
+      <c r="O854" t="s">
+        <v>24</v>
+      </c>
+      <c r="P854" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="855" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B855" t="s">
+        <v>58</v>
+      </c>
+      <c r="C855" t="s">
+        <v>16</v>
+      </c>
+      <c r="D855" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E855" t="s">
+        <v>65</v>
+      </c>
+      <c r="F855" t="s">
+        <v>19</v>
+      </c>
+      <c r="G855">
+        <v>47</v>
+      </c>
+      <c r="H855" t="s">
+        <v>523</v>
+      </c>
+      <c r="I855" t="s">
+        <v>335</v>
+      </c>
+      <c r="J855" t="s">
+        <v>2446</v>
+      </c>
+      <c r="K855" t="s">
+        <v>24</v>
+      </c>
+      <c r="L855" t="s">
+        <v>450</v>
+      </c>
+      <c r="M855" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N855" t="s">
+        <v>2447</v>
+      </c>
+      <c r="O855" t="s">
+        <v>24</v>
+      </c>
+      <c r="P855" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="856" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B856" t="s">
+        <v>58</v>
+      </c>
+      <c r="C856" t="s">
+        <v>27</v>
+      </c>
+      <c r="D856" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E856" t="s">
+        <v>65</v>
+      </c>
+      <c r="F856" t="s">
+        <v>29</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+      <c r="H856" t="s">
+        <v>2449</v>
+      </c>
+      <c r="I856" t="s">
+        <v>55</v>
+      </c>
+      <c r="J856" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K856" t="s">
+        <v>24</v>
+      </c>
+      <c r="L856" t="s">
+        <v>25</v>
+      </c>
+      <c r="M856" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N856" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O856" t="s">
+        <v>80</v>
+      </c>
+      <c r="P856" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="857" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B857" t="s">
+        <v>58</v>
+      </c>
+      <c r="C857" t="s">
+        <v>41</v>
+      </c>
+      <c r="D857" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E857" t="s">
+        <v>65</v>
+      </c>
+      <c r="F857" t="s">
+        <v>91</v>
+      </c>
+      <c r="G857">
+        <v>40</v>
+      </c>
+      <c r="H857" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I857" t="s">
+        <v>157</v>
+      </c>
+      <c r="J857" t="s">
+        <v>2453</v>
+      </c>
+      <c r="K857" t="s">
+        <v>24</v>
+      </c>
+      <c r="L857" t="s">
+        <v>25</v>
+      </c>
+      <c r="M857" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N857" t="s">
+        <v>2454</v>
+      </c>
+      <c r="O857" t="s">
+        <v>80</v>
+      </c>
+      <c r="P857" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="858" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B858" t="s">
+        <v>58</v>
+      </c>
+      <c r="C858" t="s">
+        <v>16</v>
+      </c>
+      <c r="D858" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E858" t="s">
+        <v>65</v>
+      </c>
+      <c r="F858" t="s">
+        <v>19</v>
+      </c>
+      <c r="G858">
+        <v>45</v>
+      </c>
+      <c r="H858" t="s">
+        <v>502</v>
+      </c>
+      <c r="I858" t="s">
+        <v>22</v>
+      </c>
+      <c r="J858" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K858" t="s">
+        <v>24</v>
+      </c>
+      <c r="L858" t="s">
+        <v>148</v>
+      </c>
+      <c r="M858" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N858" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O858" t="s">
+        <v>80</v>
+      </c>
+      <c r="P858" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="859" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B859" t="s">
+        <v>58</v>
+      </c>
+      <c r="C859" t="s">
+        <v>16</v>
+      </c>
+      <c r="D859" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E859" t="s">
+        <v>65</v>
+      </c>
+      <c r="F859" t="s">
+        <v>19</v>
+      </c>
+      <c r="G859">
+        <v>50</v>
+      </c>
+      <c r="H859" t="s">
+        <v>58</v>
+      </c>
+      <c r="I859" t="s">
+        <v>55</v>
+      </c>
+      <c r="J859" t="s">
+        <v>2458</v>
+      </c>
+      <c r="K859" t="s">
+        <v>24</v>
+      </c>
+      <c r="L859" t="s">
+        <v>450</v>
+      </c>
+      <c r="M859" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N859" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O859" t="s">
+        <v>80</v>
+      </c>
+      <c r="P859" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="860" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B860" t="s">
+        <v>58</v>
+      </c>
+      <c r="C860" t="s">
+        <v>16</v>
+      </c>
+      <c r="D860" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E860" t="s">
+        <v>65</v>
+      </c>
+      <c r="F860" t="s">
+        <v>29</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+      <c r="H860" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I860" t="s">
+        <v>55</v>
+      </c>
+      <c r="J860" t="s">
+        <v>2460</v>
+      </c>
+      <c r="K860" t="s">
+        <v>24</v>
+      </c>
+      <c r="L860" t="s">
+        <v>25</v>
+      </c>
+      <c r="M860" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N860" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O860" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P860" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="861" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B861" t="s">
+        <v>58</v>
+      </c>
+      <c r="C861" t="s">
+        <v>41</v>
+      </c>
+      <c r="D861" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E861" t="s">
+        <v>65</v>
+      </c>
+      <c r="F861" t="s">
+        <v>29</v>
+      </c>
+      <c r="G861">
+        <v>11</v>
+      </c>
+      <c r="H861" t="s">
+        <v>281</v>
+      </c>
+      <c r="I861" t="s">
+        <v>22</v>
+      </c>
+      <c r="J861" t="s">
+        <v>2462</v>
+      </c>
+      <c r="K861" t="s">
+        <v>24</v>
+      </c>
+      <c r="L861" t="s">
+        <v>25</v>
+      </c>
+      <c r="M861" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N861" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O861" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P861" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="862" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B862" t="s">
+        <v>58</v>
+      </c>
+      <c r="C862" t="s">
+        <v>41</v>
+      </c>
+      <c r="D862" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E862" t="s">
+        <v>65</v>
+      </c>
+      <c r="F862" t="s">
+        <v>58</v>
+      </c>
+      <c r="G862">
+        <v>33</v>
+      </c>
+      <c r="H862" t="s">
+        <v>618</v>
+      </c>
+      <c r="I862" t="s">
+        <v>22</v>
+      </c>
+      <c r="J862" t="s">
+        <v>2464</v>
+      </c>
+      <c r="K862" t="s">
+        <v>24</v>
+      </c>
+      <c r="L862" t="s">
+        <v>25</v>
+      </c>
+      <c r="M862" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N862" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O862" t="s">
+        <v>80</v>
+      </c>
+      <c r="P862" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="863" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B863" t="s">
+        <v>58</v>
+      </c>
+      <c r="C863" t="s">
+        <v>27</v>
+      </c>
+      <c r="D863" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E863" t="s">
+        <v>65</v>
+      </c>
+      <c r="F863" t="s">
+        <v>29</v>
+      </c>
+      <c r="G863">
+        <v>13</v>
+      </c>
+      <c r="H863" t="s">
+        <v>2466</v>
+      </c>
+      <c r="I863" t="s">
+        <v>157</v>
+      </c>
+      <c r="J863" t="s">
+        <v>2467</v>
+      </c>
+      <c r="K863" t="s">
+        <v>24</v>
+      </c>
+      <c r="L863" t="s">
+        <v>25</v>
+      </c>
+      <c r="M863" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N863" t="s">
+        <v>2468</v>
+      </c>
+      <c r="O863" t="s">
+        <v>24</v>
+      </c>
+      <c r="P863" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="864" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B864" t="s">
+        <v>58</v>
+      </c>
+      <c r="C864" t="s">
+        <v>27</v>
+      </c>
+      <c r="D864" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E864" t="s">
+        <v>65</v>
+      </c>
+      <c r="F864" t="s">
+        <v>19</v>
+      </c>
+      <c r="G864">
+        <v>0</v>
+      </c>
+      <c r="H864" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I864" t="s">
+        <v>55</v>
+      </c>
+      <c r="J864" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K864" t="s">
+        <v>24</v>
+      </c>
+      <c r="L864" t="s">
+        <v>25</v>
+      </c>
+      <c r="M864" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N864" t="s">
+        <v>2472</v>
+      </c>
+      <c r="O864" t="s">
+        <v>24</v>
+      </c>
+      <c r="P864" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="865" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B865" t="s">
+        <v>58</v>
+      </c>
+      <c r="C865" t="s">
+        <v>27</v>
+      </c>
+      <c r="D865" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E865" t="s">
+        <v>65</v>
+      </c>
+      <c r="F865" t="s">
+        <v>29</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+      <c r="H865" t="s">
+        <v>58</v>
+      </c>
+      <c r="I865" t="s">
+        <v>85</v>
+      </c>
+      <c r="J865" t="s">
+        <v>2474</v>
+      </c>
+      <c r="K865" t="s">
+        <v>24</v>
+      </c>
+      <c r="L865" t="s">
+        <v>25</v>
+      </c>
+      <c r="M865" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N865" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O865" t="s">
+        <v>80</v>
+      </c>
+      <c r="P865" t="s">
+        <v>2249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
